--- a/02_in_data/All_LRR_PRR_ligand_data.xlsx
+++ b/02_in_data/All_LRR_PRR_ligand_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffd16e31ab085cd5/Krasevia_Lab/Project/01_peptide_ML_prediction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4836" documentId="8_{762EC3FE-3198-8040-A112-7E9B61E2665E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{835F29D8-221A-3847-A889-5EB94447BA15}"/>
+  <xr:revisionPtr revIDLastSave="4838" documentId="8_{762EC3FE-3198-8040-A112-7E9B61E2665E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F27E90C1-F462-684D-B9D0-040C22E12E9A}"/>
   <bookViews>
-    <workbookView xWindow="36220" yWindow="3260" windowWidth="42700" windowHeight="34020" xr2:uid="{5C5BCD9C-73C9-CF41-954E-ACA1A5D65A44}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19540" xr2:uid="{5C5BCD9C-73C9-CF41-954E-ACA1A5D65A44}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_Building" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16761" uniqueCount="2000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16761" uniqueCount="1999">
   <si>
     <t>Plant species</t>
   </si>
@@ -5148,9 +5148,6 @@
   </si>
   <si>
     <t>60_Dunning_2007</t>
-  </si>
-  <si>
-    <t>fls22</t>
   </si>
   <si>
     <t>MKLLSKTFLILTLTFFFFGIALAKQSFEPEIEALKSFKNGISNDPLGVLSDWTIIGSLRHCNWTGITCDSTGHVVSVSLLEKQLEGVLSPAIANLTYLQVLDLTSNSFTGKIPAEIGKLTELNQLILYLNYFSGSIPSGIWELKNIFYLDLRNNLLSGDVPEEICKTSSLVLIGFDYNNLTGKIPECLGDLVHLQMFVAAGNHLTGSIPVSIGTLANLTDLDLSGNQLTGKIPRDFGNLLNLQSLVLTENLLEGEIPAEIGNCSSLVQLELYDNQLTGKIPAELGNLVQLQALRIYKNKLTSSIPSSLFRLTQLTHLGLSENHLVGPISEEIGFLESLEVLTLHSNNFTGEFPQSITNLRNLTVLTVGFNNISGELPADLGLLTNLRNLSAHDNLLTGPIPSSISNCTGLKLLDLSHNQMTGEIPRGFGRMNLTFISIGRNHFTGEIPDDIFNCSNLETLSVADNNLTGTLKPLIGKLQKLRILQVSYNSLTGPIPREIGNLKDLNILYLHSNGFTGRIPREMSNLTLLQGLRMYSNDLEGPIPEEMFDMKLLSVLDLSNNKFSGQIPALFSKLESLTYLSLQGNKFNGSIPASLKSLSLLNTFDISDNLLTGTIPGELLASLKNMQLYLNFSNNLLTGTIPKELGKLEMVQEIDLSNNLFSGSIPRSLQACKNVFTLDFSQNNLSGHIPDEVFQGMDMIISLNLSRNSFSGEIPQSFGNMTHLVSLDLSSNNLTGEIPESLANLSTLKHLKLASNNLKGHVPESGVFKNINASDLMGNTDLCGSKKPLKPCTIKQKSSHFSKRTRVILIILGSAAALLLVLLLVLILTCCKKKEKKIENSSESSLPDLDSALKLKRFEPKELEQATDSFNSANIIGSSSLSTVYKGQLEDGTVIAVKVLNLKEFSAESDKWFYTEAKTLSQLKHRNLVKILGFAWESGKTKALVLPFMENGNLEDTIHGSAAPIGSLLERIDLCVHIASGIDYLHSGYGFPIVHCDLKPANILLDSDRVAHVSDFGTARILGFREDGSTTASTSAFEGTIGYLAPGKLLTTLNFQNPNYAIDLLEIHSYFSTEFAYMRKVTTKADVFSFGIIMMELMTKQRPTSLNDEDSQDMTLRQLVEKSIGDGRKGMIRVLDSELGDSIVSLKQEEAIEDFLKLCLFCTSSRPEDRPDMNEILTHLMKLRGKANSFREDRNEDREV</t>
@@ -7529,8 +7526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCDCA10-C1DF-E744-9AE5-5ECCA937B4BD}">
   <dimension ref="A1:O1312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1225" zoomScale="75" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="B1318" sqref="B1318"/>
+    <sheetView tabSelected="1" topLeftCell="E1105" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I1139" sqref="I1139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9223,10 +9220,10 @@
         <v>32</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>31</v>
@@ -9241,7 +9238,7 @@
         <v>35</v>
       </c>
       <c r="H38" s="14" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>1355</v>
@@ -9268,10 +9265,10 @@
         <v>32</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>31</v>
@@ -9286,7 +9283,7 @@
         <v>35</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>1355</v>
@@ -9313,10 +9310,10 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>31</v>
@@ -9331,7 +9328,7 @@
         <v>35</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>1355</v>
@@ -9358,10 +9355,10 @@
         <v>32</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>31</v>
@@ -9376,7 +9373,7 @@
         <v>35</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>1355</v>
@@ -9403,10 +9400,10 @@
         <v>32</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>31</v>
@@ -9421,7 +9418,7 @@
         <v>35</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>1355</v>
@@ -9430,7 +9427,7 @@
         <v>13</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>20</v>
@@ -9637,7 +9634,7 @@
         <v>33</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>31</v>
@@ -9649,10 +9646,10 @@
         <v>30</v>
       </c>
       <c r="G47" s="1" t="s">
+        <v>1880</v>
+      </c>
+      <c r="H47" s="5" t="s">
         <v>1881</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>1882</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>1355</v>
@@ -9684,7 +9681,7 @@
         <v>33</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>31</v>
@@ -9696,10 +9693,10 @@
         <v>30</v>
       </c>
       <c r="G48" s="1" t="s">
+        <v>1880</v>
+      </c>
+      <c r="H48" s="5" t="s">
         <v>1881</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>1882</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>1355</v>
@@ -9731,7 +9728,7 @@
         <v>33</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>31</v>
@@ -9743,10 +9740,10 @@
         <v>30</v>
       </c>
       <c r="G49" s="1" t="s">
+        <v>1880</v>
+      </c>
+      <c r="H49" s="5" t="s">
         <v>1881</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>1882</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>1355</v>
@@ -9778,7 +9775,7 @@
         <v>33</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>31</v>
@@ -9790,10 +9787,10 @@
         <v>30</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>1880</v>
+      </c>
+      <c r="H50" s="5" t="s">
         <v>1881</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>1882</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>1355</v>
@@ -9861,7 +9858,7 @@
         <v>39</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
@@ -10968,7 +10965,7 @@
         <v>13</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>48</v>
@@ -11025,7 +11022,7 @@
         <v>39</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
@@ -12998,7 +12995,7 @@
         <v>468</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>460</v>
@@ -13045,7 +13042,7 @@
         <v>468</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>460</v>
@@ -13092,7 +13089,7 @@
         <v>468</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>460</v>
@@ -13821,7 +13818,7 @@
         <v>120</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.2">
@@ -13868,7 +13865,7 @@
         <v>120</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.2">
@@ -13915,7 +13912,7 @@
         <v>120</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.2">
@@ -13962,7 +13959,7 @@
         <v>120</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.2">
@@ -14009,7 +14006,7 @@
         <v>120</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.2">
@@ -14056,7 +14053,7 @@
         <v>120</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.2">
@@ -14103,7 +14100,7 @@
         <v>120</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.2">
@@ -14150,7 +14147,7 @@
         <v>120</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.2">
@@ -14197,7 +14194,7 @@
         <v>120</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.2">
@@ -14244,7 +14241,7 @@
         <v>120</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.2">
@@ -14299,7 +14296,7 @@
         <v>132</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>31</v>
@@ -14335,7 +14332,7 @@
         <v>120</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.2">
@@ -14346,7 +14343,7 @@
         <v>132</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>31</v>
@@ -14390,7 +14387,7 @@
         <v>132</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>31</v>
@@ -14434,7 +14431,7 @@
         <v>132</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>31</v>
@@ -14478,7 +14475,7 @@
         <v>132</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>31</v>
@@ -14522,7 +14519,7 @@
         <v>132</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>31</v>
@@ -14566,7 +14563,7 @@
         <v>132</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>31</v>
@@ -14610,7 +14607,7 @@
         <v>132</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>31</v>
@@ -14654,7 +14651,7 @@
         <v>132</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>31</v>
@@ -14698,7 +14695,7 @@
         <v>132</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>31</v>
@@ -14742,7 +14739,7 @@
         <v>132</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>31</v>
@@ -14822,7 +14819,7 @@
         <v>120</v>
       </c>
       <c r="O158" s="1" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.2">
@@ -15309,7 +15306,7 @@
         <v>120</v>
       </c>
       <c r="O169" s="1" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.2">
@@ -15772,7 +15769,7 @@
         <v>111</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H180" s="5" t="s">
         <v>140</v>
@@ -15796,7 +15793,7 @@
         <v>120</v>
       </c>
       <c r="O180" s="1" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.2">
@@ -15819,7 +15816,7 @@
         <v>111</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H181" s="5" t="s">
         <v>140</v>
@@ -15863,7 +15860,7 @@
         <v>111</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H182" s="5" t="s">
         <v>140</v>
@@ -15907,7 +15904,7 @@
         <v>111</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H183" s="5" t="s">
         <v>140</v>
@@ -15951,7 +15948,7 @@
         <v>111</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H184" s="5" t="s">
         <v>140</v>
@@ -15995,7 +15992,7 @@
         <v>111</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H185" s="5" t="s">
         <v>140</v>
@@ -16039,7 +16036,7 @@
         <v>111</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H186" s="5" t="s">
         <v>140</v>
@@ -16083,7 +16080,7 @@
         <v>111</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H187" s="5" t="s">
         <v>140</v>
@@ -16127,7 +16124,7 @@
         <v>111</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H188" s="5" t="s">
         <v>140</v>
@@ -16171,7 +16168,7 @@
         <v>111</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H189" s="5" t="s">
         <v>140</v>
@@ -16215,7 +16212,7 @@
         <v>111</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="H190" s="5" t="s">
         <v>140</v>
@@ -16283,7 +16280,7 @@
         <v>120</v>
       </c>
       <c r="O191" s="1" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.2">
@@ -16770,7 +16767,7 @@
         <v>120</v>
       </c>
       <c r="O202" s="1" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.2">
@@ -16817,7 +16814,7 @@
         <v>120</v>
       </c>
       <c r="O203" s="1" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.2">
@@ -16864,7 +16861,7 @@
         <v>120</v>
       </c>
       <c r="O204" s="1" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.2">
@@ -16911,7 +16908,7 @@
         <v>120</v>
       </c>
       <c r="O205" s="1" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.2">
@@ -16958,7 +16955,7 @@
         <v>120</v>
       </c>
       <c r="O206" s="1" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.2">
@@ -17005,7 +17002,7 @@
         <v>120</v>
       </c>
       <c r="O207" s="1" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.2">
@@ -17052,7 +17049,7 @@
         <v>120</v>
       </c>
       <c r="O208" s="1" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.2">
@@ -17099,7 +17096,7 @@
         <v>120</v>
       </c>
       <c r="O209" s="1" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.2">
@@ -17146,7 +17143,7 @@
         <v>120</v>
       </c>
       <c r="O210" s="1" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.2">
@@ -17193,7 +17190,7 @@
         <v>120</v>
       </c>
       <c r="O211" s="1" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.2">
@@ -17284,7 +17281,7 @@
         <v>120</v>
       </c>
       <c r="O213" s="1" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.2">
@@ -17771,7 +17768,7 @@
         <v>120</v>
       </c>
       <c r="O224" s="1" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.2">
@@ -17882,10 +17879,10 @@
         <v>111</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="H227" s="5" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="I227" s="1" t="s">
         <v>117</v>
@@ -17906,7 +17903,7 @@
         <v>120</v>
       </c>
       <c r="O227" s="1" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.2">
@@ -17929,10 +17926,10 @@
         <v>111</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="H228" s="5" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="I228" s="1" t="s">
         <v>117</v>
@@ -17953,7 +17950,7 @@
         <v>120</v>
       </c>
       <c r="O228" s="1" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.2">
@@ -17976,10 +17973,10 @@
         <v>111</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="H229" s="5" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="I229" s="1" t="s">
         <v>117</v>
@@ -18000,7 +17997,7 @@
         <v>120</v>
       </c>
       <c r="O229" s="1" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.2">
@@ -18023,10 +18020,10 @@
         <v>111</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="H230" s="5" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="I230" s="1" t="s">
         <v>117</v>
@@ -18047,7 +18044,7 @@
         <v>120</v>
       </c>
       <c r="O230" s="1" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.2">
@@ -18070,10 +18067,10 @@
         <v>111</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="H231" s="5" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="I231" s="1" t="s">
         <v>117</v>
@@ -18094,7 +18091,7 @@
         <v>120</v>
       </c>
       <c r="O231" s="1" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.2">
@@ -18117,10 +18114,10 @@
         <v>111</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="H232" s="5" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="I232" s="1" t="s">
         <v>117</v>
@@ -18141,7 +18138,7 @@
         <v>120</v>
       </c>
       <c r="O232" s="1" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.2">
@@ -18164,10 +18161,10 @@
         <v>111</v>
       </c>
       <c r="G233" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="H233" s="5" t="s">
         <v>1869</v>
-      </c>
-      <c r="H233" s="5" t="s">
-        <v>1870</v>
       </c>
       <c r="I233" s="1" t="s">
         <v>117</v>
@@ -18188,7 +18185,7 @@
         <v>120</v>
       </c>
       <c r="O233" s="1" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.2">
@@ -18211,10 +18208,10 @@
         <v>111</v>
       </c>
       <c r="G234" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="H234" s="5" t="s">
         <v>1869</v>
-      </c>
-      <c r="H234" s="5" t="s">
-        <v>1870</v>
       </c>
       <c r="I234" s="1" t="s">
         <v>117</v>
@@ -18235,7 +18232,7 @@
         <v>120</v>
       </c>
       <c r="O234" s="1" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.2">
@@ -18258,10 +18255,10 @@
         <v>111</v>
       </c>
       <c r="G235" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="H235" s="5" t="s">
         <v>1869</v>
-      </c>
-      <c r="H235" s="5" t="s">
-        <v>1870</v>
       </c>
       <c r="I235" s="1" t="s">
         <v>117</v>
@@ -18282,7 +18279,7 @@
         <v>120</v>
       </c>
       <c r="O235" s="1" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.2">
@@ -18305,10 +18302,10 @@
         <v>111</v>
       </c>
       <c r="G236" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="H236" s="5" t="s">
         <v>1869</v>
-      </c>
-      <c r="H236" s="5" t="s">
-        <v>1870</v>
       </c>
       <c r="I236" s="1" t="s">
         <v>117</v>
@@ -18329,7 +18326,7 @@
         <v>120</v>
       </c>
       <c r="O236" s="1" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.2">
@@ -18352,10 +18349,10 @@
         <v>111</v>
       </c>
       <c r="G237" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="H237" s="5" t="s">
         <v>1869</v>
-      </c>
-      <c r="H237" s="5" t="s">
-        <v>1870</v>
       </c>
       <c r="I237" s="1" t="s">
         <v>117</v>
@@ -18376,7 +18373,7 @@
         <v>120</v>
       </c>
       <c r="O237" s="1" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.2">
@@ -18399,10 +18396,10 @@
         <v>111</v>
       </c>
       <c r="G238" s="1" t="s">
+        <v>1868</v>
+      </c>
+      <c r="H238" s="5" t="s">
         <v>1869</v>
-      </c>
-      <c r="H238" s="5" t="s">
-        <v>1870</v>
       </c>
       <c r="I238" s="1" t="s">
         <v>117</v>
@@ -18423,7 +18420,7 @@
         <v>120</v>
       </c>
       <c r="O238" s="1" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.2">
@@ -18446,10 +18443,10 @@
         <v>111</v>
       </c>
       <c r="G239" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="H239" s="5" t="s">
         <v>1871</v>
-      </c>
-      <c r="H239" s="5" t="s">
-        <v>1872</v>
       </c>
       <c r="I239" s="1" t="s">
         <v>117</v>
@@ -18470,7 +18467,7 @@
         <v>120</v>
       </c>
       <c r="O239" s="1" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.2">
@@ -18493,10 +18490,10 @@
         <v>111</v>
       </c>
       <c r="G240" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="H240" s="5" t="s">
         <v>1871</v>
-      </c>
-      <c r="H240" s="5" t="s">
-        <v>1872</v>
       </c>
       <c r="I240" s="1" t="s">
         <v>117</v>
@@ -18517,7 +18514,7 @@
         <v>120</v>
       </c>
       <c r="O240" s="1" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.2">
@@ -18540,10 +18537,10 @@
         <v>111</v>
       </c>
       <c r="G241" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="H241" s="5" t="s">
         <v>1871</v>
-      </c>
-      <c r="H241" s="5" t="s">
-        <v>1872</v>
       </c>
       <c r="I241" s="1" t="s">
         <v>117</v>
@@ -18564,7 +18561,7 @@
         <v>120</v>
       </c>
       <c r="O241" s="1" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.2">
@@ -18587,10 +18584,10 @@
         <v>111</v>
       </c>
       <c r="G242" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="H242" s="5" t="s">
         <v>1871</v>
-      </c>
-      <c r="H242" s="5" t="s">
-        <v>1872</v>
       </c>
       <c r="I242" s="1" t="s">
         <v>117</v>
@@ -18611,7 +18608,7 @@
         <v>120</v>
       </c>
       <c r="O242" s="1" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.2">
@@ -18634,10 +18631,10 @@
         <v>111</v>
       </c>
       <c r="G243" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="H243" s="5" t="s">
         <v>1871</v>
-      </c>
-      <c r="H243" s="5" t="s">
-        <v>1872</v>
       </c>
       <c r="I243" s="1" t="s">
         <v>117</v>
@@ -18658,7 +18655,7 @@
         <v>120</v>
       </c>
       <c r="O243" s="1" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.2">
@@ -18681,10 +18678,10 @@
         <v>111</v>
       </c>
       <c r="G244" s="1" t="s">
+        <v>1870</v>
+      </c>
+      <c r="H244" s="5" t="s">
         <v>1871</v>
-      </c>
-      <c r="H244" s="5" t="s">
-        <v>1872</v>
       </c>
       <c r="I244" s="1" t="s">
         <v>117</v>
@@ -18705,7 +18702,7 @@
         <v>120</v>
       </c>
       <c r="O244" s="1" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.2">
@@ -18728,10 +18725,10 @@
         <v>111</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="H245" s="5" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="I245" s="1" t="s">
         <v>117</v>
@@ -18752,7 +18749,7 @@
         <v>120</v>
       </c>
       <c r="O245" s="1" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.2">
@@ -18775,10 +18772,10 @@
         <v>111</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="H246" s="5" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="I246" s="1" t="s">
         <v>117</v>
@@ -18799,7 +18796,7 @@
         <v>120</v>
       </c>
       <c r="O246" s="1" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.2">
@@ -18822,10 +18819,10 @@
         <v>111</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="H247" s="5" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="I247" s="1" t="s">
         <v>117</v>
@@ -18846,7 +18843,7 @@
         <v>120</v>
       </c>
       <c r="O247" s="1" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.2">
@@ -18869,10 +18866,10 @@
         <v>111</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="H248" s="5" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="I248" s="1" t="s">
         <v>117</v>
@@ -18893,7 +18890,7 @@
         <v>120</v>
       </c>
       <c r="O248" s="1" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.2">
@@ -18916,10 +18913,10 @@
         <v>111</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="H249" s="5" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>117</v>
@@ -18940,7 +18937,7 @@
         <v>120</v>
       </c>
       <c r="O249" s="1" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.2">
@@ -18963,10 +18960,10 @@
         <v>111</v>
       </c>
       <c r="G250" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="H250" s="5" t="s">
         <v>1875</v>
-      </c>
-      <c r="H250" s="5" t="s">
-        <v>1876</v>
       </c>
       <c r="I250" s="1" t="s">
         <v>117</v>
@@ -18987,7 +18984,7 @@
         <v>120</v>
       </c>
       <c r="O250" s="1" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.2">
@@ -19010,10 +19007,10 @@
         <v>111</v>
       </c>
       <c r="G251" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="H251" s="5" t="s">
         <v>1875</v>
-      </c>
-      <c r="H251" s="5" t="s">
-        <v>1876</v>
       </c>
       <c r="I251" s="1" t="s">
         <v>117</v>
@@ -19034,7 +19031,7 @@
         <v>120</v>
       </c>
       <c r="O251" s="1" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.2">
@@ -19057,10 +19054,10 @@
         <v>111</v>
       </c>
       <c r="G252" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="H252" s="5" t="s">
         <v>1875</v>
-      </c>
-      <c r="H252" s="5" t="s">
-        <v>1876</v>
       </c>
       <c r="I252" s="1" t="s">
         <v>117</v>
@@ -19081,7 +19078,7 @@
         <v>120</v>
       </c>
       <c r="O252" s="1" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.2">
@@ -19104,10 +19101,10 @@
         <v>111</v>
       </c>
       <c r="G253" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="H253" s="5" t="s">
         <v>1875</v>
-      </c>
-      <c r="H253" s="5" t="s">
-        <v>1876</v>
       </c>
       <c r="I253" s="1" t="s">
         <v>117</v>
@@ -19128,7 +19125,7 @@
         <v>120</v>
       </c>
       <c r="O253" s="1" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.2">
@@ -19151,10 +19148,10 @@
         <v>111</v>
       </c>
       <c r="G254" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="H254" s="5" t="s">
         <v>1875</v>
-      </c>
-      <c r="H254" s="5" t="s">
-        <v>1876</v>
       </c>
       <c r="I254" s="1" t="s">
         <v>117</v>
@@ -19175,7 +19172,7 @@
         <v>120</v>
       </c>
       <c r="O254" s="1" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.2">
@@ -19198,10 +19195,10 @@
         <v>111</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="H255" s="5" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>117</v>
@@ -19222,7 +19219,7 @@
         <v>120</v>
       </c>
       <c r="O255" s="1" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.2">
@@ -19245,10 +19242,10 @@
         <v>111</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="H256" s="5" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="I256" s="1" t="s">
         <v>117</v>
@@ -19269,7 +19266,7 @@
         <v>120</v>
       </c>
       <c r="O256" s="1" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.2">
@@ -19292,10 +19289,10 @@
         <v>111</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="H257" s="5" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="I257" s="1" t="s">
         <v>117</v>
@@ -19316,7 +19313,7 @@
         <v>120</v>
       </c>
       <c r="O257" s="1" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.2">
@@ -19339,10 +19336,10 @@
         <v>111</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="H258" s="5" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="I258" s="1" t="s">
         <v>117</v>
@@ -19363,7 +19360,7 @@
         <v>120</v>
       </c>
       <c r="O258" s="1" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.2">
@@ -19386,10 +19383,10 @@
         <v>111</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="H259" s="5" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="I259" s="1" t="s">
         <v>117</v>
@@ -19410,7 +19407,7 @@
         <v>120</v>
       </c>
       <c r="O259" s="1" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.2">
@@ -31779,13 +31776,13 @@
     </row>
     <row r="541" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A541" s="6" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C541" s="1" t="s">
         <v>1656</v>
-      </c>
-      <c r="B541" s="1" t="s">
-        <v>1664</v>
-      </c>
-      <c r="C541" s="1" t="s">
-        <v>1657</v>
       </c>
       <c r="D541" s="1" t="s">
         <v>31</v>
@@ -31797,10 +31794,10 @@
         <v>111</v>
       </c>
       <c r="G541" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="H541" s="5" t="s">
         <v>1667</v>
-      </c>
-      <c r="H541" s="5" t="s">
-        <v>1668</v>
       </c>
       <c r="I541" s="1" t="s">
         <v>117</v>
@@ -31818,18 +31815,18 @@
         <v>119</v>
       </c>
       <c r="N541" s="9" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="542" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A542" s="6" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C542" s="1" t="s">
         <v>1656</v>
-      </c>
-      <c r="B542" s="1" t="s">
-        <v>1664</v>
-      </c>
-      <c r="C542" s="1" t="s">
-        <v>1657</v>
       </c>
       <c r="D542" s="1" t="s">
         <v>31</v>
@@ -31841,10 +31838,10 @@
         <v>111</v>
       </c>
       <c r="G542" s="1" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="H542" s="5" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="I542" s="1" t="s">
         <v>117</v>
@@ -31862,18 +31859,18 @@
         <v>119</v>
       </c>
       <c r="N542" s="9" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="543" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A543" s="6" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D543" s="1" t="s">
         <v>31</v>
@@ -31885,10 +31882,10 @@
         <v>111</v>
       </c>
       <c r="G543" s="1" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="H543" s="5" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="I543" s="1" t="s">
         <v>117</v>
@@ -31906,18 +31903,18 @@
         <v>119</v>
       </c>
       <c r="N543" s="9" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="544" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A544" s="6" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D544" s="1" t="s">
         <v>31</v>
@@ -31929,10 +31926,10 @@
         <v>111</v>
       </c>
       <c r="G544" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="H544" s="5" t="s">
         <v>1660</v>
-      </c>
-      <c r="H544" s="5" t="s">
-        <v>1661</v>
       </c>
       <c r="I544" s="1" t="s">
         <v>117</v>
@@ -31950,7 +31947,7 @@
         <v>119</v>
       </c>
       <c r="N544" s="9" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="545" spans="1:15" x14ac:dyDescent="0.2">
@@ -33139,7 +33136,7 @@
         <v>1176</v>
       </c>
       <c r="O570" s="1" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="571" spans="1:15" x14ac:dyDescent="0.2">
@@ -33274,7 +33271,7 @@
         <v>1176</v>
       </c>
       <c r="O573" s="1" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="574" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -33373,10 +33370,10 @@
         <v>1171</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="D576" s="1" t="s">
         <v>31</v>
@@ -33388,10 +33385,10 @@
         <v>492</v>
       </c>
       <c r="G576" s="1" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="H576" s="5" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="I576" s="1" t="s">
         <v>491</v>
@@ -33412,7 +33409,7 @@
         <v>1176</v>
       </c>
       <c r="O576" s="1" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="577" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -33420,10 +33417,10 @@
         <v>1171</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="D577" s="1" t="s">
         <v>31</v>
@@ -33435,10 +33432,10 @@
         <v>492</v>
       </c>
       <c r="G577" s="1" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="H577" s="5" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="I577" s="1" t="s">
         <v>491</v>
@@ -33459,7 +33456,7 @@
         <v>1176</v>
       </c>
       <c r="O577" s="1" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="578" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -33467,10 +33464,10 @@
         <v>1171</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="D578" s="1" t="s">
         <v>31</v>
@@ -33482,10 +33479,10 @@
         <v>492</v>
       </c>
       <c r="G578" s="1" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="H578" s="5" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="I578" s="1" t="s">
         <v>491</v>
@@ -33494,7 +33491,7 @@
         <v>28</v>
       </c>
       <c r="K578" s="1" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="L578" s="9" t="s">
         <v>20</v>
@@ -33506,7 +33503,7 @@
         <v>1176</v>
       </c>
       <c r="O578" s="1" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="579" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -33514,10 +33511,10 @@
         <v>1171</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="D579" s="1" t="s">
         <v>31</v>
@@ -33529,10 +33526,10 @@
         <v>111</v>
       </c>
       <c r="G579" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H579" s="5" t="s">
         <v>1681</v>
-      </c>
-      <c r="H579" s="5" t="s">
-        <v>1682</v>
       </c>
       <c r="I579" s="1" t="s">
         <v>117</v>
@@ -33553,7 +33550,7 @@
         <v>1176</v>
       </c>
       <c r="O579" s="1" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="580" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -33561,10 +33558,10 @@
         <v>1171</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="D580" s="1" t="s">
         <v>31</v>
@@ -33576,10 +33573,10 @@
         <v>111</v>
       </c>
       <c r="G580" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="H580" s="5" t="s">
         <v>1681</v>
-      </c>
-      <c r="H580" s="5" t="s">
-        <v>1682</v>
       </c>
       <c r="I580" s="1" t="s">
         <v>117</v>
@@ -33588,7 +33585,7 @@
         <v>22</v>
       </c>
       <c r="K580" s="1" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="L580" s="9" t="s">
         <v>48</v>
@@ -33600,12 +33597,12 @@
         <v>1176</v>
       </c>
       <c r="O580" s="1" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="581" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A581" s="6" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B581" s="1" t="s">
         <v>148</v>
@@ -33626,7 +33623,7 @@
         <v>941</v>
       </c>
       <c r="H581" s="5" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="I581" s="1" t="s">
         <v>117</v>
@@ -33644,15 +33641,15 @@
         <v>119</v>
       </c>
       <c r="N581" s="1" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="O581" s="1" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="582" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A582" s="6" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B582" s="1" t="s">
         <v>148</v>
@@ -33673,7 +33670,7 @@
         <v>941</v>
       </c>
       <c r="H582" s="5" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="I582" s="1" t="s">
         <v>117</v>
@@ -33682,7 +33679,7 @@
         <v>22</v>
       </c>
       <c r="K582" s="1" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="L582" s="9" t="s">
         <v>20</v>
@@ -33691,15 +33688,15 @@
         <v>119</v>
       </c>
       <c r="N582" s="1" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="O582" s="1" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="583" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A583" s="6" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B583" s="19" t="s">
         <v>148</v>
@@ -33729,7 +33726,7 @@
         <v>28</v>
       </c>
       <c r="K583" s="1" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="L583" s="9" t="s">
         <v>41</v>
@@ -33738,15 +33735,15 @@
         <v>119</v>
       </c>
       <c r="N583" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="O583" s="1" t="s">
         <v>1690</v>
-      </c>
-      <c r="O583" s="1" t="s">
-        <v>1691</v>
       </c>
     </row>
     <row r="584" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A584" s="6" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B584" s="19" t="s">
         <v>148</v>
@@ -33776,7 +33773,7 @@
         <v>28</v>
       </c>
       <c r="K584" s="1" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="L584" s="9" t="s">
         <v>41</v>
@@ -33785,15 +33782,15 @@
         <v>119</v>
       </c>
       <c r="N584" s="1" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="O584" s="1" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="585" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A585" s="6" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="B585" s="1" t="s">
         <v>148</v>
@@ -33814,7 +33811,7 @@
         <v>941</v>
       </c>
       <c r="H585" s="5" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="I585" s="1" t="s">
         <v>117</v>
@@ -33832,12 +33829,12 @@
         <v>119</v>
       </c>
       <c r="N585" s="1" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="586" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A586" s="6" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="B586" s="19" t="s">
         <v>148</v>
@@ -33876,12 +33873,12 @@
         <v>119</v>
       </c>
       <c r="N586" s="1" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="587" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A587" s="6" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="B587" s="1" t="s">
         <v>148</v>
@@ -33902,7 +33899,7 @@
         <v>941</v>
       </c>
       <c r="H587" s="5" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="I587" s="1" t="s">
         <v>491</v>
@@ -33920,7 +33917,7 @@
         <v>119</v>
       </c>
       <c r="N587" s="1" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="588" spans="1:15" x14ac:dyDescent="0.2">
@@ -34055,7 +34052,7 @@
         <v>602</v>
       </c>
       <c r="O590" s="1" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="591" spans="1:15" x14ac:dyDescent="0.2">
@@ -34959,13 +34956,13 @@
     </row>
     <row r="611" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A611" s="12" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B611" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C611" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D611" s="1" t="s">
         <v>31</v>
@@ -34995,24 +34992,24 @@
         <v>20</v>
       </c>
       <c r="M611" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="N611" s="9" t="s">
+        <v>1713</v>
+      </c>
+      <c r="O611" s="1" t="s">
         <v>1696</v>
-      </c>
-      <c r="N611" s="9" t="s">
-        <v>1714</v>
-      </c>
-      <c r="O611" s="1" t="s">
-        <v>1697</v>
       </c>
     </row>
     <row r="612" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A612" s="12" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B612" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D612" s="1" t="s">
         <v>31</v>
@@ -35036,30 +35033,30 @@
         <v>22</v>
       </c>
       <c r="K612" s="9" t="s">
+        <v>1697</v>
+      </c>
+      <c r="L612" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M612" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="N612" s="9" t="s">
+        <v>1713</v>
+      </c>
+      <c r="O612" s="1" t="s">
         <v>1698</v>
-      </c>
-      <c r="L612" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M612" s="1" t="s">
-        <v>1696</v>
-      </c>
-      <c r="N612" s="9" t="s">
-        <v>1714</v>
-      </c>
-      <c r="O612" s="1" t="s">
-        <v>1699</v>
       </c>
     </row>
     <row r="613" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A613" s="12" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B613" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C613" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D613" s="1" t="s">
         <v>31</v>
@@ -35083,30 +35080,30 @@
         <v>22</v>
       </c>
       <c r="K613" s="9" t="s">
+        <v>1699</v>
+      </c>
+      <c r="L613" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M613" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="N613" s="9" t="s">
+        <v>1713</v>
+      </c>
+      <c r="O613" s="1" t="s">
         <v>1700</v>
-      </c>
-      <c r="L613" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M613" s="1" t="s">
-        <v>1696</v>
-      </c>
-      <c r="N613" s="9" t="s">
-        <v>1714</v>
-      </c>
-      <c r="O613" s="1" t="s">
-        <v>1701</v>
       </c>
     </row>
     <row r="614" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A614" s="12" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B614" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C614" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D614" s="1" t="s">
         <v>31</v>
@@ -35130,30 +35127,30 @@
         <v>22</v>
       </c>
       <c r="K614" s="9" t="s">
+        <v>1701</v>
+      </c>
+      <c r="L614" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M614" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="N614" s="9" t="s">
+        <v>1713</v>
+      </c>
+      <c r="O614" s="1" t="s">
         <v>1702</v>
-      </c>
-      <c r="L614" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M614" s="1" t="s">
-        <v>1696</v>
-      </c>
-      <c r="N614" s="9" t="s">
-        <v>1714</v>
-      </c>
-      <c r="O614" s="1" t="s">
-        <v>1703</v>
       </c>
     </row>
     <row r="615" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A615" s="12" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B615" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C615" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D615" s="1" t="s">
         <v>31</v>
@@ -35177,30 +35174,30 @@
         <v>22</v>
       </c>
       <c r="K615" s="9" t="s">
+        <v>1703</v>
+      </c>
+      <c r="L615" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M615" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="N615" s="9" t="s">
+        <v>1713</v>
+      </c>
+      <c r="O615" s="1" t="s">
         <v>1704</v>
-      </c>
-      <c r="L615" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M615" s="1" t="s">
-        <v>1696</v>
-      </c>
-      <c r="N615" s="9" t="s">
-        <v>1714</v>
-      </c>
-      <c r="O615" s="1" t="s">
-        <v>1705</v>
       </c>
     </row>
     <row r="616" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A616" s="12" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B616" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C616" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D616" s="1" t="s">
         <v>31</v>
@@ -35224,30 +35221,30 @@
         <v>22</v>
       </c>
       <c r="K616" s="9" t="s">
+        <v>1705</v>
+      </c>
+      <c r="L616" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M616" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="N616" s="9" t="s">
+        <v>1713</v>
+      </c>
+      <c r="O616" s="1" t="s">
         <v>1706</v>
-      </c>
-      <c r="L616" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M616" s="1" t="s">
-        <v>1696</v>
-      </c>
-      <c r="N616" s="9" t="s">
-        <v>1714</v>
-      </c>
-      <c r="O616" s="1" t="s">
-        <v>1707</v>
       </c>
     </row>
     <row r="617" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A617" s="12" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B617" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C617" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D617" s="1" t="s">
         <v>31</v>
@@ -35271,30 +35268,30 @@
         <v>22</v>
       </c>
       <c r="K617" s="9" t="s">
+        <v>1707</v>
+      </c>
+      <c r="L617" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M617" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="N617" s="9" t="s">
+        <v>1713</v>
+      </c>
+      <c r="O617" s="1" t="s">
         <v>1708</v>
-      </c>
-      <c r="L617" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M617" s="1" t="s">
-        <v>1696</v>
-      </c>
-      <c r="N617" s="9" t="s">
-        <v>1714</v>
-      </c>
-      <c r="O617" s="1" t="s">
-        <v>1709</v>
       </c>
     </row>
     <row r="618" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A618" s="12" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B618" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C618" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D618" s="1" t="s">
         <v>31</v>
@@ -35318,30 +35315,30 @@
         <v>22</v>
       </c>
       <c r="K618" s="9" t="s">
+        <v>1709</v>
+      </c>
+      <c r="L618" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M618" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="N618" s="9" t="s">
+        <v>1713</v>
+      </c>
+      <c r="O618" s="1" t="s">
         <v>1710</v>
-      </c>
-      <c r="L618" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M618" s="1" t="s">
-        <v>1696</v>
-      </c>
-      <c r="N618" s="9" t="s">
-        <v>1714</v>
-      </c>
-      <c r="O618" s="1" t="s">
-        <v>1711</v>
       </c>
     </row>
     <row r="619" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A619" s="12" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B619" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C619" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D619" s="1" t="s">
         <v>31</v>
@@ -35365,30 +35362,30 @@
         <v>22</v>
       </c>
       <c r="K619" s="9" t="s">
+        <v>1711</v>
+      </c>
+      <c r="L619" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M619" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="N619" s="9" t="s">
+        <v>1713</v>
+      </c>
+      <c r="O619" s="1" t="s">
         <v>1712</v>
-      </c>
-      <c r="L619" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M619" s="1" t="s">
-        <v>1696</v>
-      </c>
-      <c r="N619" s="9" t="s">
-        <v>1714</v>
-      </c>
-      <c r="O619" s="1" t="s">
-        <v>1713</v>
       </c>
     </row>
     <row r="620" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A620" s="12" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B620" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C620" s="1" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D620" s="1" t="s">
         <v>31</v>
@@ -35418,18 +35415,18 @@
         <v>20</v>
       </c>
       <c r="M620" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="N620" s="9" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="O620" s="1" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="621" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A621" s="12" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B621" s="1" t="s">
         <v>132</v>
@@ -35459,24 +35456,24 @@
         <v>22</v>
       </c>
       <c r="K621" s="9" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="L621" s="9" t="s">
         <v>48</v>
       </c>
       <c r="M621" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="N621" s="9" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="O621" s="1" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="622" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A622" s="12" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B622" s="1" t="s">
         <v>132</v>
@@ -35506,24 +35503,24 @@
         <v>22</v>
       </c>
       <c r="K622" s="9" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="L622" s="9" t="s">
         <v>48</v>
       </c>
       <c r="M622" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="N622" s="9" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="O622" s="1" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="623" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A623" s="12" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B623" s="1" t="s">
         <v>132</v>
@@ -35553,24 +35550,24 @@
         <v>22</v>
       </c>
       <c r="K623" s="9" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="L623" s="9" t="s">
         <v>48</v>
       </c>
       <c r="M623" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="N623" s="9" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="O623" s="1" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="624" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A624" s="12" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B624" s="1" t="s">
         <v>132</v>
@@ -35600,24 +35597,24 @@
         <v>22</v>
       </c>
       <c r="K624" s="9" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="L624" s="9" t="s">
         <v>48</v>
       </c>
       <c r="M624" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="N624" s="9" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="O624" s="1" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="625" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A625" s="12" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B625" s="1" t="s">
         <v>132</v>
@@ -35647,24 +35644,24 @@
         <v>22</v>
       </c>
       <c r="K625" s="9" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="L625" s="9" t="s">
         <v>41</v>
       </c>
       <c r="M625" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="N625" s="9" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="O625" s="1" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="626" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A626" s="12" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B626" s="1" t="s">
         <v>132</v>
@@ -35694,24 +35691,24 @@
         <v>22</v>
       </c>
       <c r="K626" s="9" t="s">
+        <v>1707</v>
+      </c>
+      <c r="L626" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M626" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="N626" s="9" t="s">
+        <v>1713</v>
+      </c>
+      <c r="O626" s="1" t="s">
         <v>1708</v>
-      </c>
-      <c r="L626" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M626" s="1" t="s">
-        <v>1696</v>
-      </c>
-      <c r="N626" s="9" t="s">
-        <v>1714</v>
-      </c>
-      <c r="O626" s="1" t="s">
-        <v>1709</v>
       </c>
     </row>
     <row r="627" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A627" s="12" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B627" s="1" t="s">
         <v>132</v>
@@ -35741,24 +35738,24 @@
         <v>22</v>
       </c>
       <c r="K627" s="9" t="s">
+        <v>1709</v>
+      </c>
+      <c r="L627" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M627" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="N627" s="9" t="s">
+        <v>1713</v>
+      </c>
+      <c r="O627" s="1" t="s">
         <v>1710</v>
-      </c>
-      <c r="L627" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M627" s="1" t="s">
-        <v>1696</v>
-      </c>
-      <c r="N627" s="9" t="s">
-        <v>1714</v>
-      </c>
-      <c r="O627" s="1" t="s">
-        <v>1711</v>
       </c>
     </row>
     <row r="628" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A628" s="12" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B628" s="1" t="s">
         <v>132</v>
@@ -35788,24 +35785,24 @@
         <v>22</v>
       </c>
       <c r="K628" s="9" t="s">
+        <v>1711</v>
+      </c>
+      <c r="L628" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M628" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="N628" s="9" t="s">
+        <v>1713</v>
+      </c>
+      <c r="O628" s="1" t="s">
         <v>1712</v>
-      </c>
-      <c r="L628" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M628" s="1" t="s">
-        <v>1696</v>
-      </c>
-      <c r="N628" s="9" t="s">
-        <v>1714</v>
-      </c>
-      <c r="O628" s="1" t="s">
-        <v>1713</v>
       </c>
     </row>
     <row r="629" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A629" s="12" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B629" s="1" t="s">
         <v>132</v>
@@ -35841,13 +35838,13 @@
         <v>20</v>
       </c>
       <c r="M629" s="1" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="N629" s="9" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="O629" s="1" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="630" spans="1:15" x14ac:dyDescent="0.2">
@@ -40077,7 +40074,7 @@
     </row>
     <row r="725" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A725" s="5" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B725" s="1" t="s">
         <v>216</v>
@@ -40116,15 +40113,15 @@
         <v>987</v>
       </c>
       <c r="N725" s="1" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="O725" s="1" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="726" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A726" s="5" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B726" s="1" t="s">
         <v>216</v>
@@ -40154,7 +40151,7 @@
         <v>22</v>
       </c>
       <c r="K726" s="1" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="L726" s="1" t="s">
         <v>20</v>
@@ -40163,10 +40160,10 @@
         <v>987</v>
       </c>
       <c r="N726" s="1" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="O726" s="1" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="727" spans="1:15" x14ac:dyDescent="0.2">
@@ -47723,7 +47720,7 @@
         <v>21</v>
       </c>
       <c r="K888" s="1" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="L888" s="1" t="s">
         <v>41</v>
@@ -49039,7 +49036,7 @@
         <v>15</v>
       </c>
       <c r="K916" s="1" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="L916" s="1" t="s">
         <v>48</v>
@@ -49051,7 +49048,7 @@
         <v>757</v>
       </c>
       <c r="O916" s="1" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="917" spans="1:15" x14ac:dyDescent="0.2">
@@ -49086,7 +49083,7 @@
         <v>21</v>
       </c>
       <c r="K917" s="1" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="L917" s="1" t="s">
         <v>41</v>
@@ -49098,7 +49095,7 @@
         <v>757</v>
       </c>
       <c r="O917" s="1" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="918" spans="1:15" x14ac:dyDescent="0.2">
@@ -49133,7 +49130,7 @@
         <v>21</v>
       </c>
       <c r="K918" s="1" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="L918" s="1" t="s">
         <v>20</v>
@@ -49145,7 +49142,7 @@
         <v>757</v>
       </c>
       <c r="O918" s="1" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="919" spans="1:15" x14ac:dyDescent="0.2">
@@ -49180,7 +49177,7 @@
         <v>21</v>
       </c>
       <c r="K919" s="1" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="L919" s="1" t="s">
         <v>41</v>
@@ -49192,7 +49189,7 @@
         <v>757</v>
       </c>
       <c r="O919" s="1" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="920" spans="1:15" x14ac:dyDescent="0.2">
@@ -49227,7 +49224,7 @@
         <v>21</v>
       </c>
       <c r="K920" s="1" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="L920" s="1" t="s">
         <v>20</v>
@@ -49239,7 +49236,7 @@
         <v>757</v>
       </c>
       <c r="O920" s="1" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="921" spans="1:15" x14ac:dyDescent="0.2">
@@ -49274,7 +49271,7 @@
         <v>21</v>
       </c>
       <c r="K921" s="1" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="L921" s="1" t="s">
         <v>20</v>
@@ -49286,7 +49283,7 @@
         <v>757</v>
       </c>
       <c r="O921" s="1" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="922" spans="1:15" x14ac:dyDescent="0.2">
@@ -49321,7 +49318,7 @@
         <v>21</v>
       </c>
       <c r="K922" s="1" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="L922" s="1" t="s">
         <v>20</v>
@@ -49333,7 +49330,7 @@
         <v>757</v>
       </c>
       <c r="O922" s="1" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="923" spans="1:15" x14ac:dyDescent="0.2">
@@ -49368,7 +49365,7 @@
         <v>21</v>
       </c>
       <c r="K923" s="1" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="L923" s="1" t="s">
         <v>20</v>
@@ -49380,7 +49377,7 @@
         <v>757</v>
       </c>
       <c r="O923" s="1" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="924" spans="1:15" x14ac:dyDescent="0.2">
@@ -49415,7 +49412,7 @@
         <v>21</v>
       </c>
       <c r="K924" s="1" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="L924" s="1" t="s">
         <v>48</v>
@@ -49427,7 +49424,7 @@
         <v>757</v>
       </c>
       <c r="O924" s="1" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="925" spans="1:15" x14ac:dyDescent="0.2">
@@ -51456,13 +51453,13 @@
     </row>
     <row r="971" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A971" s="5" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B971" s="1" t="s">
         <v>216</v>
       </c>
       <c r="C971" s="1" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="D971" s="1" t="s">
         <v>13</v>
@@ -51474,10 +51471,10 @@
         <v>820</v>
       </c>
       <c r="G971" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="H971" s="5" t="s">
         <v>1723</v>
-      </c>
-      <c r="H971" s="5" t="s">
-        <v>1724</v>
       </c>
       <c r="I971" s="1" t="s">
         <v>863</v>
@@ -51495,12 +51492,12 @@
         <v>703</v>
       </c>
       <c r="N971" s="1" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="972" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A972" s="5" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B972" s="1" t="s">
         <v>216</v>
@@ -51518,10 +51515,10 @@
         <v>820</v>
       </c>
       <c r="G972" s="1" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="H972" s="5" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="I972" s="1" t="s">
         <v>863</v>
@@ -51539,18 +51536,18 @@
         <v>703</v>
       </c>
       <c r="N972" s="1" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="973" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A973" s="5" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B973" s="1" t="s">
         <v>216</v>
       </c>
       <c r="C973" s="1" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="D973" s="1" t="s">
         <v>13</v>
@@ -51562,10 +51559,10 @@
         <v>820</v>
       </c>
       <c r="G973" s="1" t="s">
+        <v>1726</v>
+      </c>
+      <c r="H973" s="5" t="s">
         <v>1727</v>
-      </c>
-      <c r="H973" s="5" t="s">
-        <v>1728</v>
       </c>
       <c r="I973" s="1" t="s">
         <v>863</v>
@@ -51583,12 +51580,12 @@
         <v>703</v>
       </c>
       <c r="N973" s="1" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="974" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A974" s="5" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B974" s="1" t="s">
         <v>216</v>
@@ -51606,10 +51603,10 @@
         <v>820</v>
       </c>
       <c r="G974" s="1" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="H974" s="5" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="I974" s="1" t="s">
         <v>863</v>
@@ -51627,18 +51624,18 @@
         <v>703</v>
       </c>
       <c r="N974" s="1" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="975" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A975" s="5" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B975" s="1" t="s">
         <v>216</v>
       </c>
       <c r="C975" s="1" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="D975" s="1" t="s">
         <v>13</v>
@@ -51650,10 +51647,10 @@
         <v>820</v>
       </c>
       <c r="G975" s="1" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="H975" s="5" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="I975" s="1" t="s">
         <v>863</v>
@@ -51671,7 +51668,7 @@
         <v>703</v>
       </c>
       <c r="N975" s="1" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="976" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -55782,7 +55779,7 @@
     </row>
     <row r="1067" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1067" s="5" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="B1067" s="1" t="s">
         <v>216</v>
@@ -55821,7 +55818,7 @@
         <v>987</v>
       </c>
       <c r="N1067" s="1" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="O1067" s="1" t="s">
         <v>1170</v>
@@ -55829,7 +55826,7 @@
     </row>
     <row r="1068" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1068" s="5" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="B1068" s="1" t="s">
         <v>216</v>
@@ -55868,7 +55865,7 @@
         <v>987</v>
       </c>
       <c r="N1068" s="1" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="O1068" s="1" t="s">
         <v>1167</v>
@@ -55876,7 +55873,7 @@
     </row>
     <row r="1069" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1069" s="5" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="B1069" s="1" t="s">
         <v>216</v>
@@ -55906,7 +55903,7 @@
         <v>15</v>
       </c>
       <c r="K1069" s="1" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="L1069" s="1" t="s">
         <v>48</v>
@@ -55915,10 +55912,10 @@
         <v>987</v>
       </c>
       <c r="N1069" s="1" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="O1069" s="1" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1070" spans="1:15" x14ac:dyDescent="0.2">
@@ -56387,7 +56384,7 @@
     </row>
     <row r="1080" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1080" s="5" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B1080" s="1" t="s">
         <v>110</v>
@@ -56426,15 +56423,15 @@
         <v>119</v>
       </c>
       <c r="N1080" s="1" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="O1080" s="1" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="1081" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1081" s="5" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B1081" s="1" t="s">
         <v>148</v>
@@ -56464,7 +56461,7 @@
         <v>28</v>
       </c>
       <c r="K1081" s="1" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="L1081" s="1" t="s">
         <v>20</v>
@@ -56473,15 +56470,15 @@
         <v>119</v>
       </c>
       <c r="N1081" s="1" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="O1081" s="1" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1082" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1082" s="5" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B1082" s="1" t="s">
         <v>148</v>
@@ -56511,7 +56508,7 @@
         <v>28</v>
       </c>
       <c r="K1082" s="1" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="L1082" s="1" t="s">
         <v>20</v>
@@ -56520,15 +56517,15 @@
         <v>119</v>
       </c>
       <c r="N1082" s="1" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="O1082" s="1" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1083" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1083" s="5" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B1083" s="1" t="s">
         <v>148</v>
@@ -56558,7 +56555,7 @@
         <v>22</v>
       </c>
       <c r="K1083" s="1" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="L1083" s="1" t="s">
         <v>20</v>
@@ -56567,15 +56564,15 @@
         <v>119</v>
       </c>
       <c r="N1083" s="1" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="O1083" s="1" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="1084" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1084" s="5" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B1084" s="1" t="s">
         <v>148</v>
@@ -56605,7 +56602,7 @@
         <v>15</v>
       </c>
       <c r="K1084" s="1" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="L1084" s="1" t="s">
         <v>20</v>
@@ -56614,15 +56611,15 @@
         <v>119</v>
       </c>
       <c r="N1084" s="1" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="O1084" s="1" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="1085" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1085" s="5" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B1085" s="1" t="s">
         <v>148</v>
@@ -56652,7 +56649,7 @@
         <v>15</v>
       </c>
       <c r="K1085" s="1" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="L1085" s="1" t="s">
         <v>20</v>
@@ -56661,10 +56658,10 @@
         <v>119</v>
       </c>
       <c r="N1085" s="1" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="O1085" s="1" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1086" spans="1:15" x14ac:dyDescent="0.2">
@@ -57186,7 +57183,7 @@
         <v>111</v>
       </c>
       <c r="G1097" s="1" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="H1097" s="5" t="s">
         <v>1332</v>
@@ -57230,7 +57227,7 @@
         <v>111</v>
       </c>
       <c r="G1098" s="1" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="H1098" s="5" t="s">
         <v>1332</v>
@@ -57389,7 +57386,7 @@
         <v>703</v>
       </c>
       <c r="N1101" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="O1101" s="1" t="s">
         <v>1418</v>
@@ -57436,7 +57433,7 @@
         <v>703</v>
       </c>
       <c r="N1102" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="O1102" s="1" t="s">
         <v>1419</v>
@@ -57483,7 +57480,7 @@
         <v>703</v>
       </c>
       <c r="N1103" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="O1103" s="1" t="s">
         <v>1420</v>
@@ -57530,7 +57527,7 @@
         <v>703</v>
       </c>
       <c r="N1104" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="O1104" s="1" t="s">
         <v>1421</v>
@@ -57577,7 +57574,7 @@
         <v>703</v>
       </c>
       <c r="N1105" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="O1105" s="1" t="s">
         <v>1422</v>
@@ -57624,7 +57621,7 @@
         <v>703</v>
       </c>
       <c r="N1106" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="O1106" s="1" t="s">
         <v>1423</v>
@@ -57671,7 +57668,7 @@
         <v>703</v>
       </c>
       <c r="N1107" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="O1107" s="1" t="s">
         <v>1424</v>
@@ -57718,7 +57715,7 @@
         <v>703</v>
       </c>
       <c r="N1108" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="O1108" s="1" t="s">
         <v>1425</v>
@@ -57765,7 +57762,7 @@
         <v>703</v>
       </c>
       <c r="N1109" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="O1109" s="1" t="s">
         <v>1426</v>
@@ -57812,7 +57809,7 @@
         <v>703</v>
       </c>
       <c r="N1110" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="O1110" s="1" t="s">
         <v>1427</v>
@@ -57859,7 +57856,7 @@
         <v>703</v>
       </c>
       <c r="N1111" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="O1111" s="1" t="s">
         <v>1430</v>
@@ -57906,7 +57903,7 @@
         <v>703</v>
       </c>
       <c r="N1112" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="O1112" s="1" t="s">
         <v>1431</v>
@@ -57953,7 +57950,7 @@
         <v>703</v>
       </c>
       <c r="N1113" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="1114" spans="1:15" x14ac:dyDescent="0.2">
@@ -57997,7 +57994,7 @@
         <v>703</v>
       </c>
       <c r="N1114" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="1115" spans="1:15" x14ac:dyDescent="0.2">
@@ -58041,7 +58038,7 @@
         <v>703</v>
       </c>
       <c r="N1115" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="1116" spans="1:15" x14ac:dyDescent="0.2">
@@ -58085,7 +58082,7 @@
         <v>703</v>
       </c>
       <c r="N1116" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="1117" spans="1:15" x14ac:dyDescent="0.2">
@@ -58129,7 +58126,7 @@
         <v>703</v>
       </c>
       <c r="N1117" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="1118" spans="1:15" x14ac:dyDescent="0.2">
@@ -58173,7 +58170,7 @@
         <v>703</v>
       </c>
       <c r="N1118" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="1119" spans="1:15" x14ac:dyDescent="0.2">
@@ -58217,7 +58214,7 @@
         <v>703</v>
       </c>
       <c r="N1119" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="1120" spans="1:15" x14ac:dyDescent="0.2">
@@ -58261,7 +58258,7 @@
         <v>703</v>
       </c>
       <c r="N1120" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="1121" spans="1:15" x14ac:dyDescent="0.2">
@@ -58305,7 +58302,7 @@
         <v>703</v>
       </c>
       <c r="N1121" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="1122" spans="1:15" x14ac:dyDescent="0.2">
@@ -58349,7 +58346,7 @@
         <v>703</v>
       </c>
       <c r="N1122" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="1123" spans="1:15" x14ac:dyDescent="0.2">
@@ -58393,7 +58390,7 @@
         <v>703</v>
       </c>
       <c r="N1123" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="1124" spans="1:15" x14ac:dyDescent="0.2">
@@ -58437,7 +58434,7 @@
         <v>703</v>
       </c>
       <c r="N1124" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="1125" spans="1:15" x14ac:dyDescent="0.2">
@@ -58481,7 +58478,7 @@
         <v>703</v>
       </c>
       <c r="N1125" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="1126" spans="1:15" x14ac:dyDescent="0.2">
@@ -58525,7 +58522,7 @@
         <v>703</v>
       </c>
       <c r="N1126" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="1127" spans="1:15" x14ac:dyDescent="0.2">
@@ -58569,7 +58566,7 @@
         <v>703</v>
       </c>
       <c r="N1127" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="1128" spans="1:15" x14ac:dyDescent="0.2">
@@ -58613,7 +58610,7 @@
         <v>703</v>
       </c>
       <c r="N1128" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="1129" spans="1:15" x14ac:dyDescent="0.2">
@@ -58657,7 +58654,7 @@
         <v>703</v>
       </c>
       <c r="N1129" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="1130" spans="1:15" x14ac:dyDescent="0.2">
@@ -58701,7 +58698,7 @@
         <v>703</v>
       </c>
       <c r="N1130" s="1" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="1131" spans="1:15" x14ac:dyDescent="0.2">
@@ -58991,7 +58988,7 @@
         <v>216</v>
       </c>
       <c r="C1137" s="1" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="D1137" s="1" t="s">
         <v>31</v>
@@ -59003,13 +59000,13 @@
         <v>111</v>
       </c>
       <c r="G1137" s="1" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="H1137" s="15" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I1137" s="1" t="s">
-        <v>1461</v>
+        <v>117</v>
       </c>
       <c r="J1137" s="1">
         <v>22</v>
@@ -59024,7 +59021,7 @@
         <v>987</v>
       </c>
       <c r="N1137" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1138" spans="1:14" x14ac:dyDescent="0.2">
@@ -59035,7 +59032,7 @@
         <v>216</v>
       </c>
       <c r="C1138" s="1" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="D1138" s="1" t="s">
         <v>31</v>
@@ -59047,10 +59044,10 @@
         <v>111</v>
       </c>
       <c r="G1138" s="1" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="H1138" s="15" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="I1138" s="1" t="s">
         <v>117</v>
@@ -59065,7 +59062,7 @@
         <v>20</v>
       </c>
       <c r="N1138" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1139" spans="1:14" x14ac:dyDescent="0.2">
@@ -59088,13 +59085,13 @@
         <v>111</v>
       </c>
       <c r="G1139" s="1" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="H1139" s="15" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="I1139" s="1" t="s">
-        <v>1461</v>
+        <v>117</v>
       </c>
       <c r="J1139" s="1">
         <v>22</v>
@@ -59109,7 +59106,7 @@
         <v>987</v>
       </c>
       <c r="N1139" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1140" spans="1:14" x14ac:dyDescent="0.2">
@@ -59132,10 +59129,10 @@
         <v>111</v>
       </c>
       <c r="G1140" s="1" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="H1140" s="15" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="I1140" s="1" t="s">
         <v>117</v>
@@ -59153,7 +59150,7 @@
         <v>987</v>
       </c>
       <c r="N1140" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1141" spans="1:14" x14ac:dyDescent="0.2">
@@ -59176,10 +59173,10 @@
         <v>111</v>
       </c>
       <c r="G1141" s="1" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H1141" s="15" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="I1141" s="1" t="s">
         <v>117</v>
@@ -59197,7 +59194,7 @@
         <v>987</v>
       </c>
       <c r="N1141" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1142" spans="1:14" x14ac:dyDescent="0.2">
@@ -59220,10 +59217,10 @@
         <v>111</v>
       </c>
       <c r="G1142" s="1" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H1142" s="5" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="I1142" s="1" t="s">
         <v>117</v>
@@ -59241,7 +59238,7 @@
         <v>987</v>
       </c>
       <c r="N1142" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1143" spans="1:14" x14ac:dyDescent="0.2">
@@ -59264,10 +59261,10 @@
         <v>111</v>
       </c>
       <c r="G1143" s="1" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H1143" s="5" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="I1143" s="1" t="s">
         <v>117</v>
@@ -59285,7 +59282,7 @@
         <v>987</v>
       </c>
       <c r="N1143" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1144" spans="1:14" x14ac:dyDescent="0.2">
@@ -59308,10 +59305,10 @@
         <v>111</v>
       </c>
       <c r="G1144" s="1" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="H1144" s="5" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="I1144" s="1" t="s">
         <v>117</v>
@@ -59329,7 +59326,7 @@
         <v>987</v>
       </c>
       <c r="N1144" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1145" spans="1:14" x14ac:dyDescent="0.2">
@@ -59352,10 +59349,10 @@
         <v>111</v>
       </c>
       <c r="G1145" s="1" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="H1145" s="5" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="I1145" s="1" t="s">
         <v>117</v>
@@ -59373,7 +59370,7 @@
         <v>987</v>
       </c>
       <c r="N1145" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1146" spans="1:14" x14ac:dyDescent="0.2">
@@ -59396,10 +59393,10 @@
         <v>111</v>
       </c>
       <c r="G1146" s="1" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="H1146" s="5" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="I1146" s="1" t="s">
         <v>117</v>
@@ -59417,7 +59414,7 @@
         <v>987</v>
       </c>
       <c r="N1146" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1147" spans="1:14" x14ac:dyDescent="0.2">
@@ -59440,10 +59437,10 @@
         <v>111</v>
       </c>
       <c r="G1147" s="1" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="H1147" s="5" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="I1147" s="1" t="s">
         <v>117</v>
@@ -59461,7 +59458,7 @@
         <v>987</v>
       </c>
       <c r="N1147" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1148" spans="1:14" x14ac:dyDescent="0.2">
@@ -59484,10 +59481,10 @@
         <v>111</v>
       </c>
       <c r="G1148" s="1" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="H1148" s="15" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="I1148" s="1" t="s">
         <v>117</v>
@@ -59505,7 +59502,7 @@
         <v>987</v>
       </c>
       <c r="N1148" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1149" spans="1:14" x14ac:dyDescent="0.2">
@@ -59528,10 +59525,10 @@
         <v>111</v>
       </c>
       <c r="G1149" s="1" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="H1149" s="5" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="I1149" s="1" t="s">
         <v>117</v>
@@ -59549,7 +59546,7 @@
         <v>987</v>
       </c>
       <c r="N1149" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1150" spans="1:14" x14ac:dyDescent="0.2">
@@ -59572,10 +59569,10 @@
         <v>111</v>
       </c>
       <c r="G1150" s="1" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="H1150" s="5" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="I1150" s="1" t="s">
         <v>117</v>
@@ -59593,7 +59590,7 @@
         <v>987</v>
       </c>
       <c r="N1150" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1151" spans="1:14" x14ac:dyDescent="0.2">
@@ -59616,10 +59613,10 @@
         <v>111</v>
       </c>
       <c r="G1151" s="1" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="H1151" s="5" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="I1151" s="1" t="s">
         <v>117</v>
@@ -59637,7 +59634,7 @@
         <v>987</v>
       </c>
       <c r="N1151" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1152" spans="1:14" x14ac:dyDescent="0.2">
@@ -59660,10 +59657,10 @@
         <v>111</v>
       </c>
       <c r="G1152" s="1" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="H1152" s="5" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="I1152" s="1" t="s">
         <v>117</v>
@@ -59681,7 +59678,7 @@
         <v>987</v>
       </c>
       <c r="N1152" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1153" spans="1:14" x14ac:dyDescent="0.2">
@@ -59704,10 +59701,10 @@
         <v>111</v>
       </c>
       <c r="G1153" s="1" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="H1153" s="5" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="I1153" s="1" t="s">
         <v>117</v>
@@ -59725,7 +59722,7 @@
         <v>987</v>
       </c>
       <c r="N1153" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1154" spans="1:14" x14ac:dyDescent="0.2">
@@ -59748,10 +59745,10 @@
         <v>111</v>
       </c>
       <c r="G1154" s="1" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="H1154" s="5" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="I1154" s="1" t="s">
         <v>117</v>
@@ -59769,7 +59766,7 @@
         <v>987</v>
       </c>
       <c r="N1154" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1155" spans="1:14" x14ac:dyDescent="0.2">
@@ -59792,10 +59789,10 @@
         <v>111</v>
       </c>
       <c r="G1155" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H1155" s="5" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="I1155" s="1" t="s">
         <v>117</v>
@@ -59813,7 +59810,7 @@
         <v>987</v>
       </c>
       <c r="N1155" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1156" spans="1:14" x14ac:dyDescent="0.2">
@@ -59836,10 +59833,10 @@
         <v>111</v>
       </c>
       <c r="G1156" s="1" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H1156" s="15" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="I1156" s="1" t="s">
         <v>117</v>
@@ -59857,7 +59854,7 @@
         <v>987</v>
       </c>
       <c r="N1156" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1157" spans="1:14" x14ac:dyDescent="0.2">
@@ -59880,10 +59877,10 @@
         <v>111</v>
       </c>
       <c r="G1157" s="1" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="H1157" s="5" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="I1157" s="1" t="s">
         <v>117</v>
@@ -59901,7 +59898,7 @@
         <v>987</v>
       </c>
       <c r="N1157" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1158" spans="1:14" x14ac:dyDescent="0.2">
@@ -59924,10 +59921,10 @@
         <v>111</v>
       </c>
       <c r="G1158" s="1" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="H1158" s="5" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="I1158" s="1" t="s">
         <v>117</v>
@@ -59945,7 +59942,7 @@
         <v>987</v>
       </c>
       <c r="N1158" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1159" spans="1:14" x14ac:dyDescent="0.2">
@@ -59968,10 +59965,10 @@
         <v>111</v>
       </c>
       <c r="G1159" s="1" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H1159" s="5" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="I1159" s="1" t="s">
         <v>117</v>
@@ -59989,7 +59986,7 @@
         <v>987</v>
       </c>
       <c r="N1159" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1160" spans="1:14" x14ac:dyDescent="0.2">
@@ -60012,10 +60009,10 @@
         <v>111</v>
       </c>
       <c r="G1160" s="1" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="H1160" s="5" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I1160" s="1" t="s">
         <v>117</v>
@@ -60033,7 +60030,7 @@
         <v>987</v>
       </c>
       <c r="N1160" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1161" spans="1:14" x14ac:dyDescent="0.2">
@@ -60056,10 +60053,10 @@
         <v>111</v>
       </c>
       <c r="G1161" s="1" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="H1161" s="5" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="I1161" s="1" t="s">
         <v>117</v>
@@ -60077,7 +60074,7 @@
         <v>987</v>
       </c>
       <c r="N1161" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1162" spans="1:14" x14ac:dyDescent="0.2">
@@ -60100,10 +60097,10 @@
         <v>111</v>
       </c>
       <c r="G1162" s="1" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="H1162" s="15" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="I1162" s="1" t="s">
         <v>117</v>
@@ -60121,7 +60118,7 @@
         <v>987</v>
       </c>
       <c r="N1162" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1163" spans="1:14" x14ac:dyDescent="0.2">
@@ -60144,10 +60141,10 @@
         <v>111</v>
       </c>
       <c r="G1163" s="1" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="H1163" s="5" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="I1163" s="1" t="s">
         <v>117</v>
@@ -60165,7 +60162,7 @@
         <v>987</v>
       </c>
       <c r="N1163" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1164" spans="1:14" x14ac:dyDescent="0.2">
@@ -60188,10 +60185,10 @@
         <v>111</v>
       </c>
       <c r="G1164" s="1" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="H1164" s="5" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="I1164" s="1" t="s">
         <v>117</v>
@@ -60209,7 +60206,7 @@
         <v>987</v>
       </c>
       <c r="N1164" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1165" spans="1:14" x14ac:dyDescent="0.2">
@@ -60232,10 +60229,10 @@
         <v>111</v>
       </c>
       <c r="G1165" s="1" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="H1165" s="5" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="I1165" s="1" t="s">
         <v>117</v>
@@ -60253,7 +60250,7 @@
         <v>987</v>
       </c>
       <c r="N1165" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1166" spans="1:14" x14ac:dyDescent="0.2">
@@ -60276,10 +60273,10 @@
         <v>111</v>
       </c>
       <c r="G1166" s="1" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="H1166" s="5" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="I1166" s="1" t="s">
         <v>117</v>
@@ -60297,7 +60294,7 @@
         <v>987</v>
       </c>
       <c r="N1166" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1167" spans="1:14" x14ac:dyDescent="0.2">
@@ -60320,10 +60317,10 @@
         <v>111</v>
       </c>
       <c r="G1167" s="1" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="H1167" s="5" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="I1167" s="1" t="s">
         <v>117</v>
@@ -60341,7 +60338,7 @@
         <v>987</v>
       </c>
       <c r="N1167" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1168" spans="1:14" x14ac:dyDescent="0.2">
@@ -60364,10 +60361,10 @@
         <v>111</v>
       </c>
       <c r="G1168" s="1" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H1168" s="5" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="I1168" s="1" t="s">
         <v>117</v>
@@ -60385,7 +60382,7 @@
         <v>987</v>
       </c>
       <c r="N1168" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1169" spans="1:14" x14ac:dyDescent="0.2">
@@ -60408,10 +60405,10 @@
         <v>111</v>
       </c>
       <c r="G1169" s="1" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="H1169" s="5" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="I1169" s="1" t="s">
         <v>117</v>
@@ -60429,7 +60426,7 @@
         <v>987</v>
       </c>
       <c r="N1169" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1170" spans="1:14" x14ac:dyDescent="0.2">
@@ -60452,10 +60449,10 @@
         <v>111</v>
       </c>
       <c r="G1170" s="1" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="H1170" s="5" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="I1170" s="1" t="s">
         <v>117</v>
@@ -60473,7 +60470,7 @@
         <v>987</v>
       </c>
       <c r="N1170" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1171" spans="1:14" x14ac:dyDescent="0.2">
@@ -60496,10 +60493,10 @@
         <v>111</v>
       </c>
       <c r="G1171" s="1" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H1171" s="5" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="I1171" s="1" t="s">
         <v>117</v>
@@ -60517,7 +60514,7 @@
         <v>987</v>
       </c>
       <c r="N1171" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1172" spans="1:14" x14ac:dyDescent="0.2">
@@ -60540,10 +60537,10 @@
         <v>111</v>
       </c>
       <c r="G1172" s="1" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="H1172" s="5" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="I1172" s="1" t="s">
         <v>117</v>
@@ -60561,7 +60558,7 @@
         <v>987</v>
       </c>
       <c r="N1172" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1173" spans="1:14" x14ac:dyDescent="0.2">
@@ -60584,10 +60581,10 @@
         <v>111</v>
       </c>
       <c r="G1173" s="1" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="H1173" s="5" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="I1173" s="1" t="s">
         <v>117</v>
@@ -60605,7 +60602,7 @@
         <v>987</v>
       </c>
       <c r="N1173" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1174" spans="1:14" x14ac:dyDescent="0.2">
@@ -60628,10 +60625,10 @@
         <v>111</v>
       </c>
       <c r="G1174" s="1" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="H1174" s="5" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="I1174" s="1" t="s">
         <v>117</v>
@@ -60649,7 +60646,7 @@
         <v>987</v>
       </c>
       <c r="N1174" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1175" spans="1:14" x14ac:dyDescent="0.2">
@@ -60672,10 +60669,10 @@
         <v>111</v>
       </c>
       <c r="G1175" s="1" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H1175" s="5" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="I1175" s="1" t="s">
         <v>117</v>
@@ -60693,7 +60690,7 @@
         <v>987</v>
       </c>
       <c r="N1175" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1176" spans="1:14" x14ac:dyDescent="0.2">
@@ -60716,10 +60713,10 @@
         <v>111</v>
       </c>
       <c r="G1176" s="1" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="H1176" s="5" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="I1176" s="1" t="s">
         <v>117</v>
@@ -60737,7 +60734,7 @@
         <v>987</v>
       </c>
       <c r="N1176" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1177" spans="1:14" x14ac:dyDescent="0.2">
@@ -60760,10 +60757,10 @@
         <v>111</v>
       </c>
       <c r="G1177" s="1" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="H1177" s="5" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="I1177" s="1" t="s">
         <v>117</v>
@@ -60781,7 +60778,7 @@
         <v>987</v>
       </c>
       <c r="N1177" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1178" spans="1:14" x14ac:dyDescent="0.2">
@@ -60804,10 +60801,10 @@
         <v>111</v>
       </c>
       <c r="G1178" s="1" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="H1178" s="5" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="I1178" s="1" t="s">
         <v>117</v>
@@ -60825,7 +60822,7 @@
         <v>987</v>
       </c>
       <c r="N1178" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1179" spans="1:14" x14ac:dyDescent="0.2">
@@ -60848,10 +60845,10 @@
         <v>111</v>
       </c>
       <c r="G1179" s="1" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="H1179" s="5" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="I1179" s="1" t="s">
         <v>117</v>
@@ -60869,7 +60866,7 @@
         <v>987</v>
       </c>
       <c r="N1179" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1180" spans="1:14" x14ac:dyDescent="0.2">
@@ -60892,10 +60889,10 @@
         <v>111</v>
       </c>
       <c r="G1180" s="1" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="H1180" s="5" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="I1180" s="1" t="s">
         <v>117</v>
@@ -60913,7 +60910,7 @@
         <v>987</v>
       </c>
       <c r="N1180" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1181" spans="1:14" x14ac:dyDescent="0.2">
@@ -60936,10 +60933,10 @@
         <v>111</v>
       </c>
       <c r="G1181" s="1" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="H1181" s="5" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="I1181" s="1" t="s">
         <v>117</v>
@@ -60957,7 +60954,7 @@
         <v>987</v>
       </c>
       <c r="N1181" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1182" spans="1:14" x14ac:dyDescent="0.2">
@@ -60980,10 +60977,10 @@
         <v>111</v>
       </c>
       <c r="G1182" s="1" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="H1182" s="5" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="I1182" s="1" t="s">
         <v>117</v>
@@ -61001,7 +60998,7 @@
         <v>987</v>
       </c>
       <c r="N1182" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1183" spans="1:14" x14ac:dyDescent="0.2">
@@ -61024,10 +61021,10 @@
         <v>111</v>
       </c>
       <c r="G1183" s="1" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="H1183" s="5" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="I1183" s="1" t="s">
         <v>117</v>
@@ -61045,7 +61042,7 @@
         <v>987</v>
       </c>
       <c r="N1183" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1184" spans="1:14" x14ac:dyDescent="0.2">
@@ -61068,10 +61065,10 @@
         <v>111</v>
       </c>
       <c r="G1184" s="1" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="H1184" s="5" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="I1184" s="1" t="s">
         <v>117</v>
@@ -61089,7 +61086,7 @@
         <v>987</v>
       </c>
       <c r="N1184" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1185" spans="1:14" x14ac:dyDescent="0.2">
@@ -61112,10 +61109,10 @@
         <v>111</v>
       </c>
       <c r="G1185" s="1" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="H1185" s="5" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="I1185" s="1" t="s">
         <v>117</v>
@@ -61133,7 +61130,7 @@
         <v>987</v>
       </c>
       <c r="N1185" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1186" spans="1:14" x14ac:dyDescent="0.2">
@@ -61156,10 +61153,10 @@
         <v>111</v>
       </c>
       <c r="G1186" s="1" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="H1186" s="5" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="I1186" s="1" t="s">
         <v>117</v>
@@ -61177,7 +61174,7 @@
         <v>987</v>
       </c>
       <c r="N1186" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1187" spans="1:14" x14ac:dyDescent="0.2">
@@ -61200,10 +61197,10 @@
         <v>111</v>
       </c>
       <c r="G1187" s="1" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="H1187" s="5" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="I1187" s="1" t="s">
         <v>117</v>
@@ -61221,7 +61218,7 @@
         <v>987</v>
       </c>
       <c r="N1187" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1188" spans="1:14" x14ac:dyDescent="0.2">
@@ -61244,10 +61241,10 @@
         <v>111</v>
       </c>
       <c r="G1188" s="1" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="H1188" s="15" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="I1188" s="1" t="s">
         <v>117</v>
@@ -61265,7 +61262,7 @@
         <v>987</v>
       </c>
       <c r="N1188" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1189" spans="1:14" x14ac:dyDescent="0.2">
@@ -61276,7 +61273,7 @@
         <v>593</v>
       </c>
       <c r="C1189" s="1" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="D1189" s="1" t="s">
         <v>31</v>
@@ -61288,10 +61285,10 @@
         <v>111</v>
       </c>
       <c r="G1189" s="1" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="H1189" s="5" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I1189" s="1" t="s">
         <v>117</v>
@@ -61309,7 +61306,7 @@
         <v>987</v>
       </c>
       <c r="N1189" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1190" spans="1:14" x14ac:dyDescent="0.2">
@@ -61320,7 +61317,7 @@
         <v>593</v>
       </c>
       <c r="C1190" s="1" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="D1190" s="1" t="s">
         <v>31</v>
@@ -61332,10 +61329,10 @@
         <v>111</v>
       </c>
       <c r="G1190" s="1" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="H1190" s="5" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="I1190" s="1" t="s">
         <v>117</v>
@@ -61353,7 +61350,7 @@
         <v>987</v>
       </c>
       <c r="N1190" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1191" spans="1:14" x14ac:dyDescent="0.2">
@@ -61364,7 +61361,7 @@
         <v>593</v>
       </c>
       <c r="C1191" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="D1191" s="1" t="s">
         <v>31</v>
@@ -61376,10 +61373,10 @@
         <v>111</v>
       </c>
       <c r="G1191" s="1" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="H1191" s="5" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="I1191" s="1" t="s">
         <v>117</v>
@@ -61397,7 +61394,7 @@
         <v>987</v>
       </c>
       <c r="N1191" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1192" spans="1:14" x14ac:dyDescent="0.2">
@@ -61408,7 +61405,7 @@
         <v>593</v>
       </c>
       <c r="C1192" s="1" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="D1192" s="1" t="s">
         <v>31</v>
@@ -61420,10 +61417,10 @@
         <v>111</v>
       </c>
       <c r="G1192" s="1" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="H1192" s="5" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="I1192" s="1" t="s">
         <v>117</v>
@@ -61441,7 +61438,7 @@
         <v>987</v>
       </c>
       <c r="N1192" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1193" spans="1:14" x14ac:dyDescent="0.2">
@@ -61449,7 +61446,7 @@
         <v>1460</v>
       </c>
       <c r="B1193" s="1" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="C1193" s="1" t="s">
         <v>460</v>
@@ -61464,10 +61461,10 @@
         <v>111</v>
       </c>
       <c r="G1193" s="1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="H1193" s="5" t="s">
         <v>1822</v>
-      </c>
-      <c r="H1193" s="5" t="s">
-        <v>1823</v>
       </c>
       <c r="I1193" s="1" t="s">
         <v>117</v>
@@ -61485,7 +61482,7 @@
         <v>987</v>
       </c>
       <c r="N1193" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1194" spans="1:14" x14ac:dyDescent="0.2">
@@ -61493,7 +61490,7 @@
         <v>1460</v>
       </c>
       <c r="B1194" s="1" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="C1194" s="1" t="s">
         <v>460</v>
@@ -61508,10 +61505,10 @@
         <v>111</v>
       </c>
       <c r="G1194" s="1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="H1194" s="5" t="s">
         <v>1825</v>
-      </c>
-      <c r="H1194" s="5" t="s">
-        <v>1826</v>
       </c>
       <c r="I1194" s="1" t="s">
         <v>117</v>
@@ -61529,7 +61526,7 @@
         <v>987</v>
       </c>
       <c r="N1194" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1195" spans="1:14" x14ac:dyDescent="0.2">
@@ -61537,7 +61534,7 @@
         <v>1460</v>
       </c>
       <c r="B1195" s="1" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="C1195" s="1" t="s">
         <v>460</v>
@@ -61552,10 +61549,10 @@
         <v>111</v>
       </c>
       <c r="G1195" s="1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="H1195" s="5" t="s">
         <v>1828</v>
-      </c>
-      <c r="H1195" s="5" t="s">
-        <v>1829</v>
       </c>
       <c r="I1195" s="1" t="s">
         <v>117</v>
@@ -61573,7 +61570,7 @@
         <v>987</v>
       </c>
       <c r="N1195" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1196" spans="1:14" x14ac:dyDescent="0.2">
@@ -61581,7 +61578,7 @@
         <v>1460</v>
       </c>
       <c r="B1196" s="1" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="C1196" s="1" t="s">
         <v>460</v>
@@ -61596,10 +61593,10 @@
         <v>111</v>
       </c>
       <c r="G1196" s="1" t="s">
+        <v>1830</v>
+      </c>
+      <c r="H1196" s="5" t="s">
         <v>1831</v>
-      </c>
-      <c r="H1196" s="5" t="s">
-        <v>1832</v>
       </c>
       <c r="I1196" s="1" t="s">
         <v>117</v>
@@ -61617,7 +61614,7 @@
         <v>987</v>
       </c>
       <c r="N1196" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1197" spans="1:14" x14ac:dyDescent="0.2">
@@ -61625,7 +61622,7 @@
         <v>1460</v>
       </c>
       <c r="B1197" s="1" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="C1197" s="1" t="s">
         <v>460</v>
@@ -61640,10 +61637,10 @@
         <v>111</v>
       </c>
       <c r="G1197" s="1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="H1197" s="5" t="s">
         <v>1834</v>
-      </c>
-      <c r="H1197" s="5" t="s">
-        <v>1835</v>
       </c>
       <c r="I1197" s="1" t="s">
         <v>117</v>
@@ -61661,7 +61658,7 @@
         <v>987</v>
       </c>
       <c r="N1197" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1198" spans="1:14" x14ac:dyDescent="0.2">
@@ -61669,7 +61666,7 @@
         <v>1460</v>
       </c>
       <c r="B1198" s="1" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="C1198" s="1" t="s">
         <v>460</v>
@@ -61684,10 +61681,10 @@
         <v>111</v>
       </c>
       <c r="G1198" s="1" t="s">
+        <v>1836</v>
+      </c>
+      <c r="H1198" s="5" t="s">
         <v>1837</v>
-      </c>
-      <c r="H1198" s="5" t="s">
-        <v>1838</v>
       </c>
       <c r="I1198" s="1" t="s">
         <v>117</v>
@@ -61705,7 +61702,7 @@
         <v>987</v>
       </c>
       <c r="N1198" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1199" spans="1:14" x14ac:dyDescent="0.2">
@@ -61713,7 +61710,7 @@
         <v>1460</v>
       </c>
       <c r="B1199" s="1" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="C1199" s="1" t="s">
         <v>460</v>
@@ -61728,10 +61725,10 @@
         <v>111</v>
       </c>
       <c r="G1199" s="1" t="s">
+        <v>1839</v>
+      </c>
+      <c r="H1199" s="5" t="s">
         <v>1840</v>
-      </c>
-      <c r="H1199" s="5" t="s">
-        <v>1841</v>
       </c>
       <c r="I1199" s="1" t="s">
         <v>117</v>
@@ -61749,7 +61746,7 @@
         <v>987</v>
       </c>
       <c r="N1199" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1200" spans="1:14" x14ac:dyDescent="0.2">
@@ -61757,7 +61754,7 @@
         <v>1460</v>
       </c>
       <c r="B1200" s="1" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="C1200" s="1" t="s">
         <v>460</v>
@@ -61772,10 +61769,10 @@
         <v>111</v>
       </c>
       <c r="G1200" s="1" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="H1200" s="5" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="I1200" s="1" t="s">
         <v>117</v>
@@ -61793,7 +61790,7 @@
         <v>987</v>
       </c>
       <c r="N1200" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1201" spans="1:14" x14ac:dyDescent="0.2">
@@ -61801,7 +61798,7 @@
         <v>1460</v>
       </c>
       <c r="B1201" s="1" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="C1201" s="1" t="s">
         <v>460</v>
@@ -61816,10 +61813,10 @@
         <v>111</v>
       </c>
       <c r="G1201" s="1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="H1201" s="5" t="s">
         <v>1846</v>
-      </c>
-      <c r="H1201" s="5" t="s">
-        <v>1847</v>
       </c>
       <c r="I1201" s="1" t="s">
         <v>117</v>
@@ -61837,7 +61834,7 @@
         <v>987</v>
       </c>
       <c r="N1201" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1202" spans="1:14" x14ac:dyDescent="0.2">
@@ -61845,7 +61842,7 @@
         <v>1460</v>
       </c>
       <c r="B1202" s="1" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="C1202" s="1" t="s">
         <v>460</v>
@@ -61860,10 +61857,10 @@
         <v>111</v>
       </c>
       <c r="G1202" s="1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="H1202" s="5" t="s">
         <v>1849</v>
-      </c>
-      <c r="H1202" s="5" t="s">
-        <v>1850</v>
       </c>
       <c r="I1202" s="1" t="s">
         <v>117</v>
@@ -61881,7 +61878,7 @@
         <v>987</v>
       </c>
       <c r="N1202" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1203" spans="1:14" x14ac:dyDescent="0.2">
@@ -61889,7 +61886,7 @@
         <v>1460</v>
       </c>
       <c r="B1203" s="1" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="C1203" s="1" t="s">
         <v>460</v>
@@ -61904,10 +61901,10 @@
         <v>111</v>
       </c>
       <c r="G1203" s="1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="H1203" s="5" t="s">
         <v>1852</v>
-      </c>
-      <c r="H1203" s="5" t="s">
-        <v>1853</v>
       </c>
       <c r="I1203" s="1" t="s">
         <v>117</v>
@@ -61925,7 +61922,7 @@
         <v>987</v>
       </c>
       <c r="N1203" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1204" spans="1:14" x14ac:dyDescent="0.2">
@@ -61933,7 +61930,7 @@
         <v>1460</v>
       </c>
       <c r="B1204" s="1" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="C1204" s="1" t="s">
         <v>460</v>
@@ -61948,10 +61945,10 @@
         <v>111</v>
       </c>
       <c r="G1204" s="1" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="H1204" s="5" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="I1204" s="1" t="s">
         <v>117</v>
@@ -61969,12 +61966,12 @@
         <v>987</v>
       </c>
       <c r="N1204" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1205" s="6" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B1205" s="1" t="s">
         <v>216</v>
@@ -61992,10 +61989,10 @@
         <v>218</v>
       </c>
       <c r="G1205" s="1" t="s">
+        <v>1756</v>
+      </c>
+      <c r="H1205" s="5" t="s">
         <v>1757</v>
-      </c>
-      <c r="H1205" s="5" t="s">
-        <v>1758</v>
       </c>
       <c r="I1205" s="1" t="s">
         <v>220</v>
@@ -62010,15 +62007,15 @@
         <v>48</v>
       </c>
       <c r="M1205" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="N1205" s="1" t="s">
         <v>1779</v>
-      </c>
-      <c r="N1205" s="1" t="s">
-        <v>1780</v>
       </c>
     </row>
     <row r="1206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1206" s="6" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B1206" s="1" t="s">
         <v>216</v>
@@ -62036,10 +62033,10 @@
         <v>218</v>
       </c>
       <c r="G1206" s="1" t="s">
+        <v>1758</v>
+      </c>
+      <c r="H1206" s="5" t="s">
         <v>1759</v>
-      </c>
-      <c r="H1206" s="5" t="s">
-        <v>1760</v>
       </c>
       <c r="I1206" s="1" t="s">
         <v>220</v>
@@ -62054,15 +62051,15 @@
         <v>20</v>
       </c>
       <c r="M1206" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="N1206" s="1" t="s">
         <v>1779</v>
-      </c>
-      <c r="N1206" s="1" t="s">
-        <v>1780</v>
       </c>
     </row>
     <row r="1207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1207" s="6" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B1207" s="1" t="s">
         <v>216</v>
@@ -62080,10 +62077,10 @@
         <v>218</v>
       </c>
       <c r="G1207" s="1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="H1207" s="5" t="s">
         <v>1761</v>
-      </c>
-      <c r="H1207" s="5" t="s">
-        <v>1762</v>
       </c>
       <c r="I1207" s="1" t="s">
         <v>220</v>
@@ -62098,15 +62095,15 @@
         <v>20</v>
       </c>
       <c r="M1207" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="N1207" s="1" t="s">
         <v>1779</v>
-      </c>
-      <c r="N1207" s="1" t="s">
-        <v>1780</v>
       </c>
     </row>
     <row r="1208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1208" s="6" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B1208" s="1" t="s">
         <v>216</v>
@@ -62124,10 +62121,10 @@
         <v>218</v>
       </c>
       <c r="G1208" s="1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H1208" s="5" t="s">
         <v>1763</v>
-      </c>
-      <c r="H1208" s="5" t="s">
-        <v>1764</v>
       </c>
       <c r="I1208" s="1" t="s">
         <v>220</v>
@@ -62142,15 +62139,15 @@
         <v>20</v>
       </c>
       <c r="M1208" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="N1208" s="1" t="s">
         <v>1779</v>
-      </c>
-      <c r="N1208" s="1" t="s">
-        <v>1780</v>
       </c>
     </row>
     <row r="1209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1209" s="6" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B1209" s="1" t="s">
         <v>216</v>
@@ -62168,10 +62165,10 @@
         <v>218</v>
       </c>
       <c r="G1209" s="1" t="s">
+        <v>1764</v>
+      </c>
+      <c r="H1209" s="5" t="s">
         <v>1765</v>
-      </c>
-      <c r="H1209" s="5" t="s">
-        <v>1766</v>
       </c>
       <c r="I1209" s="1" t="s">
         <v>220</v>
@@ -62186,15 +62183,15 @@
         <v>41</v>
       </c>
       <c r="M1209" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="N1209" s="1" t="s">
         <v>1779</v>
-      </c>
-      <c r="N1209" s="1" t="s">
-        <v>1780</v>
       </c>
     </row>
     <row r="1210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1210" s="6" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B1210" s="1" t="s">
         <v>216</v>
@@ -62212,10 +62209,10 @@
         <v>218</v>
       </c>
       <c r="G1210" s="1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="H1210" s="5" t="s">
         <v>1767</v>
-      </c>
-      <c r="H1210" s="5" t="s">
-        <v>1768</v>
       </c>
       <c r="I1210" s="1" t="s">
         <v>220</v>
@@ -62230,15 +62227,15 @@
         <v>20</v>
       </c>
       <c r="M1210" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="N1210" s="1" t="s">
         <v>1779</v>
-      </c>
-      <c r="N1210" s="1" t="s">
-        <v>1780</v>
       </c>
     </row>
     <row r="1211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1211" s="6" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B1211" s="1" t="s">
         <v>216</v>
@@ -62256,10 +62253,10 @@
         <v>218</v>
       </c>
       <c r="G1211" s="1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="H1211" s="5" t="s">
         <v>1769</v>
-      </c>
-      <c r="H1211" s="5" t="s">
-        <v>1770</v>
       </c>
       <c r="I1211" s="1" t="s">
         <v>220</v>
@@ -62274,15 +62271,15 @@
         <v>41</v>
       </c>
       <c r="M1211" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="N1211" s="1" t="s">
         <v>1779</v>
-      </c>
-      <c r="N1211" s="1" t="s">
-        <v>1780</v>
       </c>
     </row>
     <row r="1212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1212" s="6" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B1212" s="1" t="s">
         <v>216</v>
@@ -62300,10 +62297,10 @@
         <v>218</v>
       </c>
       <c r="G1212" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="H1212" s="5" t="s">
         <v>1771</v>
-      </c>
-      <c r="H1212" s="5" t="s">
-        <v>1772</v>
       </c>
       <c r="I1212" s="1" t="s">
         <v>220</v>
@@ -62318,15 +62315,15 @@
         <v>48</v>
       </c>
       <c r="M1212" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="N1212" s="1" t="s">
         <v>1779</v>
-      </c>
-      <c r="N1212" s="1" t="s">
-        <v>1780</v>
       </c>
     </row>
     <row r="1213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1213" s="6" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B1213" s="1" t="s">
         <v>216</v>
@@ -62344,10 +62341,10 @@
         <v>218</v>
       </c>
       <c r="G1213" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="H1213" s="5" t="s">
         <v>1773</v>
-      </c>
-      <c r="H1213" s="5" t="s">
-        <v>1774</v>
       </c>
       <c r="I1213" s="1" t="s">
         <v>220</v>
@@ -62362,15 +62359,15 @@
         <v>48</v>
       </c>
       <c r="M1213" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="N1213" s="1" t="s">
         <v>1779</v>
-      </c>
-      <c r="N1213" s="1" t="s">
-        <v>1780</v>
       </c>
     </row>
     <row r="1214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1214" s="6" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B1214" s="1" t="s">
         <v>216</v>
@@ -62388,10 +62385,10 @@
         <v>218</v>
       </c>
       <c r="G1214" s="1" t="s">
+        <v>1774</v>
+      </c>
+      <c r="H1214" s="5" t="s">
         <v>1775</v>
-      </c>
-      <c r="H1214" s="5" t="s">
-        <v>1776</v>
       </c>
       <c r="I1214" s="1" t="s">
         <v>220</v>
@@ -62406,15 +62403,15 @@
         <v>41</v>
       </c>
       <c r="M1214" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="N1214" s="1" t="s">
         <v>1779</v>
-      </c>
-      <c r="N1214" s="1" t="s">
-        <v>1780</v>
       </c>
     </row>
     <row r="1215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1215" s="6" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B1215" s="1" t="s">
         <v>216</v>
@@ -62432,10 +62429,10 @@
         <v>218</v>
       </c>
       <c r="G1215" s="1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="H1215" s="5" t="s">
         <v>1777</v>
-      </c>
-      <c r="H1215" s="5" t="s">
-        <v>1778</v>
       </c>
       <c r="I1215" s="1" t="s">
         <v>220</v>
@@ -62450,15 +62447,15 @@
         <v>48</v>
       </c>
       <c r="M1215" s="1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="N1215" s="1" t="s">
         <v>1779</v>
-      </c>
-      <c r="N1215" s="1" t="s">
-        <v>1780</v>
       </c>
     </row>
     <row r="1216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1216" s="6" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B1216" s="1" t="s">
         <v>216</v>
@@ -62476,10 +62473,10 @@
         <v>218</v>
       </c>
       <c r="G1216" s="1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="H1216" s="5" t="s">
         <v>1783</v>
-      </c>
-      <c r="H1216" s="5" t="s">
-        <v>1784</v>
       </c>
       <c r="I1216" s="1" t="s">
         <v>220</v>
@@ -62497,12 +62494,12 @@
         <v>987</v>
       </c>
       <c r="N1216" s="1" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="1217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1217" s="6" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B1217" s="1" t="s">
         <v>216</v>
@@ -62520,10 +62517,10 @@
         <v>218</v>
       </c>
       <c r="G1217" s="1" t="s">
+        <v>1784</v>
+      </c>
+      <c r="H1217" s="5" t="s">
         <v>1785</v>
-      </c>
-      <c r="H1217" s="5" t="s">
-        <v>1786</v>
       </c>
       <c r="I1217" s="1" t="s">
         <v>220</v>
@@ -62541,12 +62538,12 @@
         <v>987</v>
       </c>
       <c r="N1217" s="1" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="1218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1218" s="6" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B1218" s="1" t="s">
         <v>216</v>
@@ -62564,10 +62561,10 @@
         <v>218</v>
       </c>
       <c r="G1218" s="1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="H1218" s="5" t="s">
         <v>1787</v>
-      </c>
-      <c r="H1218" s="5" t="s">
-        <v>1788</v>
       </c>
       <c r="I1218" s="1" t="s">
         <v>220</v>
@@ -62585,12 +62582,12 @@
         <v>987</v>
       </c>
       <c r="N1218" s="1" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="1219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1219" s="6" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B1219" s="1" t="s">
         <v>216</v>
@@ -62608,10 +62605,10 @@
         <v>218</v>
       </c>
       <c r="G1219" s="1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="H1219" s="5" t="s">
         <v>1789</v>
-      </c>
-      <c r="H1219" s="5" t="s">
-        <v>1790</v>
       </c>
       <c r="I1219" s="1" t="s">
         <v>220</v>
@@ -62629,12 +62626,12 @@
         <v>987</v>
       </c>
       <c r="N1219" s="1" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="1220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1220" s="6" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B1220" s="1" t="s">
         <v>216</v>
@@ -62652,10 +62649,10 @@
         <v>218</v>
       </c>
       <c r="G1220" s="1" t="s">
+        <v>1790</v>
+      </c>
+      <c r="H1220" s="5" t="s">
         <v>1791</v>
-      </c>
-      <c r="H1220" s="5" t="s">
-        <v>1792</v>
       </c>
       <c r="I1220" s="1" t="s">
         <v>220</v>
@@ -62673,12 +62670,12 @@
         <v>987</v>
       </c>
       <c r="N1220" s="1" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="1221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1221" s="6" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B1221" s="1" t="s">
         <v>216</v>
@@ -62696,10 +62693,10 @@
         <v>218</v>
       </c>
       <c r="G1221" s="1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="H1221" s="5" t="s">
         <v>1793</v>
-      </c>
-      <c r="H1221" s="5" t="s">
-        <v>1794</v>
       </c>
       <c r="I1221" s="1" t="s">
         <v>220</v>
@@ -62717,12 +62714,12 @@
         <v>987</v>
       </c>
       <c r="N1221" s="1" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="1222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1222" s="6" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B1222" s="1" t="s">
         <v>216</v>
@@ -62740,10 +62737,10 @@
         <v>218</v>
       </c>
       <c r="G1222" s="1" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H1222" s="5" t="s">
         <v>1795</v>
-      </c>
-      <c r="H1222" s="5" t="s">
-        <v>1796</v>
       </c>
       <c r="I1222" s="1" t="s">
         <v>220</v>
@@ -62761,12 +62758,12 @@
         <v>987</v>
       </c>
       <c r="N1222" s="1" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="1223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1223" s="6" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B1223" s="1" t="s">
         <v>216</v>
@@ -62784,10 +62781,10 @@
         <v>218</v>
       </c>
       <c r="G1223" s="1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="H1223" s="5" t="s">
         <v>1797</v>
-      </c>
-      <c r="H1223" s="5" t="s">
-        <v>1798</v>
       </c>
       <c r="I1223" s="1" t="s">
         <v>220</v>
@@ -62805,12 +62802,12 @@
         <v>987</v>
       </c>
       <c r="N1223" s="1" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="1224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1224" s="6" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B1224" s="1" t="s">
         <v>216</v>
@@ -62828,10 +62825,10 @@
         <v>218</v>
       </c>
       <c r="G1224" s="1" t="s">
+        <v>1798</v>
+      </c>
+      <c r="H1224" s="5" t="s">
         <v>1799</v>
-      </c>
-      <c r="H1224" s="5" t="s">
-        <v>1800</v>
       </c>
       <c r="I1224" s="1" t="s">
         <v>220</v>
@@ -62849,12 +62846,12 @@
         <v>987</v>
       </c>
       <c r="N1224" s="1" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="1225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1225" s="6" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B1225" s="1" t="s">
         <v>216</v>
@@ -62872,10 +62869,10 @@
         <v>218</v>
       </c>
       <c r="G1225" s="1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="H1225" s="5" t="s">
         <v>1801</v>
-      </c>
-      <c r="H1225" s="5" t="s">
-        <v>1802</v>
       </c>
       <c r="I1225" s="1" t="s">
         <v>220</v>
@@ -62893,12 +62890,12 @@
         <v>987</v>
       </c>
       <c r="N1225" s="1" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="1226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1226" s="6" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B1226" s="1" t="s">
         <v>216</v>
@@ -62916,10 +62913,10 @@
         <v>218</v>
       </c>
       <c r="G1226" s="1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="H1226" s="5" t="s">
         <v>1803</v>
-      </c>
-      <c r="H1226" s="5" t="s">
-        <v>1804</v>
       </c>
       <c r="I1226" s="1" t="s">
         <v>220</v>
@@ -62937,12 +62934,12 @@
         <v>987</v>
       </c>
       <c r="N1226" s="1" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="1227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1227" s="6" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B1227" s="1" t="s">
         <v>216</v>
@@ -62960,10 +62957,10 @@
         <v>218</v>
       </c>
       <c r="G1227" s="1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="H1227" s="5" t="s">
         <v>1805</v>
-      </c>
-      <c r="H1227" s="5" t="s">
-        <v>1806</v>
       </c>
       <c r="I1227" s="1" t="s">
         <v>220</v>
@@ -62981,12 +62978,12 @@
         <v>987</v>
       </c>
       <c r="N1227" s="1" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="1228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1228" s="6" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B1228" s="1" t="s">
         <v>216</v>
@@ -63004,10 +63001,10 @@
         <v>111</v>
       </c>
       <c r="G1228" s="1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="H1228" s="5" t="s">
         <v>1807</v>
-      </c>
-      <c r="H1228" s="5" t="s">
-        <v>1808</v>
       </c>
       <c r="I1228" s="1" t="s">
         <v>117</v>
@@ -63025,12 +63022,12 @@
         <v>987</v>
       </c>
       <c r="N1228" s="1" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="1229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1229" s="6" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B1229" s="1" t="s">
         <v>216</v>
@@ -63048,10 +63045,10 @@
         <v>111</v>
       </c>
       <c r="G1229" s="1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="H1229" s="5" t="s">
         <v>1809</v>
-      </c>
-      <c r="H1229" s="5" t="s">
-        <v>1810</v>
       </c>
       <c r="I1229" s="1" t="s">
         <v>117</v>
@@ -63069,12 +63066,12 @@
         <v>987</v>
       </c>
       <c r="N1229" s="1" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="1230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1230" s="6" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B1230" s="1" t="s">
         <v>216</v>
@@ -63092,10 +63089,10 @@
         <v>111</v>
       </c>
       <c r="G1230" s="1" t="s">
+        <v>1810</v>
+      </c>
+      <c r="H1230" s="5" t="s">
         <v>1811</v>
-      </c>
-      <c r="H1230" s="5" t="s">
-        <v>1812</v>
       </c>
       <c r="I1230" s="1" t="s">
         <v>117</v>
@@ -63113,12 +63110,12 @@
         <v>987</v>
       </c>
       <c r="N1230" s="1" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="1231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1231" s="6" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B1231" s="1" t="s">
         <v>216</v>
@@ -63136,10 +63133,10 @@
         <v>111</v>
       </c>
       <c r="G1231" s="1" t="s">
+        <v>1812</v>
+      </c>
+      <c r="H1231" s="5" t="s">
         <v>1813</v>
-      </c>
-      <c r="H1231" s="5" t="s">
-        <v>1814</v>
       </c>
       <c r="I1231" s="1" t="s">
         <v>117</v>
@@ -63157,12 +63154,12 @@
         <v>987</v>
       </c>
       <c r="N1231" s="1" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="1232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1232" s="6" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B1232" s="1" t="s">
         <v>216</v>
@@ -63180,10 +63177,10 @@
         <v>111</v>
       </c>
       <c r="G1232" s="1" t="s">
+        <v>1814</v>
+      </c>
+      <c r="H1232" s="5" t="s">
         <v>1815</v>
-      </c>
-      <c r="H1232" s="5" t="s">
-        <v>1816</v>
       </c>
       <c r="I1232" s="1" t="s">
         <v>117</v>
@@ -63201,12 +63198,12 @@
         <v>987</v>
       </c>
       <c r="N1232" s="1" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="1233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1233" s="6" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B1233" s="1" t="s">
         <v>216</v>
@@ -63236,7 +63233,7 @@
         <v>12</v>
       </c>
       <c r="K1233" s="1" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="L1233" s="11" t="s">
         <v>48</v>
@@ -63245,15 +63242,15 @@
         <v>987</v>
       </c>
       <c r="N1233" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="O1233" s="1" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="1234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1234" s="6" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B1234" s="1" t="s">
         <v>216</v>
@@ -63283,7 +63280,7 @@
         <v>12</v>
       </c>
       <c r="K1234" s="1" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="L1234" s="11" t="s">
         <v>48</v>
@@ -63292,15 +63289,15 @@
         <v>987</v>
       </c>
       <c r="N1234" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="O1234" s="1" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="1235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1235" s="6" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B1235" s="1" t="s">
         <v>216</v>
@@ -63330,7 +63327,7 @@
         <v>12</v>
       </c>
       <c r="K1235" s="1" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="L1235" s="11" t="s">
         <v>48</v>
@@ -63339,15 +63336,15 @@
         <v>987</v>
       </c>
       <c r="N1235" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="O1235" s="1" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="1236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1236" s="6" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B1236" s="1" t="s">
         <v>216</v>
@@ -63377,7 +63374,7 @@
         <v>12</v>
       </c>
       <c r="K1236" s="1" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="L1236" s="11" t="s">
         <v>48</v>
@@ -63386,15 +63383,15 @@
         <v>987</v>
       </c>
       <c r="N1236" s="1" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="O1236" s="1" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="1237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1237" s="6" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B1237" s="1" t="s">
         <v>216</v>
@@ -63424,7 +63421,7 @@
         <v>18</v>
       </c>
       <c r="K1237" s="1" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="L1237" s="11" t="s">
         <v>48</v>
@@ -63433,15 +63430,15 @@
         <v>1220</v>
       </c>
       <c r="N1237" s="1" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="O1237" s="1" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="1238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1238" s="6" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="B1238" s="1" t="s">
         <v>216</v>
@@ -63471,7 +63468,7 @@
         <v>22</v>
       </c>
       <c r="K1238" s="1" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="L1238" s="11" t="s">
         <v>20</v>
@@ -63480,15 +63477,15 @@
         <v>987</v>
       </c>
       <c r="N1238" s="1" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="O1238" s="1" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1239" s="6" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B1239" s="1" t="s">
         <v>216</v>
@@ -63518,7 +63515,7 @@
         <v>22</v>
       </c>
       <c r="K1239" s="1" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="L1239" s="1" t="s">
         <v>41</v>
@@ -63527,15 +63524,15 @@
         <v>119</v>
       </c>
       <c r="N1239" s="1" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="O1239" s="1" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1240" s="6" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B1240" s="1" t="s">
         <v>216</v>
@@ -63553,10 +63550,10 @@
         <v>111</v>
       </c>
       <c r="G1240" s="1" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="H1240" s="5" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="I1240" s="1" t="s">
         <v>117</v>
@@ -63571,15 +63568,15 @@
         <v>48</v>
       </c>
       <c r="M1240" s="1" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="N1240" s="1" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="1241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1241" s="6" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B1241" s="1" t="s">
         <v>216</v>
@@ -63597,10 +63594,10 @@
         <v>111</v>
       </c>
       <c r="G1241" s="1" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="H1241" s="5" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="I1241" s="1" t="s">
         <v>117</v>
@@ -63615,15 +63612,15 @@
         <v>20</v>
       </c>
       <c r="M1241" s="1" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="N1241" s="1" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="1242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1242" s="6" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B1242" s="1" t="s">
         <v>216</v>
@@ -63641,10 +63638,10 @@
         <v>111</v>
       </c>
       <c r="G1242" s="1" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="H1242" s="5" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="I1242" s="1" t="s">
         <v>117</v>
@@ -63659,15 +63656,15 @@
         <v>41</v>
       </c>
       <c r="M1242" s="1" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="N1242" s="1" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="1243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1243" s="6" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B1243" s="1" t="s">
         <v>216</v>
@@ -63685,10 +63682,10 @@
         <v>111</v>
       </c>
       <c r="G1243" s="1" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="H1243" s="5" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="I1243" s="1" t="s">
         <v>117</v>
@@ -63703,15 +63700,15 @@
         <v>20</v>
       </c>
       <c r="M1243" s="1" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="N1243" s="1" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="1244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1244" s="6" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B1244" s="1" t="s">
         <v>216</v>
@@ -63729,10 +63726,10 @@
         <v>111</v>
       </c>
       <c r="G1244" s="1" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="H1244" s="5" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="I1244" s="1" t="s">
         <v>117</v>
@@ -63747,15 +63744,15 @@
         <v>48</v>
       </c>
       <c r="M1244" s="1" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="N1244" s="1" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="1245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1245" s="5" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B1245" s="1" t="s">
         <v>148</v>
@@ -63785,7 +63782,7 @@
         <v>22</v>
       </c>
       <c r="K1245" s="1" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="L1245" s="1" t="s">
         <v>20</v>
@@ -63794,12 +63791,12 @@
         <v>119</v>
       </c>
       <c r="N1245" s="1" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="1246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1246" s="5" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="B1246" s="1" t="s">
         <v>110</v>
@@ -63829,7 +63826,7 @@
         <v>22</v>
       </c>
       <c r="K1246" s="1" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="L1246" s="1" t="s">
         <v>20</v>
@@ -63838,12 +63835,12 @@
         <v>119</v>
       </c>
       <c r="N1246" s="1" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="1247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1247" s="5" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B1247" s="1" t="s">
         <v>216</v>
@@ -63858,22 +63855,22 @@
         <v>18</v>
       </c>
       <c r="F1247" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="G1247" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="H1247" s="5" t="s">
         <v>1915</v>
       </c>
-      <c r="H1247" s="5" t="s">
+      <c r="I1247" s="1" t="s">
         <v>1916</v>
-      </c>
-      <c r="I1247" s="1" t="s">
-        <v>1917</v>
       </c>
       <c r="J1247" s="1">
         <v>43</v>
       </c>
       <c r="K1247" s="1" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="L1247" s="1" t="s">
         <v>20</v>
@@ -63882,15 +63879,15 @@
         <v>1220</v>
       </c>
       <c r="N1247" s="1" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="O1247" s="1" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1248" s="5" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B1248" s="1" t="s">
         <v>216</v>
@@ -63905,22 +63902,22 @@
         <v>18</v>
       </c>
       <c r="F1248" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="G1248" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="H1248" s="5" t="s">
         <v>1915</v>
       </c>
-      <c r="H1248" s="5" t="s">
+      <c r="I1248" s="1" t="s">
         <v>1916</v>
-      </c>
-      <c r="I1248" s="1" t="s">
-        <v>1917</v>
       </c>
       <c r="J1248" s="1">
         <v>35</v>
       </c>
       <c r="K1248" s="1" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="L1248" s="1" t="s">
         <v>20</v>
@@ -63929,15 +63926,15 @@
         <v>1220</v>
       </c>
       <c r="N1248" s="1" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="O1248" s="1" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="1249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1249" s="5" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B1249" s="1" t="s">
         <v>216</v>
@@ -63952,22 +63949,22 @@
         <v>18</v>
       </c>
       <c r="F1249" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="G1249" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="H1249" s="5" t="s">
         <v>1915</v>
       </c>
-      <c r="H1249" s="5" t="s">
+      <c r="I1249" s="1" t="s">
         <v>1916</v>
       </c>
-      <c r="I1249" s="1" t="s">
-        <v>1917</v>
-      </c>
       <c r="J1249" s="1">
         <v>31</v>
       </c>
       <c r="K1249" s="1" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="L1249" s="1" t="s">
         <v>20</v>
@@ -63976,15 +63973,15 @@
         <v>1220</v>
       </c>
       <c r="N1249" s="1" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="O1249" s="1" t="s">
-        <v>1930</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1250" s="5" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B1250" s="1" t="s">
         <v>216</v>
@@ -63999,22 +63996,22 @@
         <v>18</v>
       </c>
       <c r="F1250" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="G1250" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="H1250" s="5" t="s">
         <v>1915</v>
       </c>
-      <c r="H1250" s="5" t="s">
+      <c r="I1250" s="1" t="s">
         <v>1916</v>
-      </c>
-      <c r="I1250" s="1" t="s">
-        <v>1917</v>
       </c>
       <c r="J1250" s="1">
         <v>28</v>
       </c>
       <c r="K1250" s="1" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="L1250" s="1" t="s">
         <v>48</v>
@@ -64023,15 +64020,15 @@
         <v>1220</v>
       </c>
       <c r="N1250" s="1" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="O1250" s="1" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1251" s="5" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B1251" s="1" t="s">
         <v>216</v>
@@ -64046,22 +64043,22 @@
         <v>18</v>
       </c>
       <c r="F1251" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="G1251" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="H1251" s="5" t="s">
         <v>1915</v>
       </c>
-      <c r="H1251" s="5" t="s">
+      <c r="I1251" s="1" t="s">
         <v>1916</v>
-      </c>
-      <c r="I1251" s="1" t="s">
-        <v>1917</v>
       </c>
       <c r="J1251" s="1">
         <v>23</v>
       </c>
       <c r="K1251" s="1" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="L1251" s="1" t="s">
         <v>48</v>
@@ -64070,15 +64067,15 @@
         <v>1220</v>
       </c>
       <c r="N1251" s="1" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="O1251" s="1" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="1252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1252" s="5" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B1252" s="1" t="s">
         <v>216</v>
@@ -64093,22 +64090,22 @@
         <v>18</v>
       </c>
       <c r="F1252" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="G1252" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="H1252" s="5" t="s">
         <v>1915</v>
       </c>
-      <c r="H1252" s="5" t="s">
+      <c r="I1252" s="1" t="s">
         <v>1916</v>
-      </c>
-      <c r="I1252" s="1" t="s">
-        <v>1917</v>
       </c>
       <c r="J1252" s="1">
         <v>19</v>
       </c>
       <c r="K1252" s="1" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="L1252" s="1" t="s">
         <v>48</v>
@@ -64117,15 +64114,15 @@
         <v>1220</v>
       </c>
       <c r="N1252" s="1" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="O1252" s="1" t="s">
-        <v>1928</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1253" s="5" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B1253" s="1" t="s">
         <v>216</v>
@@ -64140,22 +64137,22 @@
         <v>18</v>
       </c>
       <c r="F1253" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="G1253" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="H1253" s="5" t="s">
         <v>1915</v>
       </c>
-      <c r="H1253" s="5" t="s">
+      <c r="I1253" s="1" t="s">
         <v>1916</v>
-      </c>
-      <c r="I1253" s="1" t="s">
-        <v>1917</v>
       </c>
       <c r="J1253" s="1">
         <v>32</v>
       </c>
       <c r="K1253" s="1" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="L1253" s="1" t="s">
         <v>20</v>
@@ -64164,15 +64161,15 @@
         <v>1220</v>
       </c>
       <c r="N1253" s="1" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="O1253" s="1" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1254" s="5" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B1254" s="1" t="s">
         <v>216</v>
@@ -64187,22 +64184,22 @@
         <v>18</v>
       </c>
       <c r="F1254" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="G1254" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="H1254" s="5" t="s">
         <v>1915</v>
       </c>
-      <c r="H1254" s="5" t="s">
+      <c r="I1254" s="1" t="s">
         <v>1916</v>
-      </c>
-      <c r="I1254" s="1" t="s">
-        <v>1917</v>
       </c>
       <c r="J1254" s="1">
         <v>28</v>
       </c>
       <c r="K1254" s="1" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="L1254" s="1" t="s">
         <v>48</v>
@@ -64211,15 +64208,15 @@
         <v>1220</v>
       </c>
       <c r="N1254" s="1" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="O1254" s="1" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1255" s="5" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B1255" s="1" t="s">
         <v>216</v>
@@ -64234,22 +64231,22 @@
         <v>18</v>
       </c>
       <c r="F1255" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="G1255" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="H1255" s="5" t="s">
         <v>1915</v>
       </c>
-      <c r="H1255" s="5" t="s">
+      <c r="I1255" s="1" t="s">
         <v>1916</v>
-      </c>
-      <c r="I1255" s="1" t="s">
-        <v>1917</v>
       </c>
       <c r="J1255" s="1">
         <v>25</v>
       </c>
       <c r="K1255" s="1" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="L1255" s="1" t="s">
         <v>48</v>
@@ -64258,15 +64255,15 @@
         <v>1220</v>
       </c>
       <c r="N1255" s="1" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="O1255" s="1" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1256" s="5" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B1256" s="1" t="s">
         <v>216</v>
@@ -64281,39 +64278,39 @@
         <v>18</v>
       </c>
       <c r="F1256" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="G1256" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="H1256" s="5" t="s">
         <v>1915</v>
       </c>
-      <c r="H1256" s="5" t="s">
+      <c r="I1256" s="1" t="s">
         <v>1916</v>
       </c>
-      <c r="I1256" s="1" t="s">
-        <v>1917</v>
-      </c>
       <c r="J1256" s="1">
         <v>31</v>
       </c>
       <c r="K1256" s="1" t="s">
+        <v>1937</v>
+      </c>
+      <c r="L1256" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1256" s="1" t="s">
         <v>1938</v>
       </c>
-      <c r="L1256" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1256" s="1" t="s">
-        <v>1939</v>
-      </c>
       <c r="N1256" s="1" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="O1256" s="1" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1257" s="5" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B1257" s="1" t="s">
         <v>216</v>
@@ -64328,39 +64325,39 @@
         <v>18</v>
       </c>
       <c r="F1257" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="G1257" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="H1257" s="5" t="s">
         <v>1915</v>
       </c>
-      <c r="H1257" s="5" t="s">
+      <c r="I1257" s="1" t="s">
         <v>1916</v>
-      </c>
-      <c r="I1257" s="1" t="s">
-        <v>1917</v>
       </c>
       <c r="J1257" s="1">
         <v>23</v>
       </c>
       <c r="K1257" s="1" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="L1257" s="1" t="s">
         <v>48</v>
       </c>
       <c r="M1257" s="1" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="N1257" s="1" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="O1257" s="1" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="1258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1258" s="5" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B1258" s="1" t="s">
         <v>216</v>
@@ -64375,39 +64372,39 @@
         <v>18</v>
       </c>
       <c r="F1258" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="G1258" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="H1258" s="5" t="s">
         <v>1915</v>
       </c>
-      <c r="H1258" s="5" t="s">
+      <c r="I1258" s="1" t="s">
         <v>1916</v>
       </c>
-      <c r="I1258" s="1" t="s">
-        <v>1917</v>
-      </c>
       <c r="J1258" s="1">
         <v>31</v>
       </c>
       <c r="K1258" s="1" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="L1258" s="1" t="s">
         <v>41</v>
       </c>
       <c r="M1258" s="1" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="N1258" s="1" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="O1258" s="1" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="1259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1259" s="5" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B1259" s="1" t="s">
         <v>216</v>
@@ -64422,22 +64419,22 @@
         <v>18</v>
       </c>
       <c r="F1259" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="G1259" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="H1259" s="5" t="s">
         <v>1915</v>
       </c>
-      <c r="H1259" s="5" t="s">
+      <c r="I1259" s="1" t="s">
         <v>1916</v>
-      </c>
-      <c r="I1259" s="1" t="s">
-        <v>1917</v>
       </c>
       <c r="J1259" s="1">
         <v>43</v>
       </c>
       <c r="K1259" s="1" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="L1259" s="1" t="s">
         <v>20</v>
@@ -64446,15 +64443,15 @@
         <v>1220</v>
       </c>
       <c r="N1259" s="1" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="O1259" s="1" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="1260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1260" s="5" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B1260" s="1" t="s">
         <v>216</v>
@@ -64469,22 +64466,22 @@
         <v>18</v>
       </c>
       <c r="F1260" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="G1260" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="H1260" s="5" t="s">
         <v>1915</v>
       </c>
-      <c r="H1260" s="5" t="s">
+      <c r="I1260" s="1" t="s">
         <v>1916</v>
-      </c>
-      <c r="I1260" s="1" t="s">
-        <v>1917</v>
       </c>
       <c r="J1260" s="1">
         <v>43</v>
       </c>
       <c r="K1260" s="1" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="L1260" s="1" t="s">
         <v>20</v>
@@ -64493,15 +64490,15 @@
         <v>1220</v>
       </c>
       <c r="N1260" s="1" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="O1260" s="1" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="1261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1261" s="5" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="B1261" s="1" t="s">
         <v>216</v>
@@ -64516,22 +64513,22 @@
         <v>18</v>
       </c>
       <c r="F1261" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="G1261" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="H1261" s="5" t="s">
         <v>1915</v>
       </c>
-      <c r="H1261" s="5" t="s">
+      <c r="I1261" s="1" t="s">
         <v>1916</v>
-      </c>
-      <c r="I1261" s="1" t="s">
-        <v>1917</v>
       </c>
       <c r="J1261" s="1">
         <v>42</v>
       </c>
       <c r="K1261" s="1" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="L1261" s="1" t="s">
         <v>20</v>
@@ -64540,15 +64537,15 @@
         <v>1220</v>
       </c>
       <c r="N1261" s="1" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="O1261" s="1" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="1262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1262" s="5" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B1262" s="1" t="s">
         <v>216</v>
@@ -64563,22 +64560,22 @@
         <v>18</v>
       </c>
       <c r="F1262" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="G1262" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="H1262" s="5" t="s">
         <v>1915</v>
       </c>
-      <c r="H1262" s="5" t="s">
+      <c r="I1262" s="1" t="s">
         <v>1916</v>
-      </c>
-      <c r="I1262" s="1" t="s">
-        <v>1917</v>
       </c>
       <c r="J1262" s="1">
         <v>44</v>
       </c>
       <c r="K1262" s="1" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="L1262" s="1" t="s">
         <v>20</v>
@@ -64587,15 +64584,15 @@
         <v>1328</v>
       </c>
       <c r="N1262" s="1" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="O1262" s="1" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="1263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1263" s="5" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B1263" s="1" t="s">
         <v>216</v>
@@ -64610,22 +64607,22 @@
         <v>18</v>
       </c>
       <c r="F1263" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="G1263" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="H1263" s="5" t="s">
         <v>1915</v>
       </c>
-      <c r="H1263" s="5" t="s">
+      <c r="I1263" s="1" t="s">
         <v>1916</v>
-      </c>
-      <c r="I1263" s="1" t="s">
-        <v>1917</v>
       </c>
       <c r="J1263" s="1">
         <v>43</v>
       </c>
       <c r="K1263" s="1" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="L1263" s="1" t="s">
         <v>20</v>
@@ -64634,15 +64631,15 @@
         <v>1328</v>
       </c>
       <c r="N1263" s="1" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="O1263" s="1" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="1264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1264" s="5" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B1264" s="1" t="s">
         <v>216</v>
@@ -64657,22 +64654,22 @@
         <v>18</v>
       </c>
       <c r="F1264" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="G1264" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="H1264" s="5" t="s">
         <v>1915</v>
       </c>
-      <c r="H1264" s="5" t="s">
+      <c r="I1264" s="1" t="s">
         <v>1916</v>
-      </c>
-      <c r="I1264" s="1" t="s">
-        <v>1917</v>
       </c>
       <c r="J1264" s="1">
         <v>45</v>
       </c>
       <c r="K1264" s="1" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="L1264" s="19" t="s">
         <v>20</v>
@@ -64681,15 +64678,15 @@
         <v>1328</v>
       </c>
       <c r="N1264" s="1" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="O1264" s="1" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1265" s="5" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B1265" s="1" t="s">
         <v>216</v>
@@ -64704,22 +64701,22 @@
         <v>18</v>
       </c>
       <c r="F1265" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="G1265" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="H1265" s="5" t="s">
         <v>1915</v>
       </c>
-      <c r="H1265" s="5" t="s">
+      <c r="I1265" s="1" t="s">
         <v>1916</v>
-      </c>
-      <c r="I1265" s="1" t="s">
-        <v>1917</v>
       </c>
       <c r="J1265" s="1">
         <v>44</v>
       </c>
       <c r="K1265" s="1" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="L1265" s="19" t="s">
         <v>20</v>
@@ -64728,15 +64725,15 @@
         <v>1328</v>
       </c>
       <c r="N1265" s="1" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="O1265" s="1" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="1266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1266" s="5" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B1266" s="1" t="s">
         <v>216</v>
@@ -64751,22 +64748,22 @@
         <v>18</v>
       </c>
       <c r="F1266" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="G1266" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="H1266" s="5" t="s">
         <v>1915</v>
       </c>
-      <c r="H1266" s="5" t="s">
+      <c r="I1266" s="1" t="s">
         <v>1916</v>
-      </c>
-      <c r="I1266" s="1" t="s">
-        <v>1917</v>
       </c>
       <c r="J1266" s="1">
         <v>23</v>
       </c>
       <c r="K1266" s="1" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="L1266" s="1" t="s">
         <v>20</v>
@@ -64775,15 +64772,15 @@
         <v>1220</v>
       </c>
       <c r="N1266" s="1" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="O1266" s="1" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="1267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1267" s="5" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B1267" s="1" t="s">
         <v>216</v>
@@ -64798,22 +64795,22 @@
         <v>18</v>
       </c>
       <c r="F1267" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="G1267" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="H1267" s="5" t="s">
         <v>1915</v>
       </c>
-      <c r="H1267" s="5" t="s">
+      <c r="I1267" s="1" t="s">
         <v>1916</v>
       </c>
-      <c r="I1267" s="1" t="s">
-        <v>1917</v>
-      </c>
       <c r="J1267" s="1">
         <v>22</v>
       </c>
       <c r="K1267" s="1" t="s">
-        <v>1967</v>
+        <v>1966</v>
       </c>
       <c r="L1267" s="1" t="s">
         <v>48</v>
@@ -64822,15 +64819,15 @@
         <v>1220</v>
       </c>
       <c r="N1267" s="1" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="O1267" s="1" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1268" s="5" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B1268" s="1" t="s">
         <v>216</v>
@@ -64845,39 +64842,39 @@
         <v>18</v>
       </c>
       <c r="F1268" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="G1268" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="H1268" s="5" t="s">
         <v>1915</v>
       </c>
-      <c r="H1268" s="5" t="s">
+      <c r="I1268" s="1" t="s">
         <v>1916</v>
-      </c>
-      <c r="I1268" s="1" t="s">
-        <v>1917</v>
       </c>
       <c r="J1268" s="1">
         <v>23</v>
       </c>
       <c r="K1268" s="1" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="L1268" s="1" t="s">
         <v>48</v>
       </c>
       <c r="M1268" s="1" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="N1268" s="1" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="O1268" s="1" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="1269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1269" s="5" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B1269" s="1" t="s">
         <v>216</v>
@@ -64892,39 +64889,39 @@
         <v>18</v>
       </c>
       <c r="F1269" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="G1269" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="H1269" s="5" t="s">
         <v>1915</v>
       </c>
-      <c r="H1269" s="5" t="s">
+      <c r="I1269" s="1" t="s">
         <v>1916</v>
-      </c>
-      <c r="I1269" s="1" t="s">
-        <v>1917</v>
       </c>
       <c r="J1269" s="1">
         <v>23</v>
       </c>
       <c r="K1269" s="1" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="L1269" s="1" t="s">
         <v>48</v>
       </c>
       <c r="M1269" s="1" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="N1269" s="1" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="O1269" s="1" t="s">
-        <v>1971</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="1270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1270" s="5" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B1270" s="1" t="s">
         <v>216</v>
@@ -64939,39 +64936,39 @@
         <v>18</v>
       </c>
       <c r="F1270" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="G1270" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="H1270" s="5" t="s">
         <v>1915</v>
       </c>
-      <c r="H1270" s="5" t="s">
+      <c r="I1270" s="19" t="s">
         <v>1916</v>
-      </c>
-      <c r="I1270" s="19" t="s">
-        <v>1917</v>
       </c>
       <c r="J1270" s="1">
         <v>23</v>
       </c>
       <c r="K1270" s="1" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="L1270" s="1" t="s">
         <v>48</v>
       </c>
       <c r="M1270" s="1" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="N1270" s="1" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="O1270" s="1" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="1271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1271" s="5" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B1271" s="1" t="s">
         <v>216</v>
@@ -64986,39 +64983,39 @@
         <v>18</v>
       </c>
       <c r="F1271" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="G1271" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="H1271" s="5" t="s">
         <v>1915</v>
       </c>
-      <c r="H1271" s="5" t="s">
+      <c r="I1271" s="19" t="s">
         <v>1916</v>
-      </c>
-      <c r="I1271" s="19" t="s">
-        <v>1917</v>
       </c>
       <c r="J1271" s="1">
         <v>23</v>
       </c>
       <c r="K1271" s="1" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="L1271" s="1" t="s">
         <v>48</v>
       </c>
       <c r="M1271" s="1" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="N1271" s="1" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="O1271" s="1" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1272" s="5" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B1272" s="1" t="s">
         <v>216</v>
@@ -65033,42 +65030,42 @@
         <v>18</v>
       </c>
       <c r="F1272" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="G1272" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="H1272" s="5" t="s">
         <v>1915</v>
       </c>
-      <c r="H1272" s="5" t="s">
+      <c r="I1272" s="19" t="s">
         <v>1916</v>
-      </c>
-      <c r="I1272" s="19" t="s">
-        <v>1917</v>
       </c>
       <c r="J1272" s="1">
         <v>29</v>
       </c>
       <c r="K1272" s="1" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="L1272" s="1" t="s">
         <v>48</v>
       </c>
       <c r="M1272" s="1" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="N1272" s="1" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="O1272" s="1" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="1273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1273" s="5" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B1273" s="1" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="C1273" s="1" t="s">
         <v>460</v>
@@ -65080,39 +65077,39 @@
         <v>18</v>
       </c>
       <c r="F1273" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="G1273" s="1" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="H1273" s="5" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="I1273" s="19" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="J1273" s="1">
         <v>29</v>
       </c>
       <c r="K1273" s="1" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="L1273" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M1273" s="1" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="N1273" s="1" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1274" s="5" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B1274" s="1" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="C1274" s="1" t="s">
         <v>460</v>
@@ -65124,36 +65121,36 @@
         <v>18</v>
       </c>
       <c r="F1274" s="1" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="G1274" s="1" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="H1274" s="5" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="I1274" s="19" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="J1274" s="1">
         <v>29</v>
       </c>
       <c r="K1274" s="1" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="L1274" s="1" t="s">
         <v>48</v>
       </c>
       <c r="M1274" s="1" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="N1274" s="1" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1275" s="5" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B1275" s="1" t="s">
         <v>216</v>
@@ -65183,7 +65180,7 @@
         <v>26</v>
       </c>
       <c r="K1275" s="1" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="L1275" s="1" t="s">
         <v>41</v>
@@ -65192,12 +65189,12 @@
         <v>1328</v>
       </c>
       <c r="N1275" s="1" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1276" s="5" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B1276" s="1" t="s">
         <v>216</v>
@@ -65227,7 +65224,7 @@
         <v>18</v>
       </c>
       <c r="K1276" s="1" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="L1276" s="1" t="s">
         <v>41</v>
@@ -65236,15 +65233,15 @@
         <v>119</v>
       </c>
       <c r="N1276" s="1" t="s">
+        <v>1987</v>
+      </c>
+      <c r="O1276" s="1" t="s">
         <v>1988</v>
-      </c>
-      <c r="O1276" s="1" t="s">
-        <v>1989</v>
       </c>
     </row>
     <row r="1277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1277" s="5" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B1277" s="1" t="s">
         <v>216</v>
@@ -65274,7 +65271,7 @@
         <v>18</v>
       </c>
       <c r="K1277" s="1" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="L1277" s="1" t="s">
         <v>20</v>
@@ -65283,15 +65280,15 @@
         <v>119</v>
       </c>
       <c r="N1277" s="1" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="O1277" s="1" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="1278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1278" s="20" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B1278" s="1" t="s">
         <v>216</v>
@@ -65321,7 +65318,7 @@
         <v>18</v>
       </c>
       <c r="K1278" s="1" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="L1278" s="1" t="s">
         <v>20</v>
@@ -65330,15 +65327,15 @@
         <v>119</v>
       </c>
       <c r="N1278" s="1" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="O1278" s="1" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1279" s="20" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B1279" s="1" t="s">
         <v>216</v>
@@ -65368,7 +65365,7 @@
         <v>18</v>
       </c>
       <c r="K1279" s="1" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="L1279" s="1" t="s">
         <v>41</v>
@@ -65377,15 +65374,15 @@
         <v>119</v>
       </c>
       <c r="N1279" s="1" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="O1279" s="1" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="1280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1280" s="20" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B1280" s="1" t="s">
         <v>216</v>
@@ -65415,7 +65412,7 @@
         <v>18</v>
       </c>
       <c r="K1280" s="1" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="L1280" s="1" t="s">
         <v>20</v>
@@ -65424,15 +65421,15 @@
         <v>119</v>
       </c>
       <c r="N1280" s="1" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="O1280" s="1" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="1281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1281" s="20" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B1281" s="1" t="s">
         <v>216</v>
@@ -65462,7 +65459,7 @@
         <v>18</v>
       </c>
       <c r="K1281" s="1" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="L1281" s="1" t="s">
         <v>20</v>
@@ -65471,15 +65468,15 @@
         <v>119</v>
       </c>
       <c r="N1281" s="1" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="O1281" s="1" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="1282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1282" s="5" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B1282" s="1" t="s">
         <v>1454</v>
@@ -65518,15 +65515,15 @@
         <v>1004</v>
       </c>
       <c r="N1282" s="1" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="O1282" s="1" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="1283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1283" s="5" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B1283" s="1" t="s">
         <v>216</v>
@@ -65565,15 +65562,15 @@
         <v>1004</v>
       </c>
       <c r="N1283" s="1" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="O1283" s="1" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="1284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1284" s="5" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B1284" s="1" t="s">
         <v>1454</v>
@@ -65603,7 +65600,7 @@
         <v>20</v>
       </c>
       <c r="K1284" s="1" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="L1284" s="1" t="s">
         <v>48</v>
@@ -65612,15 +65609,15 @@
         <v>1004</v>
       </c>
       <c r="N1284" s="1" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="O1284" s="1" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1285" s="5" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B1285" s="1" t="s">
         <v>216</v>
@@ -65659,15 +65656,15 @@
         <v>1004</v>
       </c>
       <c r="N1285" s="1" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="O1285" s="1" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1286" s="5" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B1286" s="1" t="s">
         <v>1454</v>
@@ -65706,7 +65703,7 @@
         <v>1004</v>
       </c>
       <c r="N1286" s="1" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="O1286" s="1" t="s">
         <v>1229</v>
@@ -66211,7 +66208,7 @@
         <v>464</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -66258,7 +66255,7 @@
         <v>464</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -66305,7 +66302,7 @@
         <v>464</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -66352,7 +66349,7 @@
         <v>464</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -66399,7 +66396,7 @@
         <v>464</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -66446,7 +66443,7 @@
         <v>464</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -66493,7 +66490,7 @@
         <v>464</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -66540,7 +66537,7 @@
         <v>464</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -66587,7 +66584,7 @@
         <v>464</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -66634,7 +66631,7 @@
         <v>464</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -66681,7 +66678,7 @@
         <v>464</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -66728,7 +66725,7 @@
         <v>464</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -66775,7 +66772,7 @@
         <v>464</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -66822,7 +66819,7 @@
         <v>464</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -66860,7 +66857,7 @@
         <v>167</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>119</v>
@@ -66869,7 +66866,7 @@
         <v>464</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -66916,7 +66913,7 @@
         <v>464</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -66963,7 +66960,7 @@
         <v>464</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -67010,7 +67007,7 @@
         <v>464</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -67048,7 +67045,7 @@
         <v>172</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>119</v>
@@ -67057,7 +67054,7 @@
         <v>464</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -67104,7 +67101,7 @@
         <v>464</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -67151,7 +67148,7 @@
         <v>464</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -67198,7 +67195,7 @@
         <v>464</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -67245,7 +67242,7 @@
         <v>464</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -67283,7 +67280,7 @@
         <v>177</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>119</v>
@@ -67292,7 +67289,7 @@
         <v>464</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -67339,7 +67336,7 @@
         <v>464</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -67386,7 +67383,7 @@
         <v>464</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -67433,7 +67430,7 @@
         <v>464</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -67480,7 +67477,7 @@
         <v>464</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -67527,7 +67524,7 @@
         <v>464</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -67574,7 +67571,7 @@
         <v>464</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -67621,7 +67618,7 @@
         <v>464</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -67668,7 +67665,7 @@
         <v>464</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -67715,7 +67712,7 @@
         <v>464</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -67762,7 +67759,7 @@
         <v>464</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
@@ -67800,7 +67797,7 @@
         <v>190</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>119</v>
@@ -67809,7 +67806,7 @@
         <v>464</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
@@ -67847,7 +67844,7 @@
         <v>192</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>119</v>
@@ -67856,7 +67853,7 @@
         <v>464</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
@@ -67894,7 +67891,7 @@
         <v>194</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>119</v>
@@ -67903,7 +67900,7 @@
         <v>464</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
@@ -67950,7 +67947,7 @@
         <v>464</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
@@ -67988,7 +67985,7 @@
         <v>197</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>119</v>
@@ -67997,7 +67994,7 @@
         <v>464</v>
       </c>
       <c r="O40" s="9" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
@@ -68035,7 +68032,7 @@
         <v>198</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>119</v>
@@ -68044,7 +68041,7 @@
         <v>464</v>
       </c>
       <c r="O41" s="9" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
@@ -68082,7 +68079,7 @@
         <v>199</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>119</v>
@@ -68091,7 +68088,7 @@
         <v>464</v>
       </c>
       <c r="O42" s="9" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
@@ -68129,7 +68126,7 @@
         <v>200</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>119</v>
@@ -68138,7 +68135,7 @@
         <v>464</v>
       </c>
       <c r="O43" s="9" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
@@ -68176,7 +68173,7 @@
         <v>201</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>119</v>
@@ -68185,7 +68182,7 @@
         <v>464</v>
       </c>
       <c r="O44" s="9" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
@@ -68223,7 +68220,7 @@
         <v>202</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>119</v>
@@ -68232,7 +68229,7 @@
         <v>464</v>
       </c>
       <c r="O45" s="9" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
@@ -68270,7 +68267,7 @@
         <v>203</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>119</v>
@@ -68279,7 +68276,7 @@
         <v>464</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
@@ -68317,7 +68314,7 @@
         <v>204</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>119</v>
@@ -68326,7 +68323,7 @@
         <v>464</v>
       </c>
       <c r="O47" s="9" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
@@ -68364,7 +68361,7 @@
         <v>206</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>119</v>
@@ -68373,7 +68370,7 @@
         <v>464</v>
       </c>
       <c r="O48" s="9" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
@@ -68420,7 +68417,7 @@
         <v>464</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
@@ -68458,7 +68455,7 @@
         <v>209</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>119</v>
@@ -68467,7 +68464,7 @@
         <v>464</v>
       </c>
       <c r="O50" s="9" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
@@ -68514,7 +68511,7 @@
         <v>464</v>
       </c>
       <c r="O51" s="9" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
@@ -68552,7 +68549,7 @@
         <v>212</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>119</v>
@@ -68561,7 +68558,7 @@
         <v>464</v>
       </c>
       <c r="O52" s="9" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
@@ -68599,7 +68596,7 @@
         <v>213</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>119</v>
@@ -68608,7 +68605,7 @@
         <v>464</v>
       </c>
       <c r="O53" s="9" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
@@ -68646,7 +68643,7 @@
         <v>214</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>119</v>
@@ -68655,7 +68652,7 @@
         <v>464</v>
       </c>
       <c r="O54" s="9" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
@@ -68693,7 +68690,7 @@
         <v>215</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>119</v>
@@ -68702,7 +68699,7 @@
         <v>464</v>
       </c>
       <c r="O55" s="9" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">

--- a/02_in_data/All_LRR_PRR_ligand_data.xlsx
+++ b/02_in_data/All_LRR_PRR_ligand_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffd16e31ab085cd5/Krasevia_Lab/Project/01_peptide_ML_prediction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5075" documentId="8_{762EC3FE-3198-8040-A112-7E9B61E2665E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE43F591-6163-0647-805D-D87356677E98}"/>
+  <xr:revisionPtr revIDLastSave="5090" documentId="8_{762EC3FE-3198-8040-A112-7E9B61E2665E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AC3728F-2FE2-5240-8ABF-807A11EB7E8E}"/>
   <bookViews>
-    <workbookView xWindow="13040" yWindow="500" windowWidth="22080" windowHeight="19540" xr2:uid="{5C5BCD9C-73C9-CF41-954E-ACA1A5D65A44}"/>
+    <workbookView xWindow="13660" yWindow="500" windowWidth="19940" windowHeight="19540" xr2:uid="{5C5BCD9C-73C9-CF41-954E-ACA1A5D65A44}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_Building" sheetId="1" r:id="rId1"/>
@@ -7215,7 +7215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7279,18 +7279,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7611,8 +7599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCDCA10-C1DF-E744-9AE5-5ECCA937B4BD}">
   <dimension ref="A1:O1317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1291" zoomScale="138" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="N1101" sqref="N1101"/>
+    <sheetView tabSelected="1" topLeftCell="A540" zoomScale="50" zoomScaleNormal="201" workbookViewId="0">
+      <selection activeCell="E708" sqref="E708"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37002,7 +36990,7 @@
         <v>29</v>
       </c>
       <c r="E654" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F654" s="1" t="s">
         <v>108</v>
@@ -37046,7 +37034,7 @@
         <v>29</v>
       </c>
       <c r="E655" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F655" s="1" t="s">
         <v>108</v>
@@ -37090,7 +37078,7 @@
         <v>29</v>
       </c>
       <c r="E656" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F656" s="1" t="s">
         <v>108</v>
@@ -37662,7 +37650,7 @@
         <v>29</v>
       </c>
       <c r="E669" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F669" s="1" t="s">
         <v>108</v>
@@ -37706,7 +37694,7 @@
         <v>29</v>
       </c>
       <c r="E670" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F670" s="1" t="s">
         <v>108</v>
@@ -37750,7 +37738,7 @@
         <v>29</v>
       </c>
       <c r="E671" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F671" s="1" t="s">
         <v>108</v>
@@ -38586,7 +38574,7 @@
         <v>29</v>
       </c>
       <c r="E690" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F690" s="1" t="s">
         <v>108</v>
@@ -38630,7 +38618,7 @@
         <v>29</v>
       </c>
       <c r="E691" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F691" s="1" t="s">
         <v>108</v>
@@ -38674,7 +38662,7 @@
         <v>29</v>
       </c>
       <c r="E692" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F692" s="1" t="s">
         <v>108</v>
@@ -39158,7 +39146,7 @@
         <v>29</v>
       </c>
       <c r="E703" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F703" s="1" t="s">
         <v>108</v>
@@ -39202,7 +39190,7 @@
         <v>29</v>
       </c>
       <c r="E704" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F704" s="1" t="s">
         <v>108</v>
@@ -39246,7 +39234,7 @@
         <v>29</v>
       </c>
       <c r="E705" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F705" s="1" t="s">
         <v>108</v>
@@ -39290,7 +39278,7 @@
         <v>29</v>
       </c>
       <c r="E706" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F706" s="1" t="s">
         <v>108</v>
@@ -39334,7 +39322,7 @@
         <v>29</v>
       </c>
       <c r="E707" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F707" s="1" t="s">
         <v>108</v>
@@ -39378,7 +39366,7 @@
         <v>29</v>
       </c>
       <c r="E708" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F708" s="1" t="s">
         <v>108</v>
@@ -65559,238 +65547,238 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="1282" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1282" s="25" t="s">
+    <row r="1282" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1282" s="5" t="s">
         <v>1946</v>
       </c>
-      <c r="B1282" s="26" t="s">
+      <c r="B1282" s="1" t="s">
         <v>1413</v>
       </c>
-      <c r="C1282" s="26" t="s">
+      <c r="C1282" s="1" t="s">
         <v>1414</v>
       </c>
-      <c r="D1282" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1282" s="26">
+      <c r="D1282" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1282" s="1">
         <v>28</v>
       </c>
-      <c r="F1282" s="26" t="s">
+      <c r="F1282" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G1282" s="26" t="s">
+      <c r="G1282" s="1" t="s">
         <v>1416</v>
       </c>
-      <c r="H1282" s="27" t="s">
+      <c r="H1282" s="15" t="s">
         <v>1415</v>
       </c>
-      <c r="I1282" s="26" t="s">
+      <c r="I1282" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J1282" s="26">
-        <v>20</v>
-      </c>
-      <c r="K1282" s="26" t="s">
+      <c r="J1282" s="1">
+        <v>20</v>
+      </c>
+      <c r="K1282" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="L1282" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1282" s="26" t="s">
+      <c r="L1282" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1282" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="N1282" s="26" t="s">
+      <c r="N1282" s="1" t="s">
         <v>1950</v>
       </c>
-      <c r="O1282" s="26" t="s">
+      <c r="O1282" s="1" t="s">
         <v>1949</v>
       </c>
     </row>
-    <row r="1283" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1283" s="25" t="s">
+    <row r="1283" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1283" s="5" t="s">
         <v>1946</v>
       </c>
-      <c r="B1283" s="26" t="s">
+      <c r="B1283" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C1283" s="26" t="s">
+      <c r="C1283" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D1283" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1283" s="26">
+      <c r="D1283" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1283" s="1">
         <v>28</v>
       </c>
-      <c r="F1283" s="26" t="s">
+      <c r="F1283" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G1283" s="26" t="s">
+      <c r="G1283" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="H1283" s="25" t="s">
+      <c r="H1283" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="I1283" s="26" t="s">
+      <c r="I1283" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J1283" s="26">
-        <v>20</v>
-      </c>
-      <c r="K1283" s="26" t="s">
+      <c r="J1283" s="1">
+        <v>20</v>
+      </c>
+      <c r="K1283" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="L1283" s="26" t="s">
+      <c r="L1283" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M1283" s="26" t="s">
+      <c r="M1283" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="N1283" s="26" t="s">
+      <c r="N1283" s="1" t="s">
         <v>1950</v>
       </c>
-      <c r="O1283" s="26" t="s">
+      <c r="O1283" s="1" t="s">
         <v>1949</v>
       </c>
     </row>
-    <row r="1284" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1284" s="25" t="s">
+    <row r="1284" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1284" s="5" t="s">
         <v>1946</v>
       </c>
-      <c r="B1284" s="26" t="s">
+      <c r="B1284" s="1" t="s">
         <v>1413</v>
       </c>
-      <c r="C1284" s="26" t="s">
+      <c r="C1284" s="1" t="s">
         <v>1414</v>
       </c>
-      <c r="D1284" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1284" s="26">
+      <c r="D1284" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1284" s="1">
         <v>28</v>
       </c>
-      <c r="F1284" s="26" t="s">
+      <c r="F1284" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G1284" s="26" t="s">
+      <c r="G1284" s="1" t="s">
         <v>1416</v>
       </c>
-      <c r="H1284" s="27" t="s">
+      <c r="H1284" s="15" t="s">
         <v>1415</v>
       </c>
-      <c r="I1284" s="26" t="s">
+      <c r="I1284" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J1284" s="26">
-        <v>20</v>
-      </c>
-      <c r="K1284" s="26" t="s">
+      <c r="J1284" s="1">
+        <v>20</v>
+      </c>
+      <c r="K1284" s="1" t="s">
         <v>1947</v>
       </c>
-      <c r="L1284" s="26" t="s">
+      <c r="L1284" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M1284" s="26" t="s">
+      <c r="M1284" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="N1284" s="26" t="s">
+      <c r="N1284" s="1" t="s">
         <v>1950</v>
       </c>
-      <c r="O1284" s="26" t="s">
+      <c r="O1284" s="1" t="s">
         <v>1948</v>
       </c>
     </row>
-    <row r="1285" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1285" s="25" t="s">
+    <row r="1285" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1285" s="5" t="s">
         <v>1946</v>
       </c>
-      <c r="B1285" s="26" t="s">
+      <c r="B1285" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C1285" s="26" t="s">
+      <c r="C1285" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D1285" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1285" s="26">
+      <c r="D1285" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1285" s="1">
         <v>28</v>
       </c>
-      <c r="F1285" s="26" t="s">
+      <c r="F1285" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G1285" s="26" t="s">
+      <c r="G1285" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="H1285" s="25" t="s">
+      <c r="H1285" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="I1285" s="26" t="s">
+      <c r="I1285" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J1285" s="26">
-        <v>20</v>
-      </c>
-      <c r="K1285" s="26" t="s">
+      <c r="J1285" s="1">
+        <v>20</v>
+      </c>
+      <c r="K1285" s="1" t="s">
         <v>1947</v>
       </c>
-      <c r="L1285" s="26" t="s">
+      <c r="L1285" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M1285" s="26" t="s">
+      <c r="M1285" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="N1285" s="26" t="s">
+      <c r="N1285" s="1" t="s">
         <v>1950</v>
       </c>
-      <c r="O1285" s="26" t="s">
+      <c r="O1285" s="1" t="s">
         <v>1948</v>
       </c>
     </row>
-    <row r="1286" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1286" s="25" t="s">
+    <row r="1286" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1286" s="5" t="s">
         <v>1946</v>
       </c>
-      <c r="B1286" s="26" t="s">
+      <c r="B1286" s="1" t="s">
         <v>1413</v>
       </c>
-      <c r="C1286" s="26" t="s">
+      <c r="C1286" s="1" t="s">
         <v>1414</v>
       </c>
-      <c r="D1286" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1286" s="26">
+      <c r="D1286" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1286" s="1">
         <v>28</v>
       </c>
-      <c r="F1286" s="26" t="s">
+      <c r="F1286" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G1286" s="26" t="s">
+      <c r="G1286" s="1" t="s">
         <v>1416</v>
       </c>
-      <c r="H1286" s="27" t="s">
+      <c r="H1286" s="15" t="s">
         <v>1415</v>
       </c>
-      <c r="I1286" s="26" t="s">
+      <c r="I1286" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J1286" s="26">
+      <c r="J1286" s="1">
         <v>8</v>
       </c>
-      <c r="K1286" s="26" t="s">
+      <c r="K1286" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="L1286" s="26" t="s">
+      <c r="L1286" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M1286" s="26" t="s">
+      <c r="M1286" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="N1286" s="26" t="s">
+      <c r="N1286" s="1" t="s">
         <v>1950</v>
       </c>
-      <c r="O1286" s="26" t="s">
+      <c r="O1286" s="1" t="s">
         <v>1193</v>
       </c>
     </row>
@@ -66785,7 +66773,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="27" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G27" s="29" t="s">
+      <c r="G27" s="25" t="s">
         <v>1954</v>
       </c>
     </row>

--- a/02_in_data/All_LRR_PRR_ligand_data.xlsx
+++ b/02_in_data/All_LRR_PRR_ligand_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffd16e31ab085cd5/Krasevia_Lab/Project/01_peptide_ML_prediction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5860" documentId="8_{762EC3FE-3198-8040-A112-7E9B61E2665E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{771493F1-E9D4-2E4E-BECF-2C9E393CFFF4}"/>
+  <xr:revisionPtr revIDLastSave="6024" documentId="8_{762EC3FE-3198-8040-A112-7E9B61E2665E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F268835-855C-E14F-8D14-FD3DD978101C}"/>
   <bookViews>
-    <workbookView xWindow="59220" yWindow="13580" windowWidth="46180" windowHeight="26120" xr2:uid="{5C5BCD9C-73C9-CF41-954E-ACA1A5D65A44}"/>
+    <workbookView xWindow="41480" yWindow="25920" windowWidth="33600" windowHeight="14980" activeTab="2" xr2:uid="{5C5BCD9C-73C9-CF41-954E-ACA1A5D65A44}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_Building" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18072" uniqueCount="2195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19036" uniqueCount="2211">
   <si>
     <t>Plant species</t>
   </si>
@@ -7710,6 +7710,54 @@
   </si>
   <si>
     <t>flg22_Xc</t>
+  </si>
+  <si>
+    <t>Solanum habrochates</t>
+  </si>
+  <si>
+    <t>LA1353</t>
+  </si>
+  <si>
+    <t>scaffold11</t>
+  </si>
+  <si>
+    <t>MILPKNSHFYTMKKKYTVVLSLLTFFSLILPYVLCSSKIQVKGNETDKMSLLAFKNMIIDDPFKIMYSWNETIHFCDWPGVSCGNGHRRVTVLNLTSLKLRGSLSPSIGNLSFLNVLKLQNNSFSGEIPSEIGYLHKLNVLRLDNNSFTGHIPSNISGCFNLVSVGLSYNMMVGEIPAELGTLLKLKQLSLVSNYLTGGIPLSFGNLSLLDTFSASKNNLLGKIPDELCQLLNLKYFVVNENNLSSTLPPCLFNLSSIVAIDVGTNHLEGQLPPLLGITLPKLEFLSIYRNNVTGNIPGTLSNATNLQSLVAGRNGLTGKVPLLGNLLKMRRFLVAFNDLGKEEEDDLSFLSTLVNATNLELVELNTNNFGGVLPASVSNLSTELIELSLSYNQVSGEIPRGISNLKKLQAFFVAYNRLHGEIPSEIGDLIYLQELALLGNQFSGQIPISLGNLASLTKLNLRENNLQGRIPSSLGKCDKLELLDLGSNNLSGFIPSEILELSSLSEGVDLSQNHLTGFLPMGIGKLRNLGYLNLSDNKLQGQVPATIGTCVKLEALDLNNNNFQGSIPSTMNNLRGLEFLVLSHNNLSGGIPGFLKDFKFLQILNLSSNNLEGAVPTGGIFSNATAVSIIGNKNLCGGVPELDLPVCIVGVKKERKSGFPLKIVIPVVSGLIGMTLIVFFLGVRQFSKLRKTTPTDIPENSTLRISYQCLLRGTDRFSASNLLGMGAFGSVYKGISEHDGTVFAVKVLDLSHHAASRSFLAECEVLKNIRHRNLVKVLSACSGIDYEGNEFKAIVYEYMDKGNLQDWLHFTPQENSEPQEEHKKLGFIQRLNIATDVACALDYLHNDCQPPIIHRDLKPSNILLDENMTAHVGDFGLARFVPPEIPNSSENSKSLTGVGGTIGYTPPELGMGSDTSIYGDVYSFGILLLEMFTGRKPTDEMFKDNLNLHNYANAALPDRVMHITDPILLQERDELEMKYKLDDNTSSAGDIFLSFLINVIQIGVSCSAESPKERKRISDAVGELNSLRKLFLEQAYWKEKV</t>
+  </si>
+  <si>
+    <t>M-CP-23</t>
+  </si>
+  <si>
+    <t>M-CP-33</t>
+  </si>
+  <si>
+    <t>M-CP-44</t>
+  </si>
+  <si>
+    <t>M-CP-46</t>
+  </si>
+  <si>
+    <t>M-CP-48</t>
+  </si>
+  <si>
+    <t>M-CP-58</t>
+  </si>
+  <si>
+    <t>M-CP-60</t>
+  </si>
+  <si>
+    <t>M-CP-63</t>
+  </si>
+  <si>
+    <t>Cm csp22-1</t>
+  </si>
+  <si>
+    <t>Cm csp22-2</t>
+  </si>
+  <si>
+    <t>Cm csp22-3</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -7866,7 +7914,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7930,25 +7978,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8267,8 +8300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCDCA10-C1DF-E744-9AE5-5ECCA937B4BD}">
   <dimension ref="A1:O1356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A553" zoomScale="75" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="A599" sqref="A599"/>
+    <sheetView topLeftCell="A1320" zoomScale="75" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="F1356" sqref="F1356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34648,50 +34681,50 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="587" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A587" s="30" t="s">
+    <row r="587" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A587" s="6" t="s">
         <v>1642</v>
       </c>
-      <c r="B587" s="25" t="s">
+      <c r="B587" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C587" s="25" t="s">
+      <c r="C587" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D587" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E587" s="25">
+      <c r="D587" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E587" s="1">
         <v>28</v>
       </c>
-      <c r="F587" s="25" t="s">
+      <c r="F587" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G587" s="25" t="s">
+      <c r="G587" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="H587" s="26" t="s">
+      <c r="H587" s="5" t="s">
         <v>1628</v>
       </c>
-      <c r="I587" s="25" t="s">
+      <c r="I587" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="J587" s="25">
-        <v>22</v>
-      </c>
-      <c r="K587" s="25" t="s">
+      <c r="J587" s="1">
+        <v>22</v>
+      </c>
+      <c r="K587" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="L587" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="M587" s="31" t="s">
+      <c r="L587" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M587" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="N587" s="25" t="s">
+      <c r="N587" s="1" t="s">
         <v>1976</v>
       </c>
-      <c r="O587" s="25" t="s">
+      <c r="O587" s="1" t="s">
         <v>1643</v>
       </c>
     </row>
@@ -34914,7 +34947,7 @@
       <c r="J592" s="1">
         <v>28</v>
       </c>
-      <c r="K592" s="25" t="s">
+      <c r="K592" s="1" t="s">
         <v>1649</v>
       </c>
       <c r="L592" s="9" t="s">
@@ -41230,7 +41263,7 @@
       <c r="E733" s="1">
         <v>24</v>
       </c>
-      <c r="F733" s="25" t="s">
+      <c r="F733" s="1" t="s">
         <v>454</v>
       </c>
       <c r="G733" s="1" t="s">
@@ -41584,2823 +41617,2823 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="741" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A741" s="26" t="s">
+    <row r="741" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A741" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B741" s="25" t="s">
+      <c r="B741" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C741" s="25" t="s">
+      <c r="C741" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D741" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E741" s="25">
+      <c r="D741" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E741" s="1">
         <v>24</v>
       </c>
-      <c r="F741" s="25" t="s">
+      <c r="F741" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G741" s="25" t="s">
+      <c r="G741" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H741" s="26" t="s">
+      <c r="H741" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I741" s="25" t="s">
+      <c r="I741" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J741" s="25">
+      <c r="J741" s="1">
         <v>13</v>
       </c>
-      <c r="K741" s="25" t="s">
+      <c r="K741" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="L741" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="M741" s="25" t="s">
+      <c r="L741" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M741" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N741" s="27" t="s">
+      <c r="N741" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O741" s="25" t="s">
+      <c r="O741" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="742" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A742" s="26" t="s">
+    <row r="742" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A742" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B742" s="25" t="s">
+      <c r="B742" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C742" s="25" t="s">
+      <c r="C742" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D742" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E742" s="25">
+      <c r="D742" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E742" s="1">
         <v>24</v>
       </c>
-      <c r="F742" s="25" t="s">
+      <c r="F742" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G742" s="25" t="s">
+      <c r="G742" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H742" s="26" t="s">
+      <c r="H742" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I742" s="25" t="s">
+      <c r="I742" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J742" s="25">
+      <c r="J742" s="1">
         <v>13</v>
       </c>
-      <c r="K742" s="27" t="s">
+      <c r="K742" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="L742" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="M742" s="25" t="s">
+      <c r="L742" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M742" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N742" s="27" t="s">
+      <c r="N742" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O742" s="25" t="s">
+      <c r="O742" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="743" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A743" s="26" t="s">
+    <row r="743" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A743" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B743" s="25" t="s">
+      <c r="B743" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C743" s="25" t="s">
+      <c r="C743" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D743" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E743" s="25">
+      <c r="D743" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E743" s="1">
         <v>24</v>
       </c>
-      <c r="F743" s="25" t="s">
+      <c r="F743" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G743" s="25" t="s">
+      <c r="G743" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H743" s="26" t="s">
+      <c r="H743" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I743" s="25" t="s">
+      <c r="I743" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J743" s="25">
+      <c r="J743" s="1">
         <v>13</v>
       </c>
-      <c r="K743" s="27" t="s">
+      <c r="K743" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="L743" s="27" t="s">
+      <c r="L743" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="M743" s="25" t="s">
+      <c r="M743" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N743" s="27" t="s">
+      <c r="N743" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O743" s="25" t="s">
+      <c r="O743" s="1" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="744" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A744" s="26" t="s">
+    <row r="744" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A744" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B744" s="25" t="s">
+      <c r="B744" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C744" s="25" t="s">
+      <c r="C744" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D744" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E744" s="25">
+      <c r="D744" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E744" s="1">
         <v>24</v>
       </c>
-      <c r="F744" s="25" t="s">
+      <c r="F744" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G744" s="25" t="s">
+      <c r="G744" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H744" s="26" t="s">
+      <c r="H744" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I744" s="25" t="s">
+      <c r="I744" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J744" s="25">
+      <c r="J744" s="1">
         <v>13</v>
       </c>
-      <c r="K744" s="27" t="s">
+      <c r="K744" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="L744" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="M744" s="25" t="s">
+      <c r="L744" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M744" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N744" s="27" t="s">
+      <c r="N744" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O744" s="25" t="s">
+      <c r="O744" s="1" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="745" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A745" s="26" t="s">
+    <row r="745" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A745" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B745" s="25" t="s">
+      <c r="B745" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C745" s="25" t="s">
+      <c r="C745" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D745" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E745" s="25">
+      <c r="D745" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E745" s="1">
         <v>24</v>
       </c>
-      <c r="F745" s="25" t="s">
+      <c r="F745" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G745" s="25" t="s">
+      <c r="G745" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H745" s="26" t="s">
+      <c r="H745" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I745" s="25" t="s">
+      <c r="I745" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J745" s="25">
+      <c r="J745" s="1">
         <v>13</v>
       </c>
-      <c r="K745" s="25" t="s">
+      <c r="K745" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="L745" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M745" s="25" t="s">
+      <c r="L745" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M745" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N745" s="27" t="s">
+      <c r="N745" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O745" s="25" t="s">
+      <c r="O745" s="1" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="746" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A746" s="26" t="s">
+    <row r="746" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A746" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B746" s="25" t="s">
+      <c r="B746" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C746" s="25" t="s">
+      <c r="C746" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D746" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E746" s="25">
+      <c r="D746" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E746" s="1">
         <v>24</v>
       </c>
-      <c r="F746" s="25" t="s">
+      <c r="F746" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G746" s="25" t="s">
+      <c r="G746" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H746" s="26" t="s">
+      <c r="H746" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I746" s="25" t="s">
+      <c r="I746" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J746" s="25">
+      <c r="J746" s="1">
         <v>13</v>
       </c>
-      <c r="K746" s="29" t="s">
+      <c r="K746" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="L746" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M746" s="25" t="s">
+      <c r="L746" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M746" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N746" s="27" t="s">
+      <c r="N746" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O746" s="25" t="s">
+      <c r="O746" s="1" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="747" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A747" s="26" t="s">
+    <row r="747" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A747" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B747" s="25" t="s">
+      <c r="B747" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C747" s="25" t="s">
+      <c r="C747" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D747" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E747" s="25">
+      <c r="D747" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E747" s="1">
         <v>24</v>
       </c>
-      <c r="F747" s="25" t="s">
+      <c r="F747" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G747" s="25" t="s">
+      <c r="G747" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H747" s="26" t="s">
+      <c r="H747" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I747" s="25" t="s">
+      <c r="I747" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J747" s="25">
+      <c r="J747" s="1">
         <v>13</v>
       </c>
-      <c r="K747" s="29" t="s">
+      <c r="K747" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="L747" s="25" t="s">
+      <c r="L747" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M747" s="25" t="s">
+      <c r="M747" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N747" s="27" t="s">
+      <c r="N747" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O747" s="25" t="s">
+      <c r="O747" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="748" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A748" s="26" t="s">
+    <row r="748" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A748" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B748" s="25" t="s">
+      <c r="B748" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C748" s="25" t="s">
+      <c r="C748" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D748" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E748" s="25">
+      <c r="D748" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E748" s="1">
         <v>24</v>
       </c>
-      <c r="F748" s="25" t="s">
+      <c r="F748" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G748" s="25" t="s">
+      <c r="G748" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H748" s="26" t="s">
+      <c r="H748" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I748" s="25" t="s">
+      <c r="I748" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J748" s="25">
+      <c r="J748" s="1">
         <v>13</v>
       </c>
-      <c r="K748" s="25" t="s">
+      <c r="K748" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="L748" s="25" t="s">
+      <c r="L748" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M748" s="25" t="s">
+      <c r="M748" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N748" s="27" t="s">
+      <c r="N748" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O748" s="25" t="s">
+      <c r="O748" s="1" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="749" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A749" s="26" t="s">
+    <row r="749" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A749" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B749" s="25" t="s">
+      <c r="B749" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C749" s="25" t="s">
+      <c r="C749" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D749" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E749" s="25">
+      <c r="D749" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E749" s="1">
         <v>24</v>
       </c>
-      <c r="F749" s="25" t="s">
+      <c r="F749" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G749" s="25" t="s">
+      <c r="G749" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H749" s="26" t="s">
+      <c r="H749" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I749" s="25" t="s">
+      <c r="I749" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J749" s="25">
+      <c r="J749" s="1">
         <v>13</v>
       </c>
-      <c r="K749" s="25" t="s">
+      <c r="K749" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="L749" s="25" t="s">
+      <c r="L749" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M749" s="25" t="s">
+      <c r="M749" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N749" s="27" t="s">
+      <c r="N749" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O749" s="25" t="s">
+      <c r="O749" s="1" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="750" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A750" s="26" t="s">
+    <row r="750" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A750" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B750" s="25" t="s">
+      <c r="B750" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C750" s="25" t="s">
+      <c r="C750" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D750" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E750" s="25">
+      <c r="D750" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E750" s="1">
         <v>24</v>
       </c>
-      <c r="F750" s="25" t="s">
+      <c r="F750" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G750" s="25" t="s">
+      <c r="G750" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H750" s="26" t="s">
+      <c r="H750" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I750" s="25" t="s">
+      <c r="I750" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J750" s="25">
+      <c r="J750" s="1">
         <v>13</v>
       </c>
-      <c r="K750" s="25" t="s">
+      <c r="K750" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="L750" s="25" t="s">
+      <c r="L750" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M750" s="25" t="s">
+      <c r="M750" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N750" s="27" t="s">
+      <c r="N750" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O750" s="25" t="s">
+      <c r="O750" s="1" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="751" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A751" s="26" t="s">
+    <row r="751" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A751" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B751" s="25" t="s">
+      <c r="B751" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C751" s="25" t="s">
+      <c r="C751" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D751" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E751" s="25">
+      <c r="D751" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E751" s="1">
         <v>24</v>
       </c>
-      <c r="F751" s="25" t="s">
+      <c r="F751" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G751" s="25" t="s">
+      <c r="G751" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H751" s="26" t="s">
+      <c r="H751" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I751" s="25" t="s">
+      <c r="I751" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J751" s="25">
+      <c r="J751" s="1">
         <v>13</v>
       </c>
-      <c r="K751" s="29" t="s">
+      <c r="K751" s="13" t="s">
         <v>459</v>
       </c>
-      <c r="L751" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M751" s="25" t="s">
+      <c r="L751" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M751" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N751" s="27" t="s">
+      <c r="N751" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O751" s="25" t="s">
+      <c r="O751" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="752" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A752" s="26" t="s">
+    <row r="752" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A752" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B752" s="25" t="s">
+      <c r="B752" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C752" s="25" t="s">
+      <c r="C752" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D752" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E752" s="25">
+      <c r="D752" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E752" s="1">
         <v>24</v>
       </c>
-      <c r="F752" s="25" t="s">
+      <c r="F752" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G752" s="25" t="s">
+      <c r="G752" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H752" s="26" t="s">
+      <c r="H752" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I752" s="25" t="s">
+      <c r="I752" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J752" s="25">
+      <c r="J752" s="1">
         <v>13</v>
       </c>
-      <c r="K752" s="25" t="s">
+      <c r="K752" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="L752" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M752" s="25" t="s">
+      <c r="L752" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M752" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N752" s="27" t="s">
+      <c r="N752" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O752" s="25" t="s">
+      <c r="O752" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="753" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A753" s="26" t="s">
+    <row r="753" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A753" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B753" s="25" t="s">
+      <c r="B753" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C753" s="25" t="s">
+      <c r="C753" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D753" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E753" s="25">
+      <c r="D753" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E753" s="1">
         <v>24</v>
       </c>
-      <c r="F753" s="25" t="s">
+      <c r="F753" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G753" s="25" t="s">
+      <c r="G753" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H753" s="26" t="s">
+      <c r="H753" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I753" s="25" t="s">
+      <c r="I753" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J753" s="25">
+      <c r="J753" s="1">
         <v>13</v>
       </c>
-      <c r="K753" s="25" t="s">
+      <c r="K753" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="L753" s="25" t="s">
+      <c r="L753" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M753" s="25" t="s">
+      <c r="M753" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N753" s="27" t="s">
+      <c r="N753" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O753" s="25" t="s">
+      <c r="O753" s="1" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="754" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A754" s="26" t="s">
+    <row r="754" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A754" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B754" s="25" t="s">
+      <c r="B754" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C754" s="25" t="s">
+      <c r="C754" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D754" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E754" s="25">
+      <c r="D754" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E754" s="1">
         <v>24</v>
       </c>
-      <c r="F754" s="25" t="s">
+      <c r="F754" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G754" s="25" t="s">
+      <c r="G754" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H754" s="26" t="s">
+      <c r="H754" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I754" s="25" t="s">
+      <c r="I754" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J754" s="25">
+      <c r="J754" s="1">
         <v>13</v>
       </c>
-      <c r="K754" s="25" t="s">
+      <c r="K754" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="L754" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M754" s="25" t="s">
+      <c r="L754" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M754" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N754" s="27" t="s">
+      <c r="N754" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O754" s="25" t="s">
+      <c r="O754" s="1" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="755" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A755" s="26" t="s">
+    <row r="755" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A755" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B755" s="25" t="s">
+      <c r="B755" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C755" s="25" t="s">
+      <c r="C755" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D755" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E755" s="25">
+      <c r="D755" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E755" s="1">
         <v>24</v>
       </c>
-      <c r="F755" s="25" t="s">
+      <c r="F755" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G755" s="25" t="s">
+      <c r="G755" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H755" s="26" t="s">
+      <c r="H755" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I755" s="25" t="s">
+      <c r="I755" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J755" s="25">
+      <c r="J755" s="1">
         <v>13</v>
       </c>
-      <c r="K755" s="29" t="s">
+      <c r="K755" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="L755" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M755" s="25" t="s">
+      <c r="L755" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M755" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N755" s="27" t="s">
+      <c r="N755" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O755" s="25" t="s">
+      <c r="O755" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="756" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A756" s="26" t="s">
+    <row r="756" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A756" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B756" s="25" t="s">
+      <c r="B756" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C756" s="25" t="s">
+      <c r="C756" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D756" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E756" s="25">
+      <c r="D756" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E756" s="1">
         <v>24</v>
       </c>
-      <c r="F756" s="25" t="s">
+      <c r="F756" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G756" s="25" t="s">
+      <c r="G756" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H756" s="26" t="s">
+      <c r="H756" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I756" s="25" t="s">
+      <c r="I756" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J756" s="25">
+      <c r="J756" s="1">
         <v>13</v>
       </c>
-      <c r="K756" s="29" t="s">
+      <c r="K756" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="L756" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M756" s="25" t="s">
+      <c r="L756" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M756" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N756" s="27" t="s">
+      <c r="N756" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O756" s="25" t="s">
+      <c r="O756" s="1" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="757" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A757" s="26" t="s">
+    <row r="757" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A757" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B757" s="25" t="s">
+      <c r="B757" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C757" s="25" t="s">
+      <c r="C757" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D757" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E757" s="25">
+      <c r="D757" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E757" s="1">
         <v>24</v>
       </c>
-      <c r="F757" s="25" t="s">
+      <c r="F757" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G757" s="25" t="s">
+      <c r="G757" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H757" s="26" t="s">
+      <c r="H757" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I757" s="25" t="s">
+      <c r="I757" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J757" s="25">
+      <c r="J757" s="1">
         <v>13</v>
       </c>
-      <c r="K757" s="25" t="s">
+      <c r="K757" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="L757" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M757" s="25" t="s">
+      <c r="L757" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M757" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N757" s="27" t="s">
+      <c r="N757" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O757" s="25" t="s">
+      <c r="O757" s="1" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="758" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A758" s="26" t="s">
+    <row r="758" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A758" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B758" s="25" t="s">
+      <c r="B758" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C758" s="25" t="s">
+      <c r="C758" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D758" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E758" s="25">
+      <c r="D758" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E758" s="1">
         <v>24</v>
       </c>
-      <c r="F758" s="25" t="s">
+      <c r="F758" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G758" s="25" t="s">
+      <c r="G758" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H758" s="26" t="s">
+      <c r="H758" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I758" s="25" t="s">
+      <c r="I758" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J758" s="25">
+      <c r="J758" s="1">
         <v>13</v>
       </c>
-      <c r="K758" s="25" t="s">
+      <c r="K758" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="L758" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M758" s="25" t="s">
+      <c r="L758" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M758" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N758" s="27" t="s">
+      <c r="N758" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O758" s="25" t="s">
+      <c r="O758" s="1" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="759" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A759" s="26" t="s">
+    <row r="759" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A759" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B759" s="25" t="s">
+      <c r="B759" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C759" s="25" t="s">
+      <c r="C759" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D759" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E759" s="25">
+      <c r="D759" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E759" s="1">
         <v>24</v>
       </c>
-      <c r="F759" s="25" t="s">
+      <c r="F759" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G759" s="25" t="s">
+      <c r="G759" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H759" s="26" t="s">
+      <c r="H759" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I759" s="25" t="s">
+      <c r="I759" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J759" s="25">
+      <c r="J759" s="1">
         <v>13</v>
       </c>
-      <c r="K759" s="25" t="s">
+      <c r="K759" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="L759" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M759" s="25" t="s">
+      <c r="L759" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M759" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N759" s="27" t="s">
+      <c r="N759" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O759" s="25" t="s">
+      <c r="O759" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="760" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A760" s="26" t="s">
+    <row r="760" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A760" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B760" s="25" t="s">
+      <c r="B760" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C760" s="25" t="s">
+      <c r="C760" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D760" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E760" s="25">
+      <c r="D760" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E760" s="1">
         <v>24</v>
       </c>
-      <c r="F760" s="25" t="s">
+      <c r="F760" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G760" s="25" t="s">
+      <c r="G760" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H760" s="26" t="s">
+      <c r="H760" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I760" s="25" t="s">
+      <c r="I760" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J760" s="25">
+      <c r="J760" s="1">
         <v>13</v>
       </c>
-      <c r="K760" s="29" t="s">
+      <c r="K760" s="13" t="s">
         <v>601</v>
       </c>
-      <c r="L760" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M760" s="25" t="s">
+      <c r="L760" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M760" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N760" s="27" t="s">
+      <c r="N760" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O760" s="25" t="s">
+      <c r="O760" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="761" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A761" s="26" t="s">
+    <row r="761" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A761" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B761" s="25" t="s">
+      <c r="B761" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C761" s="25" t="s">
+      <c r="C761" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D761" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E761" s="25">
+      <c r="D761" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E761" s="1">
         <v>24</v>
       </c>
-      <c r="F761" s="25" t="s">
+      <c r="F761" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G761" s="25" t="s">
+      <c r="G761" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H761" s="26" t="s">
+      <c r="H761" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I761" s="25" t="s">
+      <c r="I761" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J761" s="25">
+      <c r="J761" s="1">
         <v>13</v>
       </c>
-      <c r="K761" s="25" t="s">
+      <c r="K761" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="L761" s="25" t="s">
+      <c r="L761" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M761" s="25" t="s">
+      <c r="M761" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N761" s="27" t="s">
+      <c r="N761" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O761" s="25" t="s">
+      <c r="O761" s="1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="762" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A762" s="26" t="s">
+    <row r="762" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A762" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B762" s="25" t="s">
+      <c r="B762" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C762" s="25" t="s">
+      <c r="C762" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D762" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E762" s="25">
+      <c r="D762" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E762" s="1">
         <v>24</v>
       </c>
-      <c r="F762" s="25" t="s">
+      <c r="F762" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G762" s="25" t="s">
+      <c r="G762" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H762" s="26" t="s">
+      <c r="H762" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I762" s="25" t="s">
+      <c r="I762" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J762" s="25">
+      <c r="J762" s="1">
         <v>13</v>
       </c>
-      <c r="K762" s="29" t="s">
+      <c r="K762" s="13" t="s">
         <v>610</v>
       </c>
-      <c r="L762" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M762" s="25" t="s">
+      <c r="L762" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M762" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N762" s="27" t="s">
+      <c r="N762" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O762" s="25" t="s">
+      <c r="O762" s="1" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="763" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A763" s="26" t="s">
+    <row r="763" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A763" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B763" s="25" t="s">
+      <c r="B763" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C763" s="25" t="s">
+      <c r="C763" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D763" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E763" s="25">
+      <c r="D763" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E763" s="1">
         <v>24</v>
       </c>
-      <c r="F763" s="25" t="s">
+      <c r="F763" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G763" s="25" t="s">
+      <c r="G763" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H763" s="26" t="s">
+      <c r="H763" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I763" s="25" t="s">
+      <c r="I763" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J763" s="25">
+      <c r="J763" s="1">
         <v>13</v>
       </c>
-      <c r="K763" s="25" t="s">
+      <c r="K763" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="L763" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M763" s="25" t="s">
+      <c r="L763" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M763" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N763" s="27" t="s">
+      <c r="N763" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O763" s="25" t="s">
+      <c r="O763" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="764" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A764" s="26" t="s">
+    <row r="764" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A764" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B764" s="25" t="s">
+      <c r="B764" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C764" s="25" t="s">
+      <c r="C764" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D764" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E764" s="25">
+      <c r="D764" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E764" s="1">
         <v>24</v>
       </c>
-      <c r="F764" s="25" t="s">
+      <c r="F764" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G764" s="25" t="s">
+      <c r="G764" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H764" s="26" t="s">
+      <c r="H764" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I764" s="25" t="s">
+      <c r="I764" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J764" s="25">
+      <c r="J764" s="1">
         <v>13</v>
       </c>
-      <c r="K764" s="25" t="s">
+      <c r="K764" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="L764" s="25" t="s">
+      <c r="L764" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M764" s="25" t="s">
+      <c r="M764" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N764" s="27" t="s">
+      <c r="N764" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O764" s="25" t="s">
+      <c r="O764" s="1" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="765" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A765" s="26" t="s">
+    <row r="765" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A765" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B765" s="25" t="s">
+      <c r="B765" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C765" s="25" t="s">
+      <c r="C765" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D765" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E765" s="25">
+      <c r="D765" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E765" s="1">
         <v>24</v>
       </c>
-      <c r="F765" s="25" t="s">
+      <c r="F765" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G765" s="25" t="s">
+      <c r="G765" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H765" s="26" t="s">
+      <c r="H765" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I765" s="25" t="s">
+      <c r="I765" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J765" s="25">
+      <c r="J765" s="1">
         <v>13</v>
       </c>
-      <c r="K765" s="25" t="s">
+      <c r="K765" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="L765" s="25" t="s">
+      <c r="L765" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M765" s="25" t="s">
+      <c r="M765" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N765" s="27" t="s">
+      <c r="N765" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O765" s="25" t="s">
+      <c r="O765" s="1" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="766" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A766" s="26" t="s">
+    <row r="766" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A766" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B766" s="25" t="s">
+      <c r="B766" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C766" s="25" t="s">
+      <c r="C766" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D766" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E766" s="25">
+      <c r="D766" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E766" s="1">
         <v>24</v>
       </c>
-      <c r="F766" s="25" t="s">
+      <c r="F766" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G766" s="25" t="s">
+      <c r="G766" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H766" s="26" t="s">
+      <c r="H766" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I766" s="25" t="s">
+      <c r="I766" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J766" s="25">
+      <c r="J766" s="1">
         <v>13</v>
       </c>
-      <c r="K766" s="29" t="s">
+      <c r="K766" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="L766" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M766" s="25" t="s">
+      <c r="L766" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M766" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N766" s="27" t="s">
+      <c r="N766" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O766" s="25" t="s">
+      <c r="O766" s="1" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="767" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A767" s="26" t="s">
+    <row r="767" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A767" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B767" s="25" t="s">
+      <c r="B767" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C767" s="25" t="s">
+      <c r="C767" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D767" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E767" s="25">
+      <c r="D767" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E767" s="1">
         <v>24</v>
       </c>
-      <c r="F767" s="25" t="s">
+      <c r="F767" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G767" s="25" t="s">
+      <c r="G767" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H767" s="26" t="s">
+      <c r="H767" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I767" s="25" t="s">
+      <c r="I767" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J767" s="25">
+      <c r="J767" s="1">
         <v>13</v>
       </c>
-      <c r="K767" s="25" t="s">
+      <c r="K767" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="L767" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M767" s="25" t="s">
+      <c r="L767" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M767" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N767" s="27" t="s">
+      <c r="N767" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O767" s="25" t="s">
+      <c r="O767" s="1" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="768" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A768" s="26" t="s">
+    <row r="768" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A768" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B768" s="25" t="s">
+      <c r="B768" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C768" s="25" t="s">
+      <c r="C768" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D768" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E768" s="25">
+      <c r="D768" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E768" s="1">
         <v>24</v>
       </c>
-      <c r="F768" s="25" t="s">
+      <c r="F768" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G768" s="25" t="s">
+      <c r="G768" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H768" s="26" t="s">
+      <c r="H768" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I768" s="25" t="s">
+      <c r="I768" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J768" s="25">
+      <c r="J768" s="1">
         <v>13</v>
       </c>
-      <c r="K768" s="29" t="s">
+      <c r="K768" s="13" t="s">
         <v>615</v>
       </c>
-      <c r="L768" s="25" t="s">
+      <c r="L768" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M768" s="25" t="s">
+      <c r="M768" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N768" s="27" t="s">
+      <c r="N768" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O768" s="25" t="s">
+      <c r="O768" s="1" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="769" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A769" s="26" t="s">
+    <row r="769" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A769" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B769" s="25" t="s">
+      <c r="B769" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C769" s="25" t="s">
+      <c r="C769" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D769" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E769" s="25">
+      <c r="D769" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E769" s="1">
         <v>24</v>
       </c>
-      <c r="F769" s="25" t="s">
+      <c r="F769" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G769" s="25" t="s">
+      <c r="G769" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H769" s="26" t="s">
+      <c r="H769" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I769" s="25" t="s">
+      <c r="I769" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J769" s="25">
+      <c r="J769" s="1">
         <v>13</v>
       </c>
-      <c r="K769" s="29" t="s">
+      <c r="K769" s="13" t="s">
         <v>622</v>
       </c>
-      <c r="L769" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M769" s="25" t="s">
+      <c r="L769" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M769" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N769" s="27" t="s">
+      <c r="N769" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O769" s="25" t="s">
+      <c r="O769" s="1" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="770" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A770" s="26" t="s">
+    <row r="770" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A770" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B770" s="25" t="s">
+      <c r="B770" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C770" s="25" t="s">
+      <c r="C770" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D770" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E770" s="25">
+      <c r="D770" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E770" s="1">
         <v>24</v>
       </c>
-      <c r="F770" s="25" t="s">
+      <c r="F770" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G770" s="25" t="s">
+      <c r="G770" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H770" s="26" t="s">
+      <c r="H770" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I770" s="25" t="s">
+      <c r="I770" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J770" s="25">
+      <c r="J770" s="1">
         <v>13</v>
       </c>
-      <c r="K770" s="25" t="s">
+      <c r="K770" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="L770" s="25" t="s">
+      <c r="L770" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M770" s="25" t="s">
+      <c r="M770" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N770" s="27" t="s">
+      <c r="N770" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O770" s="25" t="s">
+      <c r="O770" s="1" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="771" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A771" s="26" t="s">
+    <row r="771" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A771" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B771" s="25" t="s">
+      <c r="B771" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C771" s="25" t="s">
+      <c r="C771" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D771" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E771" s="25">
+      <c r="D771" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E771" s="1">
         <v>24</v>
       </c>
-      <c r="F771" s="25" t="s">
+      <c r="F771" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G771" s="25" t="s">
+      <c r="G771" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H771" s="26" t="s">
+      <c r="H771" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I771" s="25" t="s">
+      <c r="I771" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J771" s="25">
+      <c r="J771" s="1">
         <v>13</v>
       </c>
-      <c r="K771" s="25" t="s">
+      <c r="K771" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="L771" s="25" t="s">
+      <c r="L771" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M771" s="25" t="s">
+      <c r="M771" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N771" s="27" t="s">
+      <c r="N771" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O771" s="25" t="s">
+      <c r="O771" s="1" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="772" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A772" s="26" t="s">
+    <row r="772" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A772" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B772" s="25" t="s">
+      <c r="B772" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C772" s="25" t="s">
+      <c r="C772" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D772" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E772" s="25">
+      <c r="D772" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E772" s="1">
         <v>24</v>
       </c>
-      <c r="F772" s="25" t="s">
+      <c r="F772" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G772" s="25" t="s">
+      <c r="G772" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H772" s="26" t="s">
+      <c r="H772" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I772" s="25" t="s">
+      <c r="I772" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J772" s="25">
+      <c r="J772" s="1">
         <v>13</v>
       </c>
-      <c r="K772" s="29" t="s">
+      <c r="K772" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="L772" s="25" t="s">
+      <c r="L772" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M772" s="25" t="s">
+      <c r="M772" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N772" s="27" t="s">
+      <c r="N772" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O772" s="25" t="s">
+      <c r="O772" s="1" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="773" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A773" s="26" t="s">
+    <row r="773" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A773" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B773" s="25" t="s">
+      <c r="B773" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C773" s="25" t="s">
+      <c r="C773" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D773" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E773" s="25">
+      <c r="D773" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E773" s="1">
         <v>24</v>
       </c>
-      <c r="F773" s="25" t="s">
+      <c r="F773" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G773" s="25" t="s">
+      <c r="G773" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H773" s="26" t="s">
+      <c r="H773" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I773" s="25" t="s">
+      <c r="I773" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J773" s="25">
+      <c r="J773" s="1">
         <v>13</v>
       </c>
-      <c r="K773" s="25" t="s">
+      <c r="K773" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="L773" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M773" s="25" t="s">
+      <c r="L773" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M773" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N773" s="27" t="s">
+      <c r="N773" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O773" s="25" t="s">
+      <c r="O773" s="1" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="774" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A774" s="26" t="s">
+    <row r="774" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A774" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B774" s="25" t="s">
+      <c r="B774" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C774" s="25" t="s">
+      <c r="C774" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D774" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E774" s="25">
+      <c r="D774" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E774" s="1">
         <v>24</v>
       </c>
-      <c r="F774" s="25" t="s">
+      <c r="F774" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G774" s="25" t="s">
+      <c r="G774" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H774" s="26" t="s">
+      <c r="H774" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I774" s="25" t="s">
+      <c r="I774" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J774" s="25">
+      <c r="J774" s="1">
         <v>13</v>
       </c>
-      <c r="K774" s="29" t="s">
+      <c r="K774" s="13" t="s">
         <v>627</v>
       </c>
-      <c r="L774" s="25" t="s">
+      <c r="L774" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M774" s="25" t="s">
+      <c r="M774" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N774" s="27" t="s">
+      <c r="N774" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O774" s="25" t="s">
+      <c r="O774" s="1" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="775" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A775" s="26" t="s">
+    <row r="775" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A775" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B775" s="25" t="s">
+      <c r="B775" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C775" s="25" t="s">
+      <c r="C775" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D775" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E775" s="25">
+      <c r="D775" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E775" s="1">
         <v>24</v>
       </c>
-      <c r="F775" s="25" t="s">
+      <c r="F775" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G775" s="25" t="s">
+      <c r="G775" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H775" s="26" t="s">
+      <c r="H775" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I775" s="25" t="s">
+      <c r="I775" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J775" s="25">
+      <c r="J775" s="1">
         <v>13</v>
       </c>
-      <c r="K775" s="29" t="s">
+      <c r="K775" s="13" t="s">
         <v>628</v>
       </c>
-      <c r="L775" s="25" t="s">
+      <c r="L775" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M775" s="25" t="s">
+      <c r="M775" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N775" s="27" t="s">
+      <c r="N775" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O775" s="25" t="s">
+      <c r="O775" s="1" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="776" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A776" s="26" t="s">
+    <row r="776" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A776" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B776" s="25" t="s">
+      <c r="B776" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C776" s="25" t="s">
+      <c r="C776" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D776" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E776" s="25">
+      <c r="D776" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E776" s="1">
         <v>24</v>
       </c>
-      <c r="F776" s="25" t="s">
+      <c r="F776" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G776" s="25" t="s">
+      <c r="G776" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H776" s="26" t="s">
+      <c r="H776" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I776" s="25" t="s">
+      <c r="I776" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J776" s="25">
+      <c r="J776" s="1">
         <v>13</v>
       </c>
-      <c r="K776" s="25" t="s">
+      <c r="K776" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="L776" s="25" t="s">
+      <c r="L776" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M776" s="25" t="s">
+      <c r="M776" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N776" s="27" t="s">
+      <c r="N776" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O776" s="25" t="s">
+      <c r="O776" s="1" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="777" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A777" s="26" t="s">
+    <row r="777" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A777" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B777" s="25" t="s">
+      <c r="B777" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C777" s="25" t="s">
+      <c r="C777" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D777" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E777" s="25">
+      <c r="D777" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E777" s="1">
         <v>24</v>
       </c>
-      <c r="F777" s="25" t="s">
+      <c r="F777" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G777" s="25" t="s">
+      <c r="G777" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H777" s="26" t="s">
+      <c r="H777" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I777" s="25" t="s">
+      <c r="I777" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J777" s="25">
+      <c r="J777" s="1">
         <v>13</v>
       </c>
-      <c r="K777" s="29" t="s">
+      <c r="K777" s="13" t="s">
         <v>630</v>
       </c>
-      <c r="L777" s="25" t="s">
+      <c r="L777" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M777" s="25" t="s">
+      <c r="M777" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N777" s="27" t="s">
+      <c r="N777" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O777" s="25" t="s">
+      <c r="O777" s="1" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="778" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A778" s="26" t="s">
+    <row r="778" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A778" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B778" s="25" t="s">
+      <c r="B778" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C778" s="25" t="s">
+      <c r="C778" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D778" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E778" s="25">
+      <c r="D778" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E778" s="1">
         <v>24</v>
       </c>
-      <c r="F778" s="25" t="s">
+      <c r="F778" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G778" s="25" t="s">
+      <c r="G778" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H778" s="26" t="s">
+      <c r="H778" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I778" s="25" t="s">
+      <c r="I778" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J778" s="25">
+      <c r="J778" s="1">
         <v>13</v>
       </c>
-      <c r="K778" s="25" t="s">
+      <c r="K778" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="L778" s="25" t="s">
+      <c r="L778" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M778" s="25" t="s">
+      <c r="M778" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N778" s="27" t="s">
+      <c r="N778" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O778" s="25" t="s">
+      <c r="O778" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="779" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A779" s="26" t="s">
+    <row r="779" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A779" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B779" s="25" t="s">
+      <c r="B779" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C779" s="25" t="s">
+      <c r="C779" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D779" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E779" s="25">
+      <c r="D779" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E779" s="1">
         <v>24</v>
       </c>
-      <c r="F779" s="25" t="s">
+      <c r="F779" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G779" s="25" t="s">
+      <c r="G779" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H779" s="26" t="s">
+      <c r="H779" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I779" s="25" t="s">
+      <c r="I779" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J779" s="25">
+      <c r="J779" s="1">
         <v>13</v>
       </c>
-      <c r="K779" s="25" t="s">
+      <c r="K779" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="L779" s="25" t="s">
+      <c r="L779" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M779" s="25" t="s">
+      <c r="M779" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N779" s="27" t="s">
+      <c r="N779" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O779" s="25" t="s">
+      <c r="O779" s="1" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="780" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A780" s="26" t="s">
+    <row r="780" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A780" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B780" s="25" t="s">
+      <c r="B780" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C780" s="25" t="s">
+      <c r="C780" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D780" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E780" s="25">
+      <c r="D780" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E780" s="1">
         <v>24</v>
       </c>
-      <c r="F780" s="25" t="s">
+      <c r="F780" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G780" s="25" t="s">
+      <c r="G780" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H780" s="26" t="s">
+      <c r="H780" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I780" s="25" t="s">
+      <c r="I780" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J780" s="25">
+      <c r="J780" s="1">
         <v>13</v>
       </c>
-      <c r="K780" s="25" t="s">
+      <c r="K780" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="L780" s="25" t="s">
+      <c r="L780" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M780" s="25" t="s">
+      <c r="M780" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N780" s="27" t="s">
+      <c r="N780" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O780" s="25" t="s">
+      <c r="O780" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="781" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A781" s="26" t="s">
+    <row r="781" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A781" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B781" s="25" t="s">
+      <c r="B781" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C781" s="25" t="s">
+      <c r="C781" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D781" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E781" s="25">
+      <c r="D781" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E781" s="1">
         <v>24</v>
       </c>
-      <c r="F781" s="25" t="s">
+      <c r="F781" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G781" s="25" t="s">
+      <c r="G781" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H781" s="26" t="s">
+      <c r="H781" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I781" s="25" t="s">
+      <c r="I781" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J781" s="25">
+      <c r="J781" s="1">
         <v>13</v>
       </c>
-      <c r="K781" s="29" t="s">
+      <c r="K781" s="13" t="s">
         <v>643</v>
       </c>
-      <c r="L781" s="25" t="s">
+      <c r="L781" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M781" s="25" t="s">
+      <c r="M781" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N781" s="27" t="s">
+      <c r="N781" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O781" s="25" t="s">
+      <c r="O781" s="1" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="782" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A782" s="26" t="s">
+    <row r="782" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A782" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B782" s="25" t="s">
+      <c r="B782" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C782" s="25" t="s">
+      <c r="C782" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D782" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E782" s="25">
+      <c r="D782" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E782" s="1">
         <v>24</v>
       </c>
-      <c r="F782" s="25" t="s">
+      <c r="F782" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G782" s="25" t="s">
+      <c r="G782" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H782" s="26" t="s">
+      <c r="H782" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I782" s="25" t="s">
+      <c r="I782" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J782" s="25">
+      <c r="J782" s="1">
         <v>13</v>
       </c>
-      <c r="K782" s="29" t="s">
+      <c r="K782" s="13" t="s">
         <v>644</v>
       </c>
-      <c r="L782" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M782" s="25" t="s">
+      <c r="L782" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M782" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N782" s="27" t="s">
+      <c r="N782" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O782" s="25" t="s">
+      <c r="O782" s="1" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="783" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A783" s="26" t="s">
+    <row r="783" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A783" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B783" s="25" t="s">
+      <c r="B783" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C783" s="25" t="s">
+      <c r="C783" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D783" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E783" s="25">
+      <c r="D783" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E783" s="1">
         <v>24</v>
       </c>
-      <c r="F783" s="25" t="s">
+      <c r="F783" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G783" s="25" t="s">
+      <c r="G783" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H783" s="26" t="s">
+      <c r="H783" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I783" s="25" t="s">
+      <c r="I783" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J783" s="25">
+      <c r="J783" s="1">
         <v>13</v>
       </c>
-      <c r="K783" s="25" t="s">
+      <c r="K783" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="L783" s="25" t="s">
+      <c r="L783" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M783" s="25" t="s">
+      <c r="M783" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N783" s="27" t="s">
+      <c r="N783" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O783" s="25" t="s">
+      <c r="O783" s="1" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="784" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A784" s="26" t="s">
+    <row r="784" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A784" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B784" s="25" t="s">
+      <c r="B784" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C784" s="25" t="s">
+      <c r="C784" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D784" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E784" s="25">
+      <c r="D784" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E784" s="1">
         <v>24</v>
       </c>
-      <c r="F784" s="25" t="s">
+      <c r="F784" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G784" s="25" t="s">
+      <c r="G784" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H784" s="26" t="s">
+      <c r="H784" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I784" s="25" t="s">
+      <c r="I784" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J784" s="25">
+      <c r="J784" s="1">
         <v>13</v>
       </c>
-      <c r="K784" s="25" t="s">
+      <c r="K784" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="L784" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M784" s="25" t="s">
+      <c r="L784" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M784" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N784" s="27" t="s">
+      <c r="N784" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O784" s="25" t="s">
+      <c r="O784" s="1" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="785" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A785" s="26" t="s">
+    <row r="785" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A785" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B785" s="25" t="s">
+      <c r="B785" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C785" s="25" t="s">
+      <c r="C785" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D785" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E785" s="25">
+      <c r="D785" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E785" s="1">
         <v>24</v>
       </c>
-      <c r="F785" s="25" t="s">
+      <c r="F785" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G785" s="25" t="s">
+      <c r="G785" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H785" s="26" t="s">
+      <c r="H785" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I785" s="25" t="s">
+      <c r="I785" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J785" s="25">
+      <c r="J785" s="1">
         <v>13</v>
       </c>
-      <c r="K785" s="25" t="s">
+      <c r="K785" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="L785" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M785" s="25" t="s">
+      <c r="L785" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M785" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N785" s="27" t="s">
+      <c r="N785" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O785" s="25" t="s">
+      <c r="O785" s="1" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="786" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A786" s="26" t="s">
+    <row r="786" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A786" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B786" s="25" t="s">
+      <c r="B786" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C786" s="25" t="s">
+      <c r="C786" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D786" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E786" s="25">
+      <c r="D786" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E786" s="1">
         <v>24</v>
       </c>
-      <c r="F786" s="25" t="s">
+      <c r="F786" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G786" s="25" t="s">
+      <c r="G786" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H786" s="26" t="s">
+      <c r="H786" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I786" s="25" t="s">
+      <c r="I786" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J786" s="25">
+      <c r="J786" s="1">
         <v>13</v>
       </c>
-      <c r="K786" s="29" t="s">
+      <c r="K786" s="13" t="s">
         <v>653</v>
       </c>
-      <c r="L786" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M786" s="25" t="s">
+      <c r="L786" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M786" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N786" s="27" t="s">
+      <c r="N786" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O786" s="25" t="s">
+      <c r="O786" s="1" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="787" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A787" s="26" t="s">
+    <row r="787" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A787" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B787" s="25" t="s">
+      <c r="B787" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C787" s="25" t="s">
+      <c r="C787" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D787" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E787" s="25">
+      <c r="D787" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E787" s="1">
         <v>24</v>
       </c>
-      <c r="F787" s="25" t="s">
+      <c r="F787" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G787" s="25" t="s">
+      <c r="G787" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H787" s="26" t="s">
+      <c r="H787" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I787" s="25" t="s">
+      <c r="I787" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J787" s="25">
+      <c r="J787" s="1">
         <v>13</v>
       </c>
-      <c r="K787" s="29" t="s">
+      <c r="K787" s="13" t="s">
         <v>654</v>
       </c>
-      <c r="L787" s="25" t="s">
+      <c r="L787" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M787" s="25" t="s">
+      <c r="M787" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N787" s="27" t="s">
+      <c r="N787" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O787" s="25" t="s">
+      <c r="O787" s="1" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="788" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A788" s="26" t="s">
+    <row r="788" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A788" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B788" s="25" t="s">
+      <c r="B788" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C788" s="25" t="s">
+      <c r="C788" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D788" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E788" s="25">
+      <c r="D788" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E788" s="1">
         <v>24</v>
       </c>
-      <c r="F788" s="25" t="s">
+      <c r="F788" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G788" s="25" t="s">
+      <c r="G788" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H788" s="26" t="s">
+      <c r="H788" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I788" s="25" t="s">
+      <c r="I788" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J788" s="25">
+      <c r="J788" s="1">
         <v>13</v>
       </c>
-      <c r="K788" s="25" t="s">
+      <c r="K788" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="L788" s="25" t="s">
+      <c r="L788" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M788" s="25" t="s">
+      <c r="M788" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N788" s="27" t="s">
+      <c r="N788" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O788" s="25" t="s">
+      <c r="O788" s="1" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="789" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A789" s="26" t="s">
+    <row r="789" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A789" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B789" s="25" t="s">
+      <c r="B789" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C789" s="25" t="s">
+      <c r="C789" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D789" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E789" s="25">
+      <c r="D789" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E789" s="1">
         <v>24</v>
       </c>
-      <c r="F789" s="25" t="s">
+      <c r="F789" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G789" s="25" t="s">
+      <c r="G789" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H789" s="26" t="s">
+      <c r="H789" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I789" s="25" t="s">
+      <c r="I789" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J789" s="25">
+      <c r="J789" s="1">
         <v>13</v>
       </c>
-      <c r="K789" s="29" t="s">
+      <c r="K789" s="13" t="s">
         <v>656</v>
       </c>
-      <c r="L789" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M789" s="25" t="s">
+      <c r="L789" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M789" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="N789" s="27" t="s">
+      <c r="N789" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O789" s="25" t="s">
+      <c r="O789" s="1" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="790" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A790" s="26" t="s">
+    <row r="790" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A790" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B790" s="25" t="s">
+      <c r="B790" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C790" s="25" t="s">
+      <c r="C790" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D790" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E790" s="25">
+      <c r="D790" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E790" s="1">
         <v>24</v>
       </c>
-      <c r="F790" s="25" t="s">
+      <c r="F790" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G790" s="25" t="s">
+      <c r="G790" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H790" s="26" t="s">
+      <c r="H790" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I790" s="25" t="s">
+      <c r="I790" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J790" s="25">
+      <c r="J790" s="1">
         <v>15</v>
       </c>
-      <c r="K790" s="25" t="s">
+      <c r="K790" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="L790" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M790" s="25" t="s">
+      <c r="L790" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M790" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N790" s="27" t="s">
+      <c r="N790" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O790" s="25" t="s">
+      <c r="O790" s="1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="791" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A791" s="26" t="s">
+    <row r="791" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A791" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B791" s="25" t="s">
+      <c r="B791" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C791" s="25" t="s">
+      <c r="C791" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D791" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E791" s="25">
+      <c r="D791" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E791" s="1">
         <v>24</v>
       </c>
-      <c r="F791" s="25" t="s">
+      <c r="F791" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G791" s="25" t="s">
+      <c r="G791" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H791" s="26" t="s">
+      <c r="H791" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I791" s="25" t="s">
+      <c r="I791" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J791" s="25">
+      <c r="J791" s="1">
         <v>15</v>
       </c>
-      <c r="K791" s="29" t="s">
+      <c r="K791" s="13" t="s">
         <v>665</v>
       </c>
-      <c r="L791" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M791" s="25" t="s">
+      <c r="L791" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M791" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N791" s="27" t="s">
+      <c r="N791" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O791" s="25" t="s">
+      <c r="O791" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="792" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A792" s="26" t="s">
+    <row r="792" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A792" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B792" s="25" t="s">
+      <c r="B792" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C792" s="25" t="s">
+      <c r="C792" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D792" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E792" s="25">
+      <c r="D792" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E792" s="1">
         <v>24</v>
       </c>
-      <c r="F792" s="25" t="s">
+      <c r="F792" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G792" s="25" t="s">
+      <c r="G792" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H792" s="26" t="s">
+      <c r="H792" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I792" s="25" t="s">
+      <c r="I792" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J792" s="25">
+      <c r="J792" s="1">
         <v>15</v>
       </c>
-      <c r="K792" s="29" t="s">
+      <c r="K792" s="13" t="s">
         <v>666</v>
       </c>
-      <c r="L792" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M792" s="25" t="s">
+      <c r="L792" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M792" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N792" s="27" t="s">
+      <c r="N792" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O792" s="25" t="s">
+      <c r="O792" s="1" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="793" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A793" s="26" t="s">
+    <row r="793" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A793" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B793" s="25" t="s">
+      <c r="B793" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C793" s="25" t="s">
+      <c r="C793" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D793" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E793" s="25">
+      <c r="D793" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E793" s="1">
         <v>24</v>
       </c>
-      <c r="F793" s="25" t="s">
+      <c r="F793" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G793" s="25" t="s">
+      <c r="G793" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H793" s="26" t="s">
+      <c r="H793" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I793" s="25" t="s">
+      <c r="I793" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J793" s="25">
+      <c r="J793" s="1">
         <v>15</v>
       </c>
-      <c r="K793" s="29" t="s">
+      <c r="K793" s="13" t="s">
         <v>667</v>
       </c>
-      <c r="L793" s="25" t="s">
+      <c r="L793" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M793" s="25" t="s">
+      <c r="M793" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N793" s="27" t="s">
+      <c r="N793" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O793" s="25" t="s">
+      <c r="O793" s="1" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="794" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A794" s="26" t="s">
+    <row r="794" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A794" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B794" s="25" t="s">
+      <c r="B794" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C794" s="25" t="s">
+      <c r="C794" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D794" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E794" s="25">
+      <c r="D794" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E794" s="1">
         <v>24</v>
       </c>
-      <c r="F794" s="25" t="s">
+      <c r="F794" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G794" s="25" t="s">
+      <c r="G794" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H794" s="26" t="s">
+      <c r="H794" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I794" s="25" t="s">
+      <c r="I794" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J794" s="25">
+      <c r="J794" s="1">
         <v>15</v>
       </c>
-      <c r="K794" s="25" t="s">
+      <c r="K794" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="L794" s="25" t="s">
+      <c r="L794" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M794" s="25" t="s">
+      <c r="M794" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N794" s="27" t="s">
+      <c r="N794" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O794" s="25" t="s">
+      <c r="O794" s="1" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="795" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A795" s="26" t="s">
+    <row r="795" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A795" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B795" s="25" t="s">
+      <c r="B795" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C795" s="25" t="s">
+      <c r="C795" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D795" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E795" s="25">
+      <c r="D795" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E795" s="1">
         <v>24</v>
       </c>
-      <c r="F795" s="25" t="s">
+      <c r="F795" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G795" s="25" t="s">
+      <c r="G795" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H795" s="26" t="s">
+      <c r="H795" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I795" s="25" t="s">
+      <c r="I795" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J795" s="25">
+      <c r="J795" s="1">
         <v>15</v>
       </c>
-      <c r="K795" s="25" t="s">
+      <c r="K795" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="L795" s="25" t="s">
+      <c r="L795" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M795" s="25" t="s">
+      <c r="M795" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N795" s="27" t="s">
+      <c r="N795" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O795" s="25" t="s">
+      <c r="O795" s="1" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="796" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A796" s="26" t="s">
+    <row r="796" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A796" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B796" s="25" t="s">
+      <c r="B796" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C796" s="25" t="s">
+      <c r="C796" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D796" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E796" s="25">
+      <c r="D796" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E796" s="1">
         <v>24</v>
       </c>
-      <c r="F796" s="25" t="s">
+      <c r="F796" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G796" s="25" t="s">
+      <c r="G796" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H796" s="26" t="s">
+      <c r="H796" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I796" s="25" t="s">
+      <c r="I796" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J796" s="25">
+      <c r="J796" s="1">
         <v>15</v>
       </c>
-      <c r="K796" s="25" t="s">
+      <c r="K796" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="L796" s="25" t="s">
+      <c r="L796" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M796" s="25" t="s">
+      <c r="M796" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N796" s="27" t="s">
+      <c r="N796" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O796" s="25" t="s">
+      <c r="O796" s="1" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="797" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A797" s="26" t="s">
+    <row r="797" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A797" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B797" s="25" t="s">
+      <c r="B797" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C797" s="25" t="s">
+      <c r="C797" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D797" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E797" s="25">
+      <c r="D797" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E797" s="1">
         <v>24</v>
       </c>
-      <c r="F797" s="25" t="s">
+      <c r="F797" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G797" s="25" t="s">
+      <c r="G797" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H797" s="26" t="s">
+      <c r="H797" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I797" s="25" t="s">
+      <c r="I797" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J797" s="25">
+      <c r="J797" s="1">
         <v>15</v>
       </c>
-      <c r="K797" s="29" t="s">
+      <c r="K797" s="13" t="s">
         <v>671</v>
       </c>
-      <c r="L797" s="25" t="s">
+      <c r="L797" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M797" s="25" t="s">
+      <c r="M797" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N797" s="27" t="s">
+      <c r="N797" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O797" s="25" t="s">
+      <c r="O797" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="798" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A798" s="26" t="s">
+    <row r="798" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A798" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B798" s="25" t="s">
+      <c r="B798" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C798" s="25" t="s">
+      <c r="C798" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D798" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E798" s="25">
+      <c r="D798" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E798" s="1">
         <v>24</v>
       </c>
-      <c r="F798" s="25" t="s">
+      <c r="F798" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G798" s="25" t="s">
+      <c r="G798" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H798" s="26" t="s">
+      <c r="H798" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I798" s="25" t="s">
+      <c r="I798" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J798" s="25">
+      <c r="J798" s="1">
         <v>15</v>
       </c>
-      <c r="K798" s="25" t="s">
+      <c r="K798" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="L798" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M798" s="25" t="s">
+      <c r="L798" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M798" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N798" s="27" t="s">
+      <c r="N798" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O798" s="25" t="s">
+      <c r="O798" s="1" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="799" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A799" s="26" t="s">
+    <row r="799" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A799" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B799" s="25" t="s">
+      <c r="B799" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C799" s="25" t="s">
+      <c r="C799" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D799" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E799" s="25">
+      <c r="D799" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E799" s="1">
         <v>24</v>
       </c>
-      <c r="F799" s="25" t="s">
+      <c r="F799" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G799" s="25" t="s">
+      <c r="G799" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H799" s="26" t="s">
+      <c r="H799" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I799" s="25" t="s">
+      <c r="I799" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J799" s="25">
+      <c r="J799" s="1">
         <v>15</v>
       </c>
-      <c r="K799" s="25" t="s">
+      <c r="K799" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="L799" s="25" t="s">
+      <c r="L799" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M799" s="25" t="s">
+      <c r="M799" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N799" s="27" t="s">
+      <c r="N799" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O799" s="25" t="s">
+      <c r="O799" s="1" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="800" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A800" s="26" t="s">
+    <row r="800" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A800" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="B800" s="25" t="s">
+      <c r="B800" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C800" s="25" t="s">
+      <c r="C800" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D800" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E800" s="25">
+      <c r="D800" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E800" s="1">
         <v>24</v>
       </c>
-      <c r="F800" s="25" t="s">
+      <c r="F800" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G800" s="25" t="s">
+      <c r="G800" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H800" s="26" t="s">
+      <c r="H800" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="I800" s="25" t="s">
+      <c r="I800" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="J800" s="25">
+      <c r="J800" s="1">
         <v>15</v>
       </c>
-      <c r="K800" s="29" t="s">
+      <c r="K800" s="13" t="s">
         <v>674</v>
       </c>
-      <c r="L800" s="25" t="s">
+      <c r="L800" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M800" s="25" t="s">
+      <c r="M800" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="N800" s="27" t="s">
+      <c r="N800" s="9" t="s">
         <v>1990</v>
       </c>
-      <c r="O800" s="25" t="s">
+      <c r="O800" s="1" t="s">
         <v>661</v>
       </c>
     </row>
@@ -69289,8 +69322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03CCEBD5-C08E-BB4D-BB1B-75C51ED03EB0}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView zoomScale="95" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView topLeftCell="A42" zoomScale="95" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -71588,10 +71621,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBE6D4C-D737-5E4F-BBF1-96687064E73B}">
-  <dimension ref="A1:O56"/>
+  <dimension ref="A1:O131"/>
   <sheetViews>
-    <sheetView zoomScale="50" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="75" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="P60" sqref="P60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -71789,7 +71822,7 @@
         <v>150</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>116</v>
@@ -71930,7 +71963,7 @@
         <v>153</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>116</v>
@@ -72118,7 +72151,7 @@
         <v>157</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>116</v>
@@ -72444,9 +72477,9 @@
         <v>22</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="L18" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="L18" s="26" t="s">
         <v>20</v>
       </c>
       <c r="M18" s="1" t="s">
@@ -72456,7 +72489,7 @@
         <v>453</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>1574</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -72491,7 +72524,7 @@
         <v>22</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L19" s="9" t="s">
         <v>20</v>
@@ -72503,7 +72536,7 @@
         <v>453</v>
       </c>
       <c r="O19" s="9" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -72538,10 +72571,10 @@
         <v>22</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>1557</v>
+        <v>20</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>116</v>
@@ -72550,7 +72583,7 @@
         <v>453</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -72585,10 +72618,10 @@
         <v>22</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>20</v>
+        <v>1557</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>116</v>
@@ -72597,7 +72630,7 @@
         <v>453</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -72632,10 +72665,10 @@
         <v>22</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>116</v>
@@ -72644,7 +72677,7 @@
         <v>453</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -72679,10 +72712,10 @@
         <v>22</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>116</v>
@@ -72691,7 +72724,7 @@
         <v>453</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -72726,7 +72759,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L24" s="9" t="s">
         <v>20</v>
@@ -72738,7 +72771,7 @@
         <v>453</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -72773,10 +72806,10 @@
         <v>22</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>1557</v>
+        <v>20</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>116</v>
@@ -72785,7 +72818,7 @@
         <v>453</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -72820,10 +72853,10 @@
         <v>22</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>20</v>
+        <v>1557</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>116</v>
@@ -72832,7 +72865,7 @@
         <v>453</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -72867,7 +72900,7 @@
         <v>22</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L27" s="9" t="s">
         <v>20</v>
@@ -72879,7 +72912,7 @@
         <v>453</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -72914,10 +72947,10 @@
         <v>22</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>20</v>
+        <v>174</v>
+      </c>
+      <c r="L28" s="25" t="s">
+        <v>2210</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>116</v>
@@ -72926,7 +72959,7 @@
         <v>453</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>1584</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -72961,7 +72994,7 @@
         <v>22</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L29" s="9" t="s">
         <v>20</v>
@@ -72973,7 +73006,7 @@
         <v>453</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -73008,7 +73041,7 @@
         <v>22</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L30" s="9" t="s">
         <v>20</v>
@@ -73020,7 +73053,7 @@
         <v>453</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -73055,7 +73088,7 @@
         <v>22</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L31" s="9" t="s">
         <v>20</v>
@@ -73067,7 +73100,7 @@
         <v>453</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -73102,7 +73135,7 @@
         <v>22</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L32" s="9" t="s">
         <v>20</v>
@@ -73114,7 +73147,7 @@
         <v>453</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -73149,7 +73182,7 @@
         <v>22</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L33" s="9" t="s">
         <v>20</v>
@@ -73161,7 +73194,7 @@
         <v>453</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -73196,7 +73229,7 @@
         <v>22</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L34" s="9" t="s">
         <v>20</v>
@@ -73208,7 +73241,7 @@
         <v>453</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -73243,10 +73276,10 @@
         <v>22</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>116</v>
@@ -73255,7 +73288,7 @@
         <v>453</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
@@ -73290,10 +73323,10 @@
         <v>22</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>1557</v>
+        <v>20</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>116</v>
@@ -73302,7 +73335,7 @@
         <v>453</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
@@ -73337,10 +73370,10 @@
         <v>22</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>1557</v>
+        <v>38</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>116</v>
@@ -73349,7 +73382,7 @@
         <v>453</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
@@ -73384,7 +73417,7 @@
         <v>22</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L38" s="9" t="s">
         <v>1557</v>
@@ -73396,7 +73429,7 @@
         <v>453</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
@@ -73431,10 +73464,10 @@
         <v>22</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="L39" s="9" t="s">
-        <v>20</v>
+        <v>186</v>
+      </c>
+      <c r="L39" s="26" t="s">
+        <v>1557</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>116</v>
@@ -73443,7 +73476,7 @@
         <v>453</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>1595</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
@@ -73478,7 +73511,7 @@
         <v>22</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L40" s="9" t="s">
         <v>1557</v>
@@ -73490,7 +73523,7 @@
         <v>453</v>
       </c>
       <c r="O40" s="9" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
@@ -73525,10 +73558,10 @@
         <v>22</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="L41" s="9" t="s">
-        <v>1557</v>
+        <v>188</v>
+      </c>
+      <c r="L41" s="25" t="s">
+        <v>2210</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>116</v>
@@ -73537,7 +73570,7 @@
         <v>453</v>
       </c>
       <c r="O41" s="9" t="s">
-        <v>1597</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
@@ -73572,7 +73605,7 @@
         <v>22</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="L42" s="9" t="s">
         <v>1557</v>
@@ -73584,7 +73617,7 @@
         <v>453</v>
       </c>
       <c r="O42" s="9" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
@@ -73619,10 +73652,10 @@
         <v>22</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="L43" s="9" t="s">
-        <v>1557</v>
+        <v>190</v>
+      </c>
+      <c r="L43" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>116</v>
@@ -73631,7 +73664,7 @@
         <v>453</v>
       </c>
       <c r="O43" s="9" t="s">
-        <v>1599</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
@@ -73666,10 +73699,10 @@
         <v>22</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>1557</v>
+        <v>20</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>116</v>
@@ -73678,7 +73711,7 @@
         <v>453</v>
       </c>
       <c r="O44" s="9" t="s">
-        <v>1600</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
@@ -73713,7 +73746,7 @@
         <v>22</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L45" s="9" t="s">
         <v>1557</v>
@@ -73725,7 +73758,7 @@
         <v>453</v>
       </c>
       <c r="O45" s="9" t="s">
-        <v>1601</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
@@ -73760,7 +73793,7 @@
         <v>22</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="L46" s="9" t="s">
         <v>1557</v>
@@ -73772,7 +73805,7 @@
         <v>453</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>1602</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
@@ -73807,7 +73840,7 @@
         <v>22</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L47" s="9" t="s">
         <v>1557</v>
@@ -73819,7 +73852,7 @@
         <v>453</v>
       </c>
       <c r="O47" s="9" t="s">
-        <v>1603</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
@@ -73854,7 +73887,7 @@
         <v>22</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="L48" s="9" t="s">
         <v>1557</v>
@@ -73866,7 +73899,7 @@
         <v>453</v>
       </c>
       <c r="O48" s="9" t="s">
-        <v>1604</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
@@ -73901,10 +73934,10 @@
         <v>22</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>38</v>
+        <v>1557</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>116</v>
@@ -73913,7 +73946,7 @@
         <v>453</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>1605</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
@@ -73948,7 +73981,7 @@
         <v>22</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L50" s="9" t="s">
         <v>1557</v>
@@ -73960,7 +73993,7 @@
         <v>453</v>
       </c>
       <c r="O50" s="9" t="s">
-        <v>1606</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
@@ -73995,10 +74028,10 @@
         <v>22</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>20</v>
+        <v>1557</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>116</v>
@@ -74007,7 +74040,7 @@
         <v>453</v>
       </c>
       <c r="O51" s="9" t="s">
-        <v>1607</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
@@ -74042,7 +74075,7 @@
         <v>22</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="L52" s="9" t="s">
         <v>1557</v>
@@ -74054,7 +74087,7 @@
         <v>453</v>
       </c>
       <c r="O52" s="9" t="s">
-        <v>1608</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
@@ -74089,9 +74122,9 @@
         <v>22</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="L53" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L53" s="26" t="s">
         <v>1557</v>
       </c>
       <c r="M53" s="1" t="s">
@@ -74101,7 +74134,7 @@
         <v>453</v>
       </c>
       <c r="O53" s="9" t="s">
-        <v>1609</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
@@ -74136,7 +74169,7 @@
         <v>22</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="L54" s="9" t="s">
         <v>1557</v>
@@ -74148,7 +74181,7 @@
         <v>453</v>
       </c>
       <c r="O54" s="9" t="s">
-        <v>1610</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
@@ -74183,10 +74216,10 @@
         <v>22</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="L55" s="9" t="s">
-        <v>1557</v>
+        <v>202</v>
+      </c>
+      <c r="L55" s="25" t="s">
+        <v>2210</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>116</v>
@@ -74195,14 +74228,3536 @@
         <v>453</v>
       </c>
       <c r="O55" s="9" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="1">
+        <v>22</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J56" s="1">
+        <v>22</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O56" s="9" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="1">
+        <v>22</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J57" s="1">
+        <v>22</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>1557</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O57" s="9" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" s="1">
+        <v>22</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J58" s="1">
+        <v>22</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="L58" s="25" t="s">
+        <v>2210</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O58" s="9" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" s="1">
+        <v>22</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J59" s="1">
+        <v>22</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O59" s="9" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="1">
+        <v>22</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J60" s="1">
+        <v>22</v>
+      </c>
+      <c r="K60" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="L60" s="9" t="s">
+        <v>1557</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O60" s="9" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61" s="1">
+        <v>22</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J61" s="1">
+        <v>22</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>1557</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O61" s="9" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="1">
+        <v>22</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J62" s="1">
+        <v>22</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="L62" s="9" t="s">
+        <v>1557</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O62" s="9" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="1">
+        <v>22</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J63" s="1">
+        <v>22</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>1557</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O63" s="9" t="s">
         <v>1611</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" s="1">
+        <v>22</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J64" s="1">
+        <v>22</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="L64" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O64" s="9" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65" s="1">
+        <v>22</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J65" s="1">
+        <v>22</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="L65" s="25" t="s">
+        <v>2210</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O65" s="9" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" s="1">
+        <v>22</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J66" s="1">
+        <v>22</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="L66" s="26" t="s">
+        <v>1557</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O66" s="9" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" s="1">
+        <v>22</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J67" s="1">
+        <v>22</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L67" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O67" s="9" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" s="1">
+        <v>22</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J68" s="1">
+        <v>22</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="L68" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O68" s="9" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" s="1">
+        <v>22</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J69" s="1">
+        <v>22</v>
+      </c>
+      <c r="K69" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L69" s="26"/>
+      <c r="M69" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O69" s="9" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" s="1">
+        <v>22</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J70" s="1">
+        <v>22</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="L70" s="26"/>
+      <c r="M70" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O70" s="9" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71" s="1">
+        <v>22</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J71" s="1">
+        <v>22</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="L71" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O71" s="9" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" s="1">
+        <v>22</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J72" s="1">
+        <v>22</v>
+      </c>
+      <c r="K72" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="L72" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O72" s="9" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" s="1">
+        <v>22</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J73" s="1">
+        <v>22</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="L73" s="26"/>
+      <c r="M73" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O73" s="9" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74" s="1">
+        <v>22</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J74" s="1">
+        <v>22</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="L74" s="26"/>
+      <c r="M74" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O74" s="9" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75" s="1">
+        <v>22</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J75" s="1">
+        <v>22</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="L75" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O75" s="9" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76" s="1">
+        <v>22</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J76" s="1">
+        <v>22</v>
+      </c>
+      <c r="K76" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="L76" s="26"/>
+      <c r="M76" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O76" s="9" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E77" s="1">
+        <v>22</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J77" s="1">
+        <v>22</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="L77" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O77" s="9" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A78" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" s="1">
+        <v>22</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J78" s="1">
+        <v>22</v>
+      </c>
+      <c r="K78" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L78" s="26"/>
+      <c r="M78" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O78" s="9" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A79" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" s="1">
+        <v>22</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J79" s="1">
+        <v>22</v>
+      </c>
+      <c r="K79" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="L79" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O79" s="9" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A80" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E80" s="1">
+        <v>22</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J80" s="1">
+        <v>22</v>
+      </c>
+      <c r="K80" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="L80" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O80" s="9" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A81" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E81" s="1">
+        <v>22</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J81" s="1">
+        <v>22</v>
+      </c>
+      <c r="K81" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="L81" s="26" t="s">
+        <v>1557</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O81" s="9" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82" s="1">
+        <v>22</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J82" s="1">
+        <v>22</v>
+      </c>
+      <c r="K82" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="L82" s="26"/>
+      <c r="M82" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O82" s="9" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A83" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E83" s="1">
+        <v>22</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J83" s="1">
+        <v>22</v>
+      </c>
+      <c r="K83" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="L83" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O83" s="9" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A84" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E84" s="1">
+        <v>22</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J84" s="1">
+        <v>22</v>
+      </c>
+      <c r="K84" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="L84" s="26" t="s">
+        <v>1557</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O84" s="9" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A85" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E85" s="1">
+        <v>22</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J85" s="1">
+        <v>22</v>
+      </c>
+      <c r="K85" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="L85" s="26"/>
+      <c r="M85" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O85" s="9" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A86" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E86" s="1">
+        <v>22</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J86" s="1">
+        <v>22</v>
+      </c>
+      <c r="K86" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="L86" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O86" s="9" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A87" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E87" s="1">
+        <v>22</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J87" s="1">
+        <v>22</v>
+      </c>
+      <c r="K87" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="L87" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O87" s="9" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A88" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E88" s="1">
+        <v>22</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J88" s="1">
+        <v>22</v>
+      </c>
+      <c r="K88" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="L88" s="26"/>
+      <c r="M88" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O88" s="9" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E89" s="1">
+        <v>22</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J89" s="1">
+        <v>22</v>
+      </c>
+      <c r="K89" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="L89" s="26"/>
+      <c r="M89" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O89" s="9" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E90" s="1">
+        <v>22</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J90" s="1">
+        <v>22</v>
+      </c>
+      <c r="K90" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="L90" s="26"/>
+      <c r="M90" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O90" s="9" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A91" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E91" s="1">
+        <v>22</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J91" s="1">
+        <v>22</v>
+      </c>
+      <c r="K91" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="L91" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O91" s="9" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A92" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E92" s="1">
+        <v>22</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J92" s="1">
+        <v>22</v>
+      </c>
+      <c r="K92" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="L92" s="26"/>
+      <c r="M92" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N92" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O92" s="9" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A93" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E93" s="1">
+        <v>22</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J93" s="1">
+        <v>22</v>
+      </c>
+      <c r="K93" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="L93" s="26"/>
+      <c r="M93" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N93" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O93" s="9" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E94" s="1">
+        <v>22</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J94" s="1">
+        <v>22</v>
+      </c>
+      <c r="K94" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="L94" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O94" s="9" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A95" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E95" s="1">
+        <v>22</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J95" s="1">
+        <v>22</v>
+      </c>
+      <c r="K95" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="L95" s="26"/>
+      <c r="M95" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N95" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O95" s="9" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A96" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E96" s="1">
+        <v>22</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J96" s="1">
+        <v>22</v>
+      </c>
+      <c r="K96" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="L96" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O96" s="9" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A97" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E97" s="1">
+        <v>22</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J97" s="1">
+        <v>22</v>
+      </c>
+      <c r="K97" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="L97" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O97" s="9" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A98" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E98" s="1">
+        <v>22</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J98" s="1">
+        <v>22</v>
+      </c>
+      <c r="K98" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="L98" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O98" s="9" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A99" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E99" s="1">
+        <v>22</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J99" s="1">
+        <v>22</v>
+      </c>
+      <c r="K99" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="L99" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O99" s="9" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A100" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E100" s="1">
+        <v>22</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J100" s="1">
+        <v>22</v>
+      </c>
+      <c r="K100" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="L100" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O100" s="9" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A101" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E101" s="1">
+        <v>22</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J101" s="1">
+        <v>22</v>
+      </c>
+      <c r="K101" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="L101" s="26"/>
+      <c r="M101" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O101" s="9" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A102" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E102" s="1">
+        <v>22</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J102" s="1">
+        <v>22</v>
+      </c>
+      <c r="K102" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="L102" s="26" t="s">
+        <v>1557</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O102" s="9" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A103" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E103" s="1">
+        <v>22</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J103" s="1">
+        <v>22</v>
+      </c>
+      <c r="K103" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="L103" s="26" t="s">
+        <v>1557</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O103" s="9" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A104" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E104" s="1">
+        <v>22</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J104" s="1">
+        <v>22</v>
+      </c>
+      <c r="K104" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="L104" s="26" t="s">
+        <v>1557</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O104" s="9" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A105" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E105" s="1">
+        <v>22</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J105" s="1">
+        <v>22</v>
+      </c>
+      <c r="K105" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="L105" s="26"/>
+      <c r="M105" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O105" s="9" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A106" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E106" s="1">
+        <v>22</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J106" s="1">
+        <v>22</v>
+      </c>
+      <c r="K106" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="L106" s="26"/>
+      <c r="M106" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O106" s="9" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A107" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E107" s="1">
+        <v>22</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J107" s="1">
+        <v>22</v>
+      </c>
+      <c r="K107" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="L107" s="26"/>
+      <c r="M107" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O107" s="9" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A108" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E108" s="1">
+        <v>22</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J108" s="1">
+        <v>22</v>
+      </c>
+      <c r="K108" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="L108" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O108" s="9" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A109" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E109" s="1">
+        <v>22</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J109" s="1">
+        <v>22</v>
+      </c>
+      <c r="K109" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="L109" s="26" t="s">
+        <v>1557</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O109" s="9" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A110" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E110" s="1">
+        <v>22</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J110" s="1">
+        <v>22</v>
+      </c>
+      <c r="K110" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="L110" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O110" s="9" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A111" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E111" s="1">
+        <v>22</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J111" s="1">
+        <v>22</v>
+      </c>
+      <c r="K111" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="L111" s="26" t="s">
+        <v>1557</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O111" s="9" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A112" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E112" s="1">
+        <v>22</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J112" s="1">
+        <v>22</v>
+      </c>
+      <c r="K112" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="L112" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N112" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O112" s="9" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A113" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E113" s="1">
+        <v>22</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J113" s="1">
+        <v>22</v>
+      </c>
+      <c r="K113" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="L113" s="26" t="s">
+        <v>1557</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O113" s="9" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A114" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E114" s="1">
+        <v>22</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J114" s="1">
+        <v>22</v>
+      </c>
+      <c r="K114" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="L114" s="26" t="s">
+        <v>1557</v>
+      </c>
+      <c r="M114" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N114" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O114" s="9" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A115" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E115" s="1">
+        <v>22</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J115" s="1">
+        <v>22</v>
+      </c>
+      <c r="K115" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="L115" s="26" t="s">
+        <v>1557</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N115" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O115" s="9" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A116" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E116" s="1">
+        <v>22</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J116" s="1">
+        <v>22</v>
+      </c>
+      <c r="K116" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="L116" s="26" t="s">
+        <v>1557</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N116" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O116" s="9" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A117" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E117" s="1">
+        <v>22</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J117" s="1">
+        <v>22</v>
+      </c>
+      <c r="K117" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="L117" s="26" t="s">
+        <v>1557</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N117" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O117" s="9" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A118" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E118" s="1">
+        <v>22</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J118" s="1">
+        <v>22</v>
+      </c>
+      <c r="K118" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="L118" s="26" t="s">
+        <v>1557</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O118" s="9" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A119" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E119" s="1">
+        <v>22</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J119" s="1">
+        <v>22</v>
+      </c>
+      <c r="K119" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="L119" s="26" t="s">
+        <v>1557</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N119" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O119" s="9" t="s">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A120" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E120" s="1">
+        <v>22</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J120" s="1">
+        <v>22</v>
+      </c>
+      <c r="K120" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="L120" s="26" t="s">
+        <v>1557</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N120" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O120" s="9" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A121" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E121" s="1">
+        <v>22</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J121" s="1">
+        <v>22</v>
+      </c>
+      <c r="K121" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="L121" s="26" t="s">
+        <v>1557</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N121" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O121" s="9" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A122" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E122" s="1">
+        <v>22</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J122" s="1">
+        <v>22</v>
+      </c>
+      <c r="K122" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="L122" s="26" t="s">
+        <v>1557</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N122" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O122" s="9" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A123" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E123" s="1">
+        <v>22</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J123" s="1">
+        <v>22</v>
+      </c>
+      <c r="K123" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="L123" s="26"/>
+      <c r="M123" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N123" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O123" s="9" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A124" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E124" s="1">
+        <v>22</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J124" s="1">
+        <v>22</v>
+      </c>
+      <c r="K124" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="L124" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N124" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O124" s="9" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A125" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E125" s="1">
+        <v>22</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J125" s="1">
+        <v>22</v>
+      </c>
+      <c r="K125" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="L125" s="26"/>
+      <c r="M125" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N125" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O125" s="9" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A126" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E126" s="1">
+        <v>22</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J126" s="1">
+        <v>22</v>
+      </c>
+      <c r="K126" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="L126" s="26"/>
+      <c r="M126" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N126" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O126" s="9" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A127" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E127" s="1">
+        <v>22</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J127" s="1">
+        <v>22</v>
+      </c>
+      <c r="K127" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="L127" s="26" t="s">
+        <v>1557</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O127" s="9" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A128" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E128" s="1">
+        <v>22</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J128" s="1">
+        <v>22</v>
+      </c>
+      <c r="K128" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="L128" s="26"/>
+      <c r="M128" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N128" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O128" s="9" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A129" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E129" s="1">
+        <v>22</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H129" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J129" s="1">
+        <v>22</v>
+      </c>
+      <c r="K129" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="L129" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M129" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N129" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O129" s="9" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A130" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E130" s="1">
+        <v>22</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J130" s="1">
+        <v>22</v>
+      </c>
+      <c r="K130" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="L130" s="26"/>
+      <c r="M130" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N130" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O130" s="9" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A131" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E131" s="1">
+        <v>22</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H131" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J131" s="1">
+        <v>22</v>
+      </c>
+      <c r="K131" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="L131" s="26"/>
+      <c r="M131" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N131" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="O131" s="9" t="s">
+        <v>2209</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/02_in_data/All_LRR_PRR_ligand_data.xlsx
+++ b/02_in_data/All_LRR_PRR_ligand_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffd16e31ab085cd5/Krasevia_Lab/Project/01_peptide_ML_prediction/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniellestevens/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6024" documentId="8_{762EC3FE-3198-8040-A112-7E9B61E2665E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F268835-855C-E14F-8D14-FD3DD978101C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FE9B50-CBB0-2843-9B8F-77E6E29E137E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="41480" yWindow="25920" windowWidth="33600" windowHeight="14980" activeTab="2" xr2:uid="{5C5BCD9C-73C9-CF41-954E-ACA1A5D65A44}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19036" uniqueCount="2211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19060" uniqueCount="2211">
   <si>
     <t>Plant species</t>
   </si>
@@ -7757,7 +7757,7 @@
     <t>Cm csp22-3</t>
   </si>
   <si>
-    <t>TBD</t>
+    <t>NT</t>
   </si>
 </sst>
 </file>
@@ -7981,7 +7981,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -71623,8 +71623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCBE6D4C-D737-5E4F-BBF1-96687064E73B}">
   <dimension ref="A1:O131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="75" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="P60" sqref="P60"/>
+    <sheetView tabSelected="1" topLeftCell="B101" zoomScale="75" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="L138" sqref="L138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -71822,7 +71822,7 @@
         <v>150</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>116</v>
@@ -72010,7 +72010,7 @@
         <v>154</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>116</v>
@@ -72151,7 +72151,7 @@
         <v>157</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>116</v>
@@ -72479,7 +72479,7 @@
       <c r="K18" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="L18" s="26" t="s">
+      <c r="L18" s="9" t="s">
         <v>20</v>
       </c>
       <c r="M18" s="1" t="s">
@@ -72715,7 +72715,7 @@
         <v>169</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>116</v>
@@ -72949,8 +72949,8 @@
       <c r="K28" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="L28" s="25" t="s">
-        <v>2210</v>
+      <c r="L28" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>116</v>
@@ -73466,7 +73466,7 @@
       <c r="K39" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="L39" s="26" t="s">
+      <c r="L39" s="9" t="s">
         <v>1557</v>
       </c>
       <c r="M39" s="1" t="s">
@@ -73560,8 +73560,8 @@
       <c r="K41" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="L41" s="25" t="s">
-        <v>2210</v>
+      <c r="L41" s="9" t="s">
+        <v>1557</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>116</v>
@@ -73654,7 +73654,7 @@
       <c r="K43" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="L43" s="26" t="s">
+      <c r="L43" s="9" t="s">
         <v>38</v>
       </c>
       <c r="M43" s="1" t="s">
@@ -73749,7 +73749,7 @@
         <v>192</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>1557</v>
+        <v>38</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>116</v>
@@ -73984,7 +73984,7 @@
         <v>197</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>1557</v>
+        <v>38</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>116</v>
@@ -74124,7 +74124,7 @@
       <c r="K53" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="L53" s="26" t="s">
+      <c r="L53" s="9" t="s">
         <v>1557</v>
       </c>
       <c r="M53" s="1" t="s">
@@ -74218,8 +74218,8 @@
       <c r="K55" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="L55" s="25" t="s">
-        <v>2210</v>
+      <c r="L55" s="9" t="s">
+        <v>1557</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>116</v>
@@ -74359,8 +74359,8 @@
       <c r="K58" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="L58" s="25" t="s">
-        <v>2210</v>
+      <c r="L58" s="9" t="s">
+        <v>1557</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>116</v>
@@ -74688,8 +74688,8 @@
       <c r="K65" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="L65" s="25" t="s">
-        <v>2210</v>
+      <c r="L65" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>116</v>
@@ -74782,7 +74782,7 @@
       <c r="K67" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="L67" s="26" t="s">
+      <c r="L67" s="9" t="s">
         <v>20</v>
       </c>
       <c r="M67" s="1" t="s">
@@ -74829,8 +74829,8 @@
       <c r="K68" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="L68" s="26" t="s">
-        <v>20</v>
+      <c r="L68" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>116</v>
@@ -74876,7 +74876,9 @@
       <c r="K69" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="L69" s="26"/>
+      <c r="L69" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="M69" s="1" t="s">
         <v>116</v>
       </c>
@@ -74921,7 +74923,9 @@
       <c r="K70" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="L70" s="26"/>
+      <c r="L70" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="M70" s="1" t="s">
         <v>116</v>
       </c>
@@ -74966,7 +74970,7 @@
       <c r="K71" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="L71" s="26" t="s">
+      <c r="L71" s="9" t="s">
         <v>38</v>
       </c>
       <c r="M71" s="1" t="s">
@@ -75013,7 +75017,7 @@
       <c r="K72" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="L72" s="26" t="s">
+      <c r="L72" s="9" t="s">
         <v>38</v>
       </c>
       <c r="M72" s="1" t="s">
@@ -75060,7 +75064,9 @@
       <c r="K73" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="L73" s="26"/>
+      <c r="L73" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="M73" s="1" t="s">
         <v>116</v>
       </c>
@@ -75105,7 +75111,9 @@
       <c r="K74" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="L74" s="26"/>
+      <c r="L74" s="25" t="s">
+        <v>2210</v>
+      </c>
       <c r="M74" s="1" t="s">
         <v>116</v>
       </c>
@@ -75150,7 +75158,7 @@
       <c r="K75" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="L75" s="26" t="s">
+      <c r="L75" s="9" t="s">
         <v>20</v>
       </c>
       <c r="M75" s="1" t="s">
@@ -75197,7 +75205,9 @@
       <c r="K76" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="L76" s="26"/>
+      <c r="L76" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="M76" s="1" t="s">
         <v>116</v>
       </c>
@@ -75242,7 +75252,7 @@
       <c r="K77" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="L77" s="26" t="s">
+      <c r="L77" s="9" t="s">
         <v>20</v>
       </c>
       <c r="M77" s="1" t="s">
@@ -75289,7 +75299,9 @@
       <c r="K78" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="L78" s="26"/>
+      <c r="L78" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="M78" s="1" t="s">
         <v>116</v>
       </c>
@@ -75334,7 +75346,7 @@
       <c r="K79" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="L79" s="26" t="s">
+      <c r="L79" s="9" t="s">
         <v>38</v>
       </c>
       <c r="M79" s="1" t="s">
@@ -75381,7 +75393,7 @@
       <c r="K80" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="L80" s="26" t="s">
+      <c r="L80" s="9" t="s">
         <v>20</v>
       </c>
       <c r="M80" s="1" t="s">
@@ -75428,7 +75440,7 @@
       <c r="K81" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="L81" s="26" t="s">
+      <c r="L81" s="9" t="s">
         <v>1557</v>
       </c>
       <c r="M81" s="1" t="s">
@@ -75475,7 +75487,9 @@
       <c r="K82" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="L82" s="26"/>
+      <c r="L82" s="25" t="s">
+        <v>2210</v>
+      </c>
       <c r="M82" s="1" t="s">
         <v>116</v>
       </c>
@@ -75520,7 +75534,7 @@
       <c r="K83" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="L83" s="26" t="s">
+      <c r="L83" s="9" t="s">
         <v>20</v>
       </c>
       <c r="M83" s="1" t="s">
@@ -75567,7 +75581,7 @@
       <c r="K84" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="L84" s="26" t="s">
+      <c r="L84" s="9" t="s">
         <v>1557</v>
       </c>
       <c r="M84" s="1" t="s">
@@ -75614,7 +75628,9 @@
       <c r="K85" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="L85" s="26"/>
+      <c r="L85" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="M85" s="1" t="s">
         <v>116</v>
       </c>
@@ -75659,7 +75675,7 @@
       <c r="K86" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="L86" s="26" t="s">
+      <c r="L86" s="9" t="s">
         <v>38</v>
       </c>
       <c r="M86" s="1" t="s">
@@ -75706,7 +75722,7 @@
       <c r="K87" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="L87" s="26" t="s">
+      <c r="L87" s="9" t="s">
         <v>38</v>
       </c>
       <c r="M87" s="1" t="s">
@@ -75753,7 +75769,9 @@
       <c r="K88" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="L88" s="26"/>
+      <c r="L88" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="M88" s="1" t="s">
         <v>116</v>
       </c>
@@ -75798,7 +75816,9 @@
       <c r="K89" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="L89" s="26"/>
+      <c r="L89" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="M89" s="1" t="s">
         <v>116</v>
       </c>
@@ -75843,7 +75863,9 @@
       <c r="K90" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="L90" s="26"/>
+      <c r="L90" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="M90" s="1" t="s">
         <v>116</v>
       </c>
@@ -75888,7 +75910,7 @@
       <c r="K91" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="L91" s="26" t="s">
+      <c r="L91" s="9" t="s">
         <v>38</v>
       </c>
       <c r="M91" s="1" t="s">
@@ -75935,7 +75957,9 @@
       <c r="K92" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="L92" s="26"/>
+      <c r="L92" s="25" t="s">
+        <v>2210</v>
+      </c>
       <c r="M92" s="1" t="s">
         <v>116</v>
       </c>
@@ -75980,7 +76004,9 @@
       <c r="K93" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="L93" s="26"/>
+      <c r="L93" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="M93" s="1" t="s">
         <v>116</v>
       </c>
@@ -76025,7 +76051,7 @@
       <c r="K94" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="L94" s="26" t="s">
+      <c r="L94" s="9" t="s">
         <v>20</v>
       </c>
       <c r="M94" s="1" t="s">
@@ -76072,7 +76098,9 @@
       <c r="K95" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="L95" s="26"/>
+      <c r="L95" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="M95" s="1" t="s">
         <v>116</v>
       </c>
@@ -76117,7 +76145,7 @@
       <c r="K96" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="L96" s="26" t="s">
+      <c r="L96" s="9" t="s">
         <v>38</v>
       </c>
       <c r="M96" s="1" t="s">
@@ -76164,7 +76192,7 @@
       <c r="K97" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="L97" s="26" t="s">
+      <c r="L97" s="9" t="s">
         <v>38</v>
       </c>
       <c r="M97" s="1" t="s">
@@ -76211,7 +76239,7 @@
       <c r="K98" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="L98" s="26" t="s">
+      <c r="L98" s="9" t="s">
         <v>20</v>
       </c>
       <c r="M98" s="1" t="s">
@@ -76258,7 +76286,7 @@
       <c r="K99" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="L99" s="26" t="s">
+      <c r="L99" s="9" t="s">
         <v>38</v>
       </c>
       <c r="M99" s="1" t="s">
@@ -76305,7 +76333,7 @@
       <c r="K100" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="L100" s="26" t="s">
+      <c r="L100" s="9" t="s">
         <v>38</v>
       </c>
       <c r="M100" s="1" t="s">
@@ -76352,7 +76380,9 @@
       <c r="K101" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="L101" s="26"/>
+      <c r="L101" s="25" t="s">
+        <v>2210</v>
+      </c>
       <c r="M101" s="1" t="s">
         <v>116</v>
       </c>
@@ -76397,7 +76427,7 @@
       <c r="K102" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="L102" s="26" t="s">
+      <c r="L102" s="9" t="s">
         <v>1557</v>
       </c>
       <c r="M102" s="1" t="s">
@@ -76444,7 +76474,7 @@
       <c r="K103" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="L103" s="26" t="s">
+      <c r="L103" s="9" t="s">
         <v>1557</v>
       </c>
       <c r="M103" s="1" t="s">
@@ -76491,7 +76521,7 @@
       <c r="K104" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="L104" s="26" t="s">
+      <c r="L104" s="9" t="s">
         <v>1557</v>
       </c>
       <c r="M104" s="1" t="s">
@@ -76538,7 +76568,9 @@
       <c r="K105" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="L105" s="26"/>
+      <c r="L105" s="9" t="s">
+        <v>1557</v>
+      </c>
       <c r="M105" s="1" t="s">
         <v>116</v>
       </c>
@@ -76583,7 +76615,9 @@
       <c r="K106" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="L106" s="26"/>
+      <c r="L106" s="25" t="s">
+        <v>2210</v>
+      </c>
       <c r="M106" s="1" t="s">
         <v>116</v>
       </c>
@@ -76628,7 +76662,9 @@
       <c r="K107" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="L107" s="26"/>
+      <c r="L107" s="25" t="s">
+        <v>2210</v>
+      </c>
       <c r="M107" s="1" t="s">
         <v>116</v>
       </c>
@@ -76673,7 +76709,7 @@
       <c r="K108" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="L108" s="26" t="s">
+      <c r="L108" s="9" t="s">
         <v>20</v>
       </c>
       <c r="M108" s="1" t="s">
@@ -76720,7 +76756,7 @@
       <c r="K109" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="L109" s="26" t="s">
+      <c r="L109" s="9" t="s">
         <v>1557</v>
       </c>
       <c r="M109" s="1" t="s">
@@ -76767,7 +76803,7 @@
       <c r="K110" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="L110" s="26" t="s">
+      <c r="L110" s="9" t="s">
         <v>20</v>
       </c>
       <c r="M110" s="1" t="s">
@@ -76814,7 +76850,7 @@
       <c r="K111" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="L111" s="26" t="s">
+      <c r="L111" s="9" t="s">
         <v>1557</v>
       </c>
       <c r="M111" s="1" t="s">
@@ -76861,7 +76897,7 @@
       <c r="K112" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="L112" s="26" t="s">
+      <c r="L112" s="9" t="s">
         <v>38</v>
       </c>
       <c r="M112" s="1" t="s">
@@ -76908,8 +76944,8 @@
       <c r="K113" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="L113" s="26" t="s">
-        <v>1557</v>
+      <c r="L113" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="M113" s="1" t="s">
         <v>116</v>
@@ -76955,7 +76991,7 @@
       <c r="K114" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="L114" s="26" t="s">
+      <c r="L114" s="9" t="s">
         <v>1557</v>
       </c>
       <c r="M114" s="1" t="s">
@@ -77002,7 +77038,7 @@
       <c r="K115" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="L115" s="26" t="s">
+      <c r="L115" s="9" t="s">
         <v>1557</v>
       </c>
       <c r="M115" s="1" t="s">
@@ -77049,7 +77085,7 @@
       <c r="K116" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="L116" s="26" t="s">
+      <c r="L116" s="9" t="s">
         <v>1557</v>
       </c>
       <c r="M116" s="1" t="s">
@@ -77096,7 +77132,7 @@
       <c r="K117" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="L117" s="26" t="s">
+      <c r="L117" s="9" t="s">
         <v>1557</v>
       </c>
       <c r="M117" s="1" t="s">
@@ -77143,7 +77179,7 @@
       <c r="K118" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="L118" s="26" t="s">
+      <c r="L118" s="9" t="s">
         <v>1557</v>
       </c>
       <c r="M118" s="1" t="s">
@@ -77190,7 +77226,7 @@
       <c r="K119" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="L119" s="26" t="s">
+      <c r="L119" s="9" t="s">
         <v>1557</v>
       </c>
       <c r="M119" s="1" t="s">
@@ -77237,7 +77273,7 @@
       <c r="K120" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="L120" s="26" t="s">
+      <c r="L120" s="9" t="s">
         <v>1557</v>
       </c>
       <c r="M120" s="1" t="s">
@@ -77284,7 +77320,7 @@
       <c r="K121" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="L121" s="26" t="s">
+      <c r="L121" s="9" t="s">
         <v>1557</v>
       </c>
       <c r="M121" s="1" t="s">
@@ -77331,7 +77367,7 @@
       <c r="K122" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="L122" s="26" t="s">
+      <c r="L122" s="9" t="s">
         <v>1557</v>
       </c>
       <c r="M122" s="1" t="s">
@@ -77378,7 +77414,9 @@
       <c r="K123" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="L123" s="26"/>
+      <c r="L123" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="M123" s="1" t="s">
         <v>116</v>
       </c>
@@ -77423,7 +77461,7 @@
       <c r="K124" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="L124" s="26" t="s">
+      <c r="L124" s="9" t="s">
         <v>20</v>
       </c>
       <c r="M124" s="1" t="s">
@@ -77470,7 +77508,9 @@
       <c r="K125" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="L125" s="26"/>
+      <c r="L125" s="25" t="s">
+        <v>2210</v>
+      </c>
       <c r="M125" s="1" t="s">
         <v>116</v>
       </c>
@@ -77515,7 +77555,9 @@
       <c r="K126" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="L126" s="26"/>
+      <c r="L126" s="25" t="s">
+        <v>2210</v>
+      </c>
       <c r="M126" s="1" t="s">
         <v>116</v>
       </c>
@@ -77560,7 +77602,7 @@
       <c r="K127" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="L127" s="26" t="s">
+      <c r="L127" s="9" t="s">
         <v>1557</v>
       </c>
       <c r="M127" s="1" t="s">
@@ -77607,7 +77649,9 @@
       <c r="K128" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="L128" s="26"/>
+      <c r="L128" s="25" t="s">
+        <v>2210</v>
+      </c>
       <c r="M128" s="1" t="s">
         <v>116</v>
       </c>
@@ -77652,7 +77696,7 @@
       <c r="K129" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="L129" s="26" t="s">
+      <c r="L129" s="9" t="s">
         <v>20</v>
       </c>
       <c r="M129" s="1" t="s">
@@ -77699,7 +77743,9 @@
       <c r="K130" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="L130" s="26"/>
+      <c r="L130" s="25" t="s">
+        <v>2210</v>
+      </c>
       <c r="M130" s="1" t="s">
         <v>116</v>
       </c>
@@ -77744,7 +77790,9 @@
       <c r="K131" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="L131" s="26"/>
+      <c r="L131" s="9" t="s">
+        <v>1557</v>
+      </c>
       <c r="M131" s="1" t="s">
         <v>116</v>
       </c>
